--- a/website/everyday-update/data/881001.WI.xlsx
+++ b/website/everyday-update/data/881001.WI.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1836"/>
+  <dimension ref="A1:D1840"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -26075,13 +26075,69 @@
         <v>43027</v>
       </c>
       <c r="B1836">
-        <v>57.86239368165249</v>
+        <v>57.85336976320583</v>
       </c>
       <c r="C1836">
-        <v>-0.03894337870276902</v>
+        <v>-0.03895117459430345</v>
       </c>
       <c r="D1836">
-        <v>0.2813491883586112</v>
+        <v>0.2812227126654708</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:4">
+      <c r="A1837" s="2">
+        <v>43028</v>
+      </c>
+      <c r="B1837">
+        <v>58.11961141469338</v>
+      </c>
+      <c r="C1837">
+        <v>-0.02816407877813207</v>
+      </c>
+      <c r="D1837">
+        <v>0.345862021366581</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:4">
+      <c r="A1838" s="2">
+        <v>43031</v>
+      </c>
+      <c r="B1838">
+        <v>58.33667273831208</v>
+      </c>
+      <c r="C1838">
+        <v>-0.02225119791120849</v>
+      </c>
+      <c r="D1838">
+        <v>0.3831657989486472</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:4">
+      <c r="A1839" s="2">
+        <v>43032</v>
+      </c>
+      <c r="B1839">
+        <v>58.54826958105647</v>
+      </c>
+      <c r="C1839">
+        <v>-0.02708933708333439</v>
+      </c>
+      <c r="D1839">
+        <v>0.3457125859059607</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:4">
+      <c r="A1840" s="2">
+        <v>43033</v>
+      </c>
+      <c r="B1840">
+        <v>58.54987834549878</v>
+      </c>
+      <c r="C1840">
+        <v>-0.0199543214738997</v>
+      </c>
+      <c r="D1840">
+        <v>0.3987115871083369</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/881001.WI.xlsx
+++ b/website/everyday-update/data/881001.WI.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1840"/>
+  <dimension ref="A1:D1860"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -26131,13 +26131,293 @@
         <v>43033</v>
       </c>
       <c r="B1840">
-        <v>58.54987834549878</v>
+        <v>58.50364298724954</v>
       </c>
       <c r="C1840">
-        <v>-0.0199543214738997</v>
+        <v>-0.01992708972100754</v>
       </c>
       <c r="D1840">
-        <v>0.3987115871083369</v>
+        <v>0.3989121730178219</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:4">
+      <c r="A1841" s="2">
+        <v>43034</v>
+      </c>
+      <c r="B1841">
+        <v>58.57134183363691</v>
+      </c>
+      <c r="C1841">
+        <v>-0.01651646026167086</v>
+      </c>
+      <c r="D1841">
+        <v>0.4214271632045638</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:4">
+      <c r="A1842" s="2">
+        <v>43035</v>
+      </c>
+      <c r="B1842">
+        <v>58.69307832422587</v>
+      </c>
+      <c r="C1842">
+        <v>-0.02247504059409184</v>
+      </c>
+      <c r="D1842">
+        <v>0.3663378582435273</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:4">
+      <c r="A1843" s="2">
+        <v>43038</v>
+      </c>
+      <c r="B1843">
+        <v>58.66909532483303</v>
+      </c>
+      <c r="C1843">
+        <v>-0.04612025029780798</v>
+      </c>
+      <c r="D1843">
+        <v>0.2576877800489059</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:4">
+      <c r="A1844" s="2">
+        <v>43039</v>
+      </c>
+      <c r="B1844">
+        <v>58.88312082574377</v>
+      </c>
+      <c r="C1844">
+        <v>-0.03835828123492808</v>
+      </c>
+      <c r="D1844">
+        <v>0.3093384784639155</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:4">
+      <c r="A1845" s="2">
+        <v>43040</v>
+      </c>
+      <c r="B1845">
+        <v>58.96235579842137</v>
+      </c>
+      <c r="C1845">
+        <v>-0.03719806065245471</v>
+      </c>
+      <c r="D1845">
+        <v>0.3142652997728503</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:4">
+      <c r="A1846" s="2">
+        <v>43041</v>
+      </c>
+      <c r="B1846">
+        <v>59.10443230115362</v>
+      </c>
+      <c r="C1846">
+        <v>-0.04688928277353766</v>
+      </c>
+      <c r="D1846">
+        <v>0.2718879678909121</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:4">
+      <c r="A1847" s="2">
+        <v>43042</v>
+      </c>
+      <c r="B1847">
+        <v>59.28081360048573</v>
+      </c>
+      <c r="C1847">
+        <v>-0.05351857629522667</v>
+      </c>
+      <c r="D1847">
+        <v>0.2485384252860202</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:4">
+      <c r="A1848" s="2">
+        <v>43045</v>
+      </c>
+      <c r="B1848">
+        <v>59.47783849423194</v>
+      </c>
+      <c r="C1848">
+        <v>-0.0436673181827392</v>
+      </c>
+      <c r="D1848">
+        <v>0.3085607018825735</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:4">
+      <c r="A1849" s="2">
+        <v>43046</v>
+      </c>
+      <c r="B1849">
+        <v>59.63205828779599</v>
+      </c>
+      <c r="C1849">
+        <v>-0.03892367944650012</v>
+      </c>
+      <c r="D1849">
+        <v>0.3322760955070718</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:4">
+      <c r="A1850" s="2">
+        <v>43047</v>
+      </c>
+      <c r="B1850">
+        <v>59.58075288403158</v>
+      </c>
+      <c r="C1850">
+        <v>-0.03601478435180352</v>
+      </c>
+      <c r="D1850">
+        <v>0.334320922625119</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:4">
+      <c r="A1851" s="2">
+        <v>43048</v>
+      </c>
+      <c r="B1851">
+        <v>59.75743776563449</v>
+      </c>
+      <c r="C1851">
+        <v>-0.03083351065767587</v>
+      </c>
+      <c r="D1851">
+        <v>0.3649808396145932</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:4">
+      <c r="A1852" s="2">
+        <v>43049</v>
+      </c>
+      <c r="B1852">
+        <v>59.80449301760777</v>
+      </c>
+      <c r="C1852">
+        <v>-0.02941108710045653</v>
+      </c>
+      <c r="D1852">
+        <v>0.3653209385878088</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:4">
+      <c r="A1853" s="2">
+        <v>43052</v>
+      </c>
+      <c r="B1853">
+        <v>59.79690346083789</v>
+      </c>
+      <c r="C1853">
+        <v>-0.02905328138153986</v>
+      </c>
+      <c r="D1853">
+        <v>0.3692474527040221</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:4">
+      <c r="A1854" s="2">
+        <v>43053</v>
+      </c>
+      <c r="B1854">
+        <v>59.73770491803279</v>
+      </c>
+      <c r="C1854">
+        <v>-0.03675170694890025</v>
+      </c>
+      <c r="D1854">
+        <v>0.321848624065207</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:4">
+      <c r="A1855" s="2">
+        <v>43054</v>
+      </c>
+      <c r="B1855">
+        <v>59.84820886460231</v>
+      </c>
+      <c r="C1855">
+        <v>-0.0446172163412951</v>
+      </c>
+      <c r="D1855">
+        <v>0.2794550826184226</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:4">
+      <c r="A1856" s="2">
+        <v>43055</v>
+      </c>
+      <c r="B1856">
+        <v>59.95719489981785</v>
+      </c>
+      <c r="C1856">
+        <v>-0.04801812216725632</v>
+      </c>
+      <c r="D1856">
+        <v>0.2603754691586777</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:4">
+      <c r="A1857" s="2">
+        <v>43056</v>
+      </c>
+      <c r="B1857">
+        <v>59.69247115968427</v>
+      </c>
+      <c r="C1857">
+        <v>-0.08022771330698998</v>
+      </c>
+      <c r="D1857">
+        <v>0.1733903268254</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:4">
+      <c r="A1858" s="2">
+        <v>43059</v>
+      </c>
+      <c r="B1858">
+        <v>59.87067395264116</v>
+      </c>
+      <c r="C1858">
+        <v>-0.0760405666544071</v>
+      </c>
+      <c r="D1858">
+        <v>0.2103064319790992</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:4">
+      <c r="A1859" s="2">
+        <v>43060</v>
+      </c>
+      <c r="B1859">
+        <v>59.98573163327261</v>
+      </c>
+      <c r="C1859">
+        <v>-0.07530079256669729</v>
+      </c>
+      <c r="D1859">
+        <v>0.2214561409494985</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:4">
+      <c r="A1860" s="2">
+        <v>43061</v>
+      </c>
+      <c r="B1860">
+        <v>60.00091157702826</v>
+      </c>
+      <c r="C1860">
+        <v>-0.07471635671299083</v>
+      </c>
+      <c r="D1860">
+        <v>0.225417705827515</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/881001.WI.xlsx
+++ b/website/everyday-update/data/881001.WI.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1940"/>
+  <dimension ref="A1:D1958"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -27522,13 +27522,265 @@
         <v>43091</v>
       </c>
       <c r="B1940">
-        <v>66.56088672942606</v>
+        <v>66.56162720097146</v>
       </c>
       <c r="C1940">
-        <v>-0.07987082605454762</v>
+        <v>-0.07988605484280881</v>
       </c>
       <c r="D1940">
-        <v>0.225411076576171</v>
+        <v>0.2253469983736958</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:4">
+      <c r="A1941" s="2">
+        <v>43094</v>
+      </c>
+      <c r="B1941">
+        <v>66.66241651487553</v>
+      </c>
+      <c r="C1941">
+        <v>-0.08995676707882583</v>
+      </c>
+      <c r="D1941">
+        <v>0.1908800152138562</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:4">
+      <c r="A1942" s="2">
+        <v>43095</v>
+      </c>
+      <c r="B1942">
+        <v>66.94140862173649</v>
+      </c>
+      <c r="C1942">
+        <v>-0.08116158969006636</v>
+      </c>
+      <c r="D1942">
+        <v>0.236866391879855</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:4">
+      <c r="A1943" s="2">
+        <v>43096</v>
+      </c>
+      <c r="B1943">
+        <v>67.23224043715847</v>
+      </c>
+      <c r="C1943">
+        <v>-0.083896275924407</v>
+      </c>
+      <c r="D1943">
+        <v>0.2141296528446177</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:4">
+      <c r="A1944" s="2">
+        <v>43097</v>
+      </c>
+      <c r="B1944">
+        <v>67.51639344262296</v>
+      </c>
+      <c r="C1944">
+        <v>-0.07953158736399933</v>
+      </c>
+      <c r="D1944">
+        <v>0.2369115056541121</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:4">
+      <c r="A1945" s="2">
+        <v>43098</v>
+      </c>
+      <c r="B1945">
+        <v>67.84547662416514</v>
+      </c>
+      <c r="C1945">
+        <v>-0.07119559567988806</v>
+      </c>
+      <c r="D1945">
+        <v>0.2809902770481135</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:4">
+      <c r="A1946" s="2">
+        <v>43102</v>
+      </c>
+      <c r="B1946">
+        <v>68.10473588342441</v>
+      </c>
+      <c r="C1946">
+        <v>-0.06162733025457327</v>
+      </c>
+      <c r="D1946">
+        <v>0.3308998894936712</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:4">
+      <c r="A1947" s="2">
+        <v>43103</v>
+      </c>
+      <c r="B1947">
+        <v>68.16363084395871</v>
+      </c>
+      <c r="C1947">
+        <v>-0.05229530323159871</v>
+      </c>
+      <c r="D1947">
+        <v>0.3743039343155521</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:4">
+      <c r="A1948" s="2">
+        <v>43104</v>
+      </c>
+      <c r="B1948">
+        <v>68.32756527018822</v>
+      </c>
+      <c r="C1948">
+        <v>-0.04992484213211774</v>
+      </c>
+      <c r="D1948">
+        <v>0.370623084302008</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:4">
+      <c r="A1949" s="2">
+        <v>43105</v>
+      </c>
+      <c r="B1949">
+        <v>68.36126290224651</v>
+      </c>
+      <c r="C1949">
+        <v>-0.04844682702701665</v>
+      </c>
+      <c r="D1949">
+        <v>0.3643239261774095</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:4">
+      <c r="A1950" s="2">
+        <v>43108</v>
+      </c>
+      <c r="B1950">
+        <v>68.41287188828173</v>
+      </c>
+      <c r="C1950">
+        <v>-0.0467523783361728</v>
+      </c>
+      <c r="D1950">
+        <v>0.3691136012402224</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:4">
+      <c r="A1951" s="2">
+        <v>43109</v>
+      </c>
+      <c r="B1951">
+        <v>68.57407407407408</v>
+      </c>
+      <c r="C1951">
+        <v>-0.04666896393968931</v>
+      </c>
+      <c r="D1951">
+        <v>0.3586681884908152</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:4">
+      <c r="A1952" s="2">
+        <v>43110</v>
+      </c>
+      <c r="B1952">
+        <v>68.64632665452338</v>
+      </c>
+      <c r="C1952">
+        <v>-0.05257715690451618</v>
+      </c>
+      <c r="D1952">
+        <v>0.3149293819480467</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:4">
+      <c r="A1953" s="2">
+        <v>43111</v>
+      </c>
+      <c r="B1953">
+        <v>68.7698846387371</v>
+      </c>
+      <c r="C1953">
+        <v>-0.04652541729762399</v>
+      </c>
+      <c r="D1953">
+        <v>0.3543380253581114</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:4">
+      <c r="A1954" s="2">
+        <v>43112</v>
+      </c>
+      <c r="B1954">
+        <v>68.91347905282332</v>
+      </c>
+      <c r="C1954">
+        <v>-0.05039974693201476</v>
+      </c>
+      <c r="D1954">
+        <v>0.3171415807760964</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:4">
+      <c r="A1955" s="2">
+        <v>43115</v>
+      </c>
+      <c r="B1955">
+        <v>68.90983606557377</v>
+      </c>
+      <c r="C1955">
+        <v>-0.07266199208098109</v>
+      </c>
+      <c r="D1955">
+        <v>0.2113920173330484</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:4">
+      <c r="A1956" s="2">
+        <v>43116</v>
+      </c>
+      <c r="B1956">
+        <v>69.02701882210079</v>
+      </c>
+      <c r="C1956">
+        <v>-0.06561494966776646</v>
+      </c>
+      <c r="D1956">
+        <v>0.2567100159352448</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:4">
+      <c r="A1957" s="2">
+        <v>43117</v>
+      </c>
+      <c r="B1957">
+        <v>68.94656952034001</v>
+      </c>
+      <c r="C1957">
+        <v>-0.06398024702395304</v>
+      </c>
+      <c r="D1957">
+        <v>0.2725942613812523</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:4">
+      <c r="A1958" s="2">
+        <v>43118</v>
+      </c>
+      <c r="B1958">
+        <v>69.14845173041894</v>
+      </c>
+      <c r="C1958">
+        <v>-0.06090055765034581</v>
+      </c>
+      <c r="D1958">
+        <v>0.2868656221071041</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/881001.WI.xlsx
+++ b/website/everyday-update/data/881001.WI.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1958"/>
+  <dimension ref="A1:D1987"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -27777,10 +27777,416 @@
         <v>69.14845173041894</v>
       </c>
       <c r="C1958">
-        <v>-0.06090055765034581</v>
+        <v>-0.0609005576503458</v>
       </c>
       <c r="D1958">
         <v>0.2868656221071041</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:4">
+      <c r="A1959" s="2">
+        <v>43119</v>
+      </c>
+      <c r="B1959">
+        <v>69.27565270188221</v>
+      </c>
+      <c r="C1959">
+        <v>-0.0611419948034467</v>
+      </c>
+      <c r="D1959">
+        <v>0.2763555507977148</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:4">
+      <c r="A1960" s="2">
+        <v>43122</v>
+      </c>
+      <c r="B1960">
+        <v>69.41196114146933</v>
+      </c>
+      <c r="C1960">
+        <v>-0.05319102581160071</v>
+      </c>
+      <c r="D1960">
+        <v>0.3252692764211104</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:4">
+      <c r="A1961" s="2">
+        <v>43123</v>
+      </c>
+      <c r="B1961">
+        <v>69.51396478445659</v>
+      </c>
+      <c r="C1961">
+        <v>-0.05046189317476275</v>
+      </c>
+      <c r="D1961">
+        <v>0.3354591784061217</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:4">
+      <c r="A1962" s="2">
+        <v>43124</v>
+      </c>
+      <c r="B1962">
+        <v>69.46144505160899</v>
+      </c>
+      <c r="C1962">
+        <v>-0.04377856965473447</v>
+      </c>
+      <c r="D1962">
+        <v>0.3748017220785446</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:4">
+      <c r="A1963" s="2">
+        <v>43125</v>
+      </c>
+      <c r="B1963">
+        <v>69.42349726775956</v>
+      </c>
+      <c r="C1963">
+        <v>-0.04454158457815723</v>
+      </c>
+      <c r="D1963">
+        <v>0.3520601452473321</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:4">
+      <c r="A1964" s="2">
+        <v>43126</v>
+      </c>
+      <c r="B1964">
+        <v>69.37856709168184</v>
+      </c>
+      <c r="C1964">
+        <v>-0.04542128019980356</v>
+      </c>
+      <c r="D1964">
+        <v>0.3360464399052304</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:4">
+      <c r="A1965" s="2">
+        <v>43129</v>
+      </c>
+      <c r="B1965">
+        <v>69.35701275045537</v>
+      </c>
+      <c r="C1965">
+        <v>-0.05613856251214274</v>
+      </c>
+      <c r="D1965">
+        <v>0.2714059075577474</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:4">
+      <c r="A1966" s="2">
+        <v>43130</v>
+      </c>
+      <c r="B1966">
+        <v>69.4939283545841</v>
+      </c>
+      <c r="C1966">
+        <v>-0.05705977955964606</v>
+      </c>
+      <c r="D1966">
+        <v>0.2706375272952045</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:4">
+      <c r="A1967" s="2">
+        <v>43131</v>
+      </c>
+      <c r="B1967">
+        <v>69.39921068609593</v>
+      </c>
+      <c r="C1967">
+        <v>-0.07729307935393789</v>
+      </c>
+      <c r="D1967">
+        <v>0.204152478291754</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:4">
+      <c r="A1968" s="2">
+        <v>43132</v>
+      </c>
+      <c r="B1968">
+        <v>69.24408014571949</v>
+      </c>
+      <c r="C1968">
+        <v>-0.1112712295613684</v>
+      </c>
+      <c r="D1968">
+        <v>0.1322209595853449</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:4">
+      <c r="A1969" s="2">
+        <v>43133</v>
+      </c>
+      <c r="B1969">
+        <v>69.22586520947176</v>
+      </c>
+      <c r="C1969">
+        <v>-0.1147537253297236</v>
+      </c>
+      <c r="D1969">
+        <v>0.1495692413656125</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:4">
+      <c r="A1970" s="2">
+        <v>43136</v>
+      </c>
+      <c r="B1970">
+        <v>69.50789313904068</v>
+      </c>
+      <c r="C1970">
+        <v>-0.117690479172115</v>
+      </c>
+      <c r="D1970">
+        <v>0.1528690459520289</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:4">
+      <c r="A1971" s="2">
+        <v>43137</v>
+      </c>
+      <c r="B1971">
+        <v>69.16423800850031</v>
+      </c>
+      <c r="C1971">
+        <v>-0.1598262562891503</v>
+      </c>
+      <c r="D1971">
+        <v>0.09208915389469344</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:4">
+      <c r="A1972" s="2">
+        <v>43138</v>
+      </c>
+      <c r="B1972">
+        <v>69.21159684274438</v>
+      </c>
+      <c r="C1972">
+        <v>-0.1542932997202876</v>
+      </c>
+      <c r="D1972">
+        <v>0.1033214851110941</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:4">
+      <c r="A1973" s="2">
+        <v>43139</v>
+      </c>
+      <c r="B1973">
+        <v>69.45294474802671</v>
+      </c>
+      <c r="C1973">
+        <v>-0.1423125326656499</v>
+      </c>
+      <c r="D1973">
+        <v>0.1265276000300607</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:4">
+      <c r="A1974" s="2">
+        <v>43140</v>
+      </c>
+      <c r="B1974">
+        <v>69.54098360655738</v>
+      </c>
+      <c r="C1974">
+        <v>-0.1651768612601701</v>
+      </c>
+      <c r="D1974">
+        <v>0.08008473607195421</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:4">
+      <c r="A1975" s="2">
+        <v>43143</v>
+      </c>
+      <c r="B1975">
+        <v>69.78476017000607</v>
+      </c>
+      <c r="C1975">
+        <v>-0.1429498893699172</v>
+      </c>
+      <c r="D1975">
+        <v>0.1399222686910495</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:4">
+      <c r="A1976" s="2">
+        <v>43144</v>
+      </c>
+      <c r="B1976">
+        <v>70.06921675774134</v>
+      </c>
+      <c r="C1976">
+        <v>-0.1392739309106659</v>
+      </c>
+      <c r="D1976">
+        <v>0.1390929323615477</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:4">
+      <c r="A1977" s="2">
+        <v>43145</v>
+      </c>
+      <c r="B1977">
+        <v>70.45719489981785</v>
+      </c>
+      <c r="C1977">
+        <v>-0.1353348045769325</v>
+      </c>
+      <c r="D1977">
+        <v>0.1512883537792826</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:4">
+      <c r="A1978" s="2">
+        <v>43153</v>
+      </c>
+      <c r="B1978">
+        <v>70.87613843351548</v>
+      </c>
+      <c r="C1978">
+        <v>-0.1187518399499835</v>
+      </c>
+      <c r="D1978">
+        <v>0.2081903719023087</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:4">
+      <c r="A1979" s="2">
+        <v>43154</v>
+      </c>
+      <c r="B1979">
+        <v>71.11080752884031</v>
+      </c>
+      <c r="C1979">
+        <v>-0.1134387386119197</v>
+      </c>
+      <c r="D1979">
+        <v>0.2205771934544393</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:4">
+      <c r="A1980" s="2">
+        <v>43157</v>
+      </c>
+      <c r="B1980">
+        <v>71.21948998178506</v>
+      </c>
+      <c r="C1980">
+        <v>-0.09127465302287534</v>
+      </c>
+      <c r="D1980">
+        <v>0.2865635900462323</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:4">
+      <c r="A1981" s="2">
+        <v>43158</v>
+      </c>
+      <c r="B1981">
+        <v>71.22131147540983</v>
+      </c>
+      <c r="C1981">
+        <v>-0.08698739614608499</v>
+      </c>
+      <c r="D1981">
+        <v>0.2867892030605668</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:4">
+      <c r="A1982" s="2">
+        <v>43159</v>
+      </c>
+      <c r="B1982">
+        <v>71.28415300546447</v>
+      </c>
+      <c r="C1982">
+        <v>-0.08332548582175046</v>
+      </c>
+      <c r="D1982">
+        <v>0.2948105746007097</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:4">
+      <c r="A1983" s="2">
+        <v>43160</v>
+      </c>
+      <c r="B1983">
+        <v>71.29052823315118</v>
+      </c>
+      <c r="C1983">
+        <v>-0.06892468963731654</v>
+      </c>
+      <c r="D1983">
+        <v>0.3457246257217133</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:4">
+      <c r="A1984" s="2">
+        <v>43161</v>
+      </c>
+      <c r="B1984">
+        <v>71.25136612021858</v>
+      </c>
+      <c r="C1984">
+        <v>-0.07162689035026525</v>
+      </c>
+      <c r="D1984">
+        <v>0.3153922162116</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:4">
+      <c r="A1985" s="2">
+        <v>43164</v>
+      </c>
+      <c r="B1985">
+        <v>71.35154826958106</v>
+      </c>
+      <c r="C1985">
+        <v>-0.06501046756155068</v>
+      </c>
+      <c r="D1985">
+        <v>0.3458442572799757</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:4">
+      <c r="A1986" s="2">
+        <v>43165</v>
+      </c>
+      <c r="B1986">
+        <v>71.35336976320583</v>
+      </c>
+      <c r="C1986">
+        <v>-0.05409515814992677</v>
+      </c>
+      <c r="D1986">
+        <v>0.3894218836514954</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:4">
+      <c r="A1987" s="2">
+        <v>43166</v>
+      </c>
+      <c r="B1987">
+        <v>71.3332319854059</v>
+      </c>
+      <c r="C1987">
+        <v>-0.05863312334852255</v>
+      </c>
+      <c r="D1987">
+        <v>0.3524892905275225</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/881001.WI.xlsx
+++ b/website/everyday-update/data/881001.WI.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1987"/>
+  <dimension ref="A1:D1998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28180,13 +28180,167 @@
         <v>43166</v>
       </c>
       <c r="B1987">
-        <v>71.3332319854059</v>
+        <v>71.37158469945355</v>
       </c>
       <c r="C1987">
-        <v>-0.05863312334852255</v>
+        <v>-0.0586949879426529</v>
       </c>
       <c r="D1987">
-        <v>0.3524892905275225</v>
+        <v>0.3522175398912924</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:4">
+      <c r="A1988" s="2">
+        <v>43167</v>
+      </c>
+      <c r="B1988">
+        <v>71.47662416514875</v>
+      </c>
+      <c r="C1988">
+        <v>-0.0498651156573061</v>
+      </c>
+      <c r="D1988">
+        <v>0.3902299266671544</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:4">
+      <c r="A1989" s="2">
+        <v>43168</v>
+      </c>
+      <c r="B1989">
+        <v>71.19277474195506</v>
+      </c>
+      <c r="C1989">
+        <v>-0.03423907753684197</v>
+      </c>
+      <c r="D1989">
+        <v>0.4575633978328804</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:4">
+      <c r="A1990" s="2">
+        <v>43171</v>
+      </c>
+      <c r="B1990">
+        <v>70.69216757741349</v>
+      </c>
+      <c r="C1990">
+        <v>-0.02000712906400777</v>
+      </c>
+      <c r="D1990">
+        <v>0.5078133465120541</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:4">
+      <c r="A1991" s="2">
+        <v>43172</v>
+      </c>
+      <c r="B1991">
+        <v>70.49757134183363</v>
+      </c>
+      <c r="C1991">
+        <v>-0.02432483271247694</v>
+      </c>
+      <c r="D1991">
+        <v>0.4631995658590267</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:4">
+      <c r="A1992" s="2">
+        <v>43173</v>
+      </c>
+      <c r="B1992">
+        <v>70.51791135397693</v>
+      </c>
+      <c r="C1992">
+        <v>-0.03426367222073576</v>
+      </c>
+      <c r="D1992">
+        <v>0.4118941355722911</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:4">
+      <c r="A1993" s="2">
+        <v>43174</v>
+      </c>
+      <c r="B1993">
+        <v>70.49149969641773</v>
+      </c>
+      <c r="C1993">
+        <v>-0.03936819118752292</v>
+      </c>
+      <c r="D1993">
+        <v>0.3887586077843413</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:4">
+      <c r="A1994" s="2">
+        <v>43175</v>
+      </c>
+      <c r="B1994">
+        <v>70.4277474195507</v>
+      </c>
+      <c r="C1994">
+        <v>-0.03994874349019298</v>
+      </c>
+      <c r="D1994">
+        <v>0.3705210088794734</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:4">
+      <c r="A1995" s="2">
+        <v>43178</v>
+      </c>
+      <c r="B1995">
+        <v>70.44049787492411</v>
+      </c>
+      <c r="C1995">
+        <v>-0.03629972650110289</v>
+      </c>
+      <c r="D1995">
+        <v>0.390214372718109</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:4">
+      <c r="A1996" s="2">
+        <v>43179</v>
+      </c>
+      <c r="B1996">
+        <v>70.41651487553126</v>
+      </c>
+      <c r="C1996">
+        <v>-0.03312642168474365</v>
+      </c>
+      <c r="D1996">
+        <v>0.410368830056675</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:4">
+      <c r="A1997" s="2">
+        <v>43180</v>
+      </c>
+      <c r="B1997">
+        <v>70.0661809350334</v>
+      </c>
+      <c r="C1997">
+        <v>-0.03780045055859548</v>
+      </c>
+      <c r="D1997">
+        <v>0.3633074585046583</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:4">
+      <c r="A1998" s="2">
+        <v>43181</v>
+      </c>
+      <c r="B1998">
+        <v>69.98967820279296</v>
+      </c>
+      <c r="C1998">
+        <v>-0.03607071490177094</v>
+      </c>
+      <c r="D1998">
+        <v>0.3717964141220032</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/881001.WI.xlsx
+++ b/website/everyday-update/data/881001.WI.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1998"/>
+  <dimension ref="A1:D2003"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28337,10 +28337,80 @@
         <v>69.98967820279296</v>
       </c>
       <c r="C1998">
-        <v>-0.03607071490177094</v>
+        <v>-0.03607071490177093</v>
       </c>
       <c r="D1998">
         <v>0.3717964141220032</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:4">
+      <c r="A1999" s="2">
+        <v>43182</v>
+      </c>
+      <c r="B1999">
+        <v>69.34122647237402</v>
+      </c>
+      <c r="C1999">
+        <v>-0.08423632890942022</v>
+      </c>
+      <c r="D1999">
+        <v>0.191452716713417</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:4">
+      <c r="A2000" s="2">
+        <v>43185</v>
+      </c>
+      <c r="B2000">
+        <v>69.18670309653916</v>
+      </c>
+      <c r="C2000">
+        <v>-0.07039850018897258</v>
+      </c>
+      <c r="D2000">
+        <v>0.2563787128576887</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:4">
+      <c r="A2001" s="2">
+        <v>43186</v>
+      </c>
+      <c r="B2001">
+        <v>68.87401335761992</v>
+      </c>
+      <c r="C2001">
+        <v>-0.04646405942733025</v>
+      </c>
+      <c r="D2001">
+        <v>0.3542936522783268</v>
+      </c>
+    </row>
+    <row r="2002" spans="1:4">
+      <c r="A2002" s="2">
+        <v>43187</v>
+      </c>
+      <c r="B2002">
+        <v>68.66211293260474</v>
+      </c>
+      <c r="C2002">
+        <v>-0.05093961380880691</v>
+      </c>
+      <c r="D2002">
+        <v>0.3279905150845194</v>
+      </c>
+    </row>
+    <row r="2003" spans="1:4">
+      <c r="A2003" s="2">
+        <v>43188</v>
+      </c>
+      <c r="B2003">
+        <v>68.5792349726776</v>
+      </c>
+      <c r="C2003">
+        <v>-0.04192517381799572</v>
+      </c>
+      <c r="D2003">
+        <v>0.371733728683937</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/881001.WI.xlsx
+++ b/website/everyday-update/data/881001.WI.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2003"/>
+  <dimension ref="A1:D2021"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28407,10 +28407,262 @@
         <v>68.5792349726776</v>
       </c>
       <c r="C2003">
-        <v>-0.04192517381799572</v>
+        <v>-0.04192517381799573</v>
       </c>
       <c r="D2003">
         <v>0.371733728683937</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:4">
+      <c r="A2004" s="2">
+        <v>43189</v>
+      </c>
+      <c r="B2004">
+        <v>68.39374620522162</v>
+      </c>
+      <c r="C2004">
+        <v>-0.02792826187601698</v>
+      </c>
+      <c r="D2004">
+        <v>0.4421435913137028</v>
+      </c>
+    </row>
+    <row r="2005" spans="1:4">
+      <c r="A2005" s="2">
+        <v>43192</v>
+      </c>
+      <c r="B2005">
+        <v>68.05100182149363</v>
+      </c>
+      <c r="C2005">
+        <v>-0.02455325877401518</v>
+      </c>
+      <c r="D2005">
+        <v>0.4415197262122971</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:4">
+      <c r="A2006" s="2">
+        <v>43193</v>
+      </c>
+      <c r="B2006">
+        <v>67.8752276867031</v>
+      </c>
+      <c r="C2006">
+        <v>-0.0332050860627639</v>
+      </c>
+      <c r="D2006">
+        <v>0.3985136682845118</v>
+      </c>
+    </row>
+    <row r="2007" spans="1:4">
+      <c r="A2007" s="2">
+        <v>43194</v>
+      </c>
+      <c r="B2007">
+        <v>67.66514875531269</v>
+      </c>
+      <c r="C2007">
+        <v>-0.03855466236676822</v>
+      </c>
+      <c r="D2007">
+        <v>0.3597384195222957</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:4">
+      <c r="A2008" s="2">
+        <v>43199</v>
+      </c>
+      <c r="B2008">
+        <v>67.51457194899818</v>
+      </c>
+      <c r="C2008">
+        <v>-0.03648783138157858</v>
+      </c>
+      <c r="D2008">
+        <v>0.3776867668253858</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:4">
+      <c r="A2009" s="2">
+        <v>43200</v>
+      </c>
+      <c r="B2009">
+        <v>67.69884638737098</v>
+      </c>
+      <c r="C2009">
+        <v>-0.03573316611770366</v>
+      </c>
+      <c r="D2009">
+        <v>0.3809222716090198</v>
+      </c>
+    </row>
+    <row r="2010" spans="1:4">
+      <c r="A2010" s="2">
+        <v>43201</v>
+      </c>
+      <c r="B2010">
+        <v>67.52550091074681</v>
+      </c>
+      <c r="C2010">
+        <v>-0.02929067260158706</v>
+      </c>
+      <c r="D2010">
+        <v>0.4193524105879681</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:4">
+      <c r="A2011" s="2">
+        <v>43202</v>
+      </c>
+      <c r="B2011">
+        <v>67.38190649666059</v>
+      </c>
+      <c r="C2011">
+        <v>-0.03502241133640387</v>
+      </c>
+      <c r="D2011">
+        <v>0.377674750376413</v>
+      </c>
+    </row>
+    <row r="2012" spans="1:4">
+      <c r="A2012" s="2">
+        <v>43203</v>
+      </c>
+      <c r="B2012">
+        <v>67.38949605343048</v>
+      </c>
+      <c r="C2012">
+        <v>-0.03834655327714953</v>
+      </c>
+      <c r="D2012">
+        <v>0.3589629932296899</v>
+      </c>
+    </row>
+    <row r="2013" spans="1:4">
+      <c r="A2013" s="2">
+        <v>43206</v>
+      </c>
+      <c r="B2013">
+        <v>67.29265330904676</v>
+      </c>
+      <c r="C2013">
+        <v>-0.04411766493581729</v>
+      </c>
+      <c r="D2013">
+        <v>0.3366028762734824</v>
+      </c>
+    </row>
+    <row r="2014" spans="1:4">
+      <c r="A2014" s="2">
+        <v>43207</v>
+      </c>
+      <c r="B2014">
+        <v>67.22161505768064</v>
+      </c>
+      <c r="C2014">
+        <v>-0.06487683590517623</v>
+      </c>
+      <c r="D2014">
+        <v>0.2325094173740995</v>
+      </c>
+    </row>
+    <row r="2015" spans="1:4">
+      <c r="A2015" s="2">
+        <v>43208</v>
+      </c>
+      <c r="B2015">
+        <v>67.15239829993928</v>
+      </c>
+      <c r="C2015">
+        <v>-0.05406537099091867</v>
+      </c>
+      <c r="D2015">
+        <v>0.3027472130544216</v>
+      </c>
+    </row>
+    <row r="2016" spans="1:4">
+      <c r="A2016" s="2">
+        <v>43209</v>
+      </c>
+      <c r="B2016">
+        <v>67.0980570734669</v>
+      </c>
+      <c r="C2016">
+        <v>-0.05101653799467869</v>
+      </c>
+      <c r="D2016">
+        <v>0.3094005469174751</v>
+      </c>
+    </row>
+    <row r="2017" spans="1:4">
+      <c r="A2017" s="2">
+        <v>43210</v>
+      </c>
+      <c r="B2017">
+        <v>67.14146933819065</v>
+      </c>
+      <c r="C2017">
+        <v>-0.07102700128106403</v>
+      </c>
+      <c r="D2017">
+        <v>0.2204142382532543</v>
+      </c>
+    </row>
+    <row r="2018" spans="1:4">
+      <c r="A2018" s="2">
+        <v>43213</v>
+      </c>
+      <c r="B2018">
+        <v>67.29356405585914</v>
+      </c>
+      <c r="C2018">
+        <v>-0.07728610902897111</v>
+      </c>
+      <c r="D2018">
+        <v>0.2031164991145174</v>
+      </c>
+    </row>
+    <row r="2019" spans="1:4">
+      <c r="A2019" s="2">
+        <v>43214</v>
+      </c>
+      <c r="B2019">
+        <v>67.24741955069824</v>
+      </c>
+      <c r="C2019">
+        <v>-0.05663807613124346</v>
+      </c>
+      <c r="D2019">
+        <v>0.3079924982332255</v>
+      </c>
+    </row>
+    <row r="2020" spans="1:4">
+      <c r="A2020" s="2">
+        <v>43215</v>
+      </c>
+      <c r="B2020">
+        <v>67.35215543412265</v>
+      </c>
+      <c r="C2020">
+        <v>-0.05270240712343659</v>
+      </c>
+      <c r="D2020">
+        <v>0.3234116592121911</v>
+      </c>
+    </row>
+    <row r="2021" spans="1:4">
+      <c r="A2021" s="2">
+        <v>43216</v>
+      </c>
+      <c r="B2021">
+        <v>67.42289010321797</v>
+      </c>
+      <c r="C2021">
+        <v>-0.07059804420789451</v>
+      </c>
+      <c r="D2021">
+        <v>0.2349067967747906</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/881001.WI.xlsx
+++ b/website/everyday-update/data/881001.WI.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2021"/>
+  <dimension ref="A1:D2023"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28659,10 +28659,38 @@
         <v>67.42289010321797</v>
       </c>
       <c r="C2021">
-        <v>-0.07059804420789451</v>
+        <v>-0.07059804420789453</v>
       </c>
       <c r="D2021">
         <v>0.2349067967747906</v>
+      </c>
+    </row>
+    <row r="2022" spans="1:4">
+      <c r="A2022" s="2">
+        <v>43217</v>
+      </c>
+      <c r="B2022">
+        <v>67.59532483302975</v>
+      </c>
+      <c r="C2022">
+        <v>-0.06961912144873585</v>
+      </c>
+      <c r="D2022">
+        <v>0.2452748844446538</v>
+      </c>
+    </row>
+    <row r="2023" spans="1:4">
+      <c r="A2023" s="2">
+        <v>43222</v>
+      </c>
+      <c r="B2023">
+        <v>67.74893746205221</v>
+      </c>
+      <c r="C2023">
+        <v>-0.07390590169644924</v>
+      </c>
+      <c r="D2023">
+        <v>0.2356520281692939</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/881001.WI.xlsx
+++ b/website/everyday-update/data/881001.WI.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2023"/>
+  <dimension ref="A1:D2024"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28687,10 +28687,24 @@
         <v>67.74893746205221</v>
       </c>
       <c r="C2023">
-        <v>-0.07390590169644924</v>
+        <v>-0.07390590169644921</v>
       </c>
       <c r="D2023">
         <v>0.2356520281692939</v>
+      </c>
+    </row>
+    <row r="2024" spans="1:4">
+      <c r="A2024" s="2">
+        <v>43223</v>
+      </c>
+      <c r="B2024">
+        <v>67.79751062537947</v>
+      </c>
+      <c r="C2024">
+        <v>-0.06363634873515095</v>
+      </c>
+      <c r="D2024">
+        <v>0.2957346491726228</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/881001.WI.xlsx
+++ b/website/everyday-update/data/881001.WI.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2024"/>
+  <dimension ref="A1:D2025"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28707,6 +28707,20 @@
         <v>0.2957346491726228</v>
       </c>
     </row>
+    <row r="2025" spans="1:4">
+      <c r="A2025" s="2">
+        <v>43224</v>
+      </c>
+      <c r="B2025">
+        <v>67.97237401335762</v>
+      </c>
+      <c r="C2025">
+        <v>-0.06503983867519429</v>
+      </c>
+      <c r="D2025">
+        <v>0.2786578009516359</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/website/everyday-update/data/881001.WI.xlsx
+++ b/website/everyday-update/data/881001.WI.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2025"/>
+  <dimension ref="A1:D2043"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28715,10 +28715,262 @@
         <v>67.97237401335762</v>
       </c>
       <c r="C2025">
-        <v>-0.06503983867519429</v>
+        <v>-0.06503983867519426</v>
       </c>
       <c r="D2025">
         <v>0.2786578009516359</v>
+      </c>
+    </row>
+    <row r="2026" spans="1:4">
+      <c r="A2026" s="2">
+        <v>43227</v>
+      </c>
+      <c r="B2026">
+        <v>68.04826958105646</v>
+      </c>
+      <c r="C2026">
+        <v>-0.04838479759574157</v>
+      </c>
+      <c r="D2026">
+        <v>0.3724313573400485</v>
+      </c>
+    </row>
+    <row r="2027" spans="1:4">
+      <c r="A2027" s="2">
+        <v>43228</v>
+      </c>
+      <c r="B2027">
+        <v>68.04280510018215</v>
+      </c>
+      <c r="C2027">
+        <v>-0.04175353919896325</v>
+      </c>
+      <c r="D2027">
+        <v>0.4028232576305194</v>
+      </c>
+    </row>
+    <row r="2028" spans="1:4">
+      <c r="A2028" s="2">
+        <v>43229</v>
+      </c>
+      <c r="B2028">
+        <v>68.04128718882818</v>
+      </c>
+      <c r="C2028">
+        <v>-0.04124936272444329</v>
+      </c>
+      <c r="D2028">
+        <v>0.40202309659219</v>
+      </c>
+    </row>
+    <row r="2029" spans="1:4">
+      <c r="A2029" s="2">
+        <v>43230</v>
+      </c>
+      <c r="B2029">
+        <v>68.04705525197329</v>
+      </c>
+      <c r="C2029">
+        <v>-0.03663322896704122</v>
+      </c>
+      <c r="D2029">
+        <v>0.4276385682824428</v>
+      </c>
+    </row>
+    <row r="2030" spans="1:4">
+      <c r="A2030" s="2">
+        <v>43231</v>
+      </c>
+      <c r="B2030">
+        <v>68.08500303582271</v>
+      </c>
+      <c r="C2030">
+        <v>-0.04772834166189377</v>
+      </c>
+      <c r="D2030">
+        <v>0.3475567344934178</v>
+      </c>
+    </row>
+    <row r="2031" spans="1:4">
+      <c r="A2031" s="2">
+        <v>43234</v>
+      </c>
+      <c r="B2031">
+        <v>68.17304189435337</v>
+      </c>
+      <c r="C2031">
+        <v>-0.05379750315493424</v>
+      </c>
+      <c r="D2031">
+        <v>0.3160566380822953</v>
+      </c>
+    </row>
+    <row r="2032" spans="1:4">
+      <c r="A2032" s="2">
+        <v>43235</v>
+      </c>
+      <c r="B2032">
+        <v>68.31845780206436</v>
+      </c>
+      <c r="C2032">
+        <v>-0.0441955302084334</v>
+      </c>
+      <c r="D2032">
+        <v>0.3856345115386444</v>
+      </c>
+    </row>
+    <row r="2033" spans="1:4">
+      <c r="A2033" s="2">
+        <v>43236</v>
+      </c>
+      <c r="B2033">
+        <v>68.41985428051002</v>
+      </c>
+      <c r="C2033">
+        <v>-0.04873709987609422</v>
+      </c>
+      <c r="D2033">
+        <v>0.3422307114698017</v>
+      </c>
+    </row>
+    <row r="2034" spans="1:4">
+      <c r="A2034" s="2">
+        <v>43237</v>
+      </c>
+      <c r="B2034">
+        <v>68.61414693381907</v>
+      </c>
+      <c r="C2034">
+        <v>-0.0521015933596871</v>
+      </c>
+      <c r="D2034">
+        <v>0.3349824093487981</v>
+      </c>
+    </row>
+    <row r="2035" spans="1:4">
+      <c r="A2035" s="2">
+        <v>43238</v>
+      </c>
+      <c r="B2035">
+        <v>68.78445658773528</v>
+      </c>
+      <c r="C2035">
+        <v>-0.04745712353681068</v>
+      </c>
+      <c r="D2035">
+        <v>0.3682987152113896</v>
+      </c>
+    </row>
+    <row r="2036" spans="1:4">
+      <c r="A2036" s="2">
+        <v>43241</v>
+      </c>
+      <c r="B2036">
+        <v>68.81724347298118</v>
+      </c>
+      <c r="C2036">
+        <v>-0.03588277659437767</v>
+      </c>
+      <c r="D2036">
+        <v>0.4415230966530098</v>
+      </c>
+    </row>
+    <row r="2037" spans="1:4">
+      <c r="A2037" s="2">
+        <v>43242</v>
+      </c>
+      <c r="B2037">
+        <v>68.83060109289617</v>
+      </c>
+      <c r="C2037">
+        <v>-0.0322704190157984</v>
+      </c>
+      <c r="D2037">
+        <v>0.4609409700163884</v>
+      </c>
+    </row>
+    <row r="2038" spans="1:4">
+      <c r="A2038" s="2">
+        <v>43243</v>
+      </c>
+      <c r="B2038">
+        <v>68.71645415907712</v>
+      </c>
+      <c r="C2038">
+        <v>-0.04342182658167368</v>
+      </c>
+      <c r="D2038">
+        <v>0.3737391657687994</v>
+      </c>
+    </row>
+    <row r="2039" spans="1:4">
+      <c r="A2039" s="2">
+        <v>43244</v>
+      </c>
+      <c r="B2039">
+        <v>68.9019429265331</v>
+      </c>
+      <c r="C2039">
+        <v>-0.04632914344489846</v>
+      </c>
+      <c r="D2039">
+        <v>0.3648147465561977</v>
+      </c>
+    </row>
+    <row r="2040" spans="1:4">
+      <c r="A2040" s="2">
+        <v>43245</v>
+      </c>
+      <c r="B2040">
+        <v>69.03521554341226</v>
+      </c>
+      <c r="C2040">
+        <v>-0.05544471015105963</v>
+      </c>
+      <c r="D2040">
+        <v>0.3206914804909842</v>
+      </c>
+    </row>
+    <row r="2041" spans="1:4">
+      <c r="A2041" s="2">
+        <v>43248</v>
+      </c>
+      <c r="B2041">
+        <v>69.15998785670917</v>
+      </c>
+      <c r="C2041">
+        <v>-0.06405921068897814</v>
+      </c>
+      <c r="D2041">
+        <v>0.2872476738424531</v>
+      </c>
+    </row>
+    <row r="2042" spans="1:4">
+      <c r="A2042" s="2">
+        <v>43249</v>
+      </c>
+      <c r="B2042">
+        <v>69.24408014571949</v>
+      </c>
+      <c r="C2042">
+        <v>-0.072847716843985</v>
+      </c>
+      <c r="D2042">
+        <v>0.2505843678396783</v>
+      </c>
+    </row>
+    <row r="2043" spans="1:4">
+      <c r="A2043" s="2">
+        <v>43250</v>
+      </c>
+      <c r="B2043">
+        <v>69.20157862780813</v>
+      </c>
+      <c r="C2043">
+        <v>-0.1054224568508598</v>
+      </c>
+      <c r="D2043">
+        <v>0.1539746583337431</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/881001.WI.xlsx
+++ b/website/everyday-update/data/881001.WI.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2043"/>
+  <dimension ref="A1:D2076"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28967,10 +28967,472 @@
         <v>69.20157862780813</v>
       </c>
       <c r="C2043">
-        <v>-0.1054224568508598</v>
+        <v>-0.1054224568508599</v>
       </c>
       <c r="D2043">
         <v>0.1539746583337431</v>
+      </c>
+    </row>
+    <row r="2044" spans="1:4">
+      <c r="A2044" s="2">
+        <v>43251</v>
+      </c>
+      <c r="B2044">
+        <v>69.29386763812994</v>
+      </c>
+      <c r="C2044">
+        <v>-0.09032106095898339</v>
+      </c>
+      <c r="D2044">
+        <v>0.2207264025356616</v>
+      </c>
+    </row>
+    <row r="2045" spans="1:4">
+      <c r="A2045" s="2">
+        <v>43252</v>
+      </c>
+      <c r="B2045">
+        <v>69.36095931997572</v>
+      </c>
+      <c r="C2045">
+        <v>-0.09902629338967806</v>
+      </c>
+      <c r="D2045">
+        <v>0.1881939236191321</v>
+      </c>
+    </row>
+    <row r="2046" spans="1:4">
+      <c r="A2046" s="2">
+        <v>43255</v>
+      </c>
+      <c r="B2046">
+        <v>69.65968427443838</v>
+      </c>
+      <c r="C2046">
+        <v>-0.1005974040231255</v>
+      </c>
+      <c r="D2046">
+        <v>0.1887550734845409</v>
+      </c>
+    </row>
+    <row r="2047" spans="1:4">
+      <c r="A2047" s="2">
+        <v>43256</v>
+      </c>
+      <c r="B2047">
+        <v>69.86095931997572</v>
+      </c>
+      <c r="C2047">
+        <v>-0.08700366579970244</v>
+      </c>
+      <c r="D2047">
+        <v>0.2564050200187197</v>
+      </c>
+    </row>
+    <row r="2048" spans="1:4">
+      <c r="A2048" s="2">
+        <v>43257</v>
+      </c>
+      <c r="B2048">
+        <v>69.9936247723133</v>
+      </c>
+      <c r="C2048">
+        <v>-0.08498085441388961</v>
+      </c>
+      <c r="D2048">
+        <v>0.2630642122389851</v>
+      </c>
+    </row>
+    <row r="2049" spans="1:4">
+      <c r="A2049" s="2">
+        <v>43258</v>
+      </c>
+      <c r="B2049">
+        <v>70.19854280510019</v>
+      </c>
+      <c r="C2049">
+        <v>-0.09168077126717086</v>
+      </c>
+      <c r="D2049">
+        <v>0.2241865956862069</v>
+      </c>
+    </row>
+    <row r="2050" spans="1:4">
+      <c r="A2050" s="2">
+        <v>43259</v>
+      </c>
+      <c r="B2050">
+        <v>70.4535519125683</v>
+      </c>
+      <c r="C2050">
+        <v>-0.1013744186367718</v>
+      </c>
+      <c r="D2050">
+        <v>0.1985876133206534</v>
+      </c>
+    </row>
+    <row r="2051" spans="1:4">
+      <c r="A2051" s="2">
+        <v>43262</v>
+      </c>
+      <c r="B2051">
+        <v>70.75409836065573</v>
+      </c>
+      <c r="C2051">
+        <v>-0.1072154019675768</v>
+      </c>
+      <c r="D2051">
+        <v>0.1807161488677791</v>
+      </c>
+    </row>
+    <row r="2052" spans="1:4">
+      <c r="A2052" s="2">
+        <v>43263</v>
+      </c>
+      <c r="B2052">
+        <v>71.03035822707953</v>
+      </c>
+      <c r="C2052">
+        <v>-0.09987348334264227</v>
+      </c>
+      <c r="D2052">
+        <v>0.2223522213208114</v>
+      </c>
+    </row>
+    <row r="2053" spans="1:4">
+      <c r="A2053" s="2">
+        <v>43264</v>
+      </c>
+      <c r="B2053">
+        <v>71.24681238615665</v>
+      </c>
+      <c r="C2053">
+        <v>-0.1137724853326743</v>
+      </c>
+      <c r="D2053">
+        <v>0.1619328667954508</v>
+      </c>
+    </row>
+    <row r="2054" spans="1:4">
+      <c r="A2054" s="2">
+        <v>43265</v>
+      </c>
+      <c r="B2054">
+        <v>71.54493017607771</v>
+      </c>
+      <c r="C2054">
+        <v>-0.1168496902128585</v>
+      </c>
+      <c r="D2054">
+        <v>0.1598658072046498</v>
+      </c>
+    </row>
+    <row r="2055" spans="1:4">
+      <c r="A2055" s="2">
+        <v>43266</v>
+      </c>
+      <c r="B2055">
+        <v>71.6578627808136</v>
+      </c>
+      <c r="C2055">
+        <v>-0.1355549594464841</v>
+      </c>
+      <c r="D2055">
+        <v>0.122055938420537</v>
+      </c>
+    </row>
+    <row r="2056" spans="1:4">
+      <c r="A2056" s="2">
+        <v>43270</v>
+      </c>
+      <c r="B2056">
+        <v>71.51912568306011</v>
+      </c>
+      <c r="C2056">
+        <v>-0.1909005697025568</v>
+      </c>
+      <c r="D2056">
+        <v>0.06237771262888387</v>
+      </c>
+    </row>
+    <row r="2057" spans="1:4">
+      <c r="A2057" s="2">
+        <v>43271</v>
+      </c>
+      <c r="B2057">
+        <v>71.65330904675167</v>
+      </c>
+      <c r="C2057">
+        <v>-0.1808350656180304</v>
+      </c>
+      <c r="D2057">
+        <v>0.09997927111040475</v>
+      </c>
+    </row>
+    <row r="2058" spans="1:4">
+      <c r="A2058" s="2">
+        <v>43272</v>
+      </c>
+      <c r="B2058">
+        <v>71.77565270188221</v>
+      </c>
+      <c r="C2058">
+        <v>-0.1986193461219296</v>
+      </c>
+      <c r="D2058">
+        <v>0.07561070543353589</v>
+      </c>
+    </row>
+    <row r="2059" spans="1:4">
+      <c r="A2059" s="2">
+        <v>43273</v>
+      </c>
+      <c r="B2059">
+        <v>72.04401942926533</v>
+      </c>
+      <c r="C2059">
+        <v>-0.185729681176057</v>
+      </c>
+      <c r="D2059">
+        <v>0.1132635588410373</v>
+      </c>
+    </row>
+    <row r="2060" spans="1:4">
+      <c r="A2060" s="2">
+        <v>43276</v>
+      </c>
+      <c r="B2060">
+        <v>72.23345476624165</v>
+      </c>
+      <c r="C2060">
+        <v>-0.1855979130383609</v>
+      </c>
+      <c r="D2060">
+        <v>0.1073153936347907</v>
+      </c>
+    </row>
+    <row r="2061" spans="1:4">
+      <c r="A2061" s="2">
+        <v>43277</v>
+      </c>
+      <c r="B2061">
+        <v>72.35640558591378</v>
+      </c>
+      <c r="C2061">
+        <v>-0.1754607281242877</v>
+      </c>
+      <c r="D2061">
+        <v>0.1413248643724654</v>
+      </c>
+    </row>
+    <row r="2062" spans="1:4">
+      <c r="A2062" s="2">
+        <v>43278</v>
+      </c>
+      <c r="B2062">
+        <v>72.5598057073467</v>
+      </c>
+      <c r="C2062">
+        <v>-0.1775642997469795</v>
+      </c>
+      <c r="D2062">
+        <v>0.12191961503523</v>
+      </c>
+    </row>
+    <row r="2063" spans="1:4">
+      <c r="A2063" s="2">
+        <v>43279</v>
+      </c>
+      <c r="B2063">
+        <v>72.63630843958713</v>
+      </c>
+      <c r="C2063">
+        <v>-0.1834748674855982</v>
+      </c>
+      <c r="D2063">
+        <v>0.09889618562453181</v>
+      </c>
+    </row>
+    <row r="2064" spans="1:4">
+      <c r="A2064" s="2">
+        <v>43280</v>
+      </c>
+      <c r="B2064">
+        <v>72.78111718275653</v>
+      </c>
+      <c r="C2064">
+        <v>-0.157568450772109</v>
+      </c>
+      <c r="D2064">
+        <v>0.1933197947923007</v>
+      </c>
+    </row>
+    <row r="2065" spans="1:4">
+      <c r="A2065" s="2">
+        <v>43283</v>
+      </c>
+      <c r="B2065">
+        <v>72.75531268973891</v>
+      </c>
+      <c r="C2065">
+        <v>-0.1664837570672158</v>
+      </c>
+      <c r="D2065">
+        <v>0.151129222806524</v>
+      </c>
+    </row>
+    <row r="2066" spans="1:4">
+      <c r="A2066" s="2">
+        <v>43284</v>
+      </c>
+      <c r="B2066">
+        <v>72.85063752276866</v>
+      </c>
+      <c r="C2066">
+        <v>-0.151452572542333</v>
+      </c>
+      <c r="D2066">
+        <v>0.2150083236069043</v>
+      </c>
+    </row>
+    <row r="2067" spans="1:4">
+      <c r="A2067" s="2">
+        <v>43285</v>
+      </c>
+      <c r="B2067">
+        <v>73.05221615057681</v>
+      </c>
+      <c r="C2067">
+        <v>-0.1630539598106168</v>
+      </c>
+      <c r="D2067">
+        <v>0.1468758796305303</v>
+      </c>
+    </row>
+    <row r="2068" spans="1:4">
+      <c r="A2068" s="2">
+        <v>43286</v>
+      </c>
+      <c r="B2068">
+        <v>73.12416514875531</v>
+      </c>
+      <c r="C2068">
+        <v>-0.1832350661620673</v>
+      </c>
+      <c r="D2068">
+        <v>0.09023083344635092</v>
+      </c>
+    </row>
+    <row r="2069" spans="1:4">
+      <c r="A2069" s="2">
+        <v>43287</v>
+      </c>
+      <c r="B2069">
+        <v>73.15725561627201</v>
+      </c>
+      <c r="C2069">
+        <v>-0.1764275679024619</v>
+      </c>
+      <c r="D2069">
+        <v>0.1167091652448307</v>
+      </c>
+    </row>
+    <row r="2070" spans="1:4">
+      <c r="A2070" s="2">
+        <v>43290</v>
+      </c>
+      <c r="B2070">
+        <v>73.27717061323618</v>
+      </c>
+      <c r="C2070">
+        <v>-0.1568359909039382</v>
+      </c>
+      <c r="D2070">
+        <v>0.1984120391162392</v>
+      </c>
+    </row>
+    <row r="2071" spans="1:4">
+      <c r="A2071" s="2">
+        <v>43291</v>
+      </c>
+      <c r="B2071">
+        <v>73.31815421979357</v>
+      </c>
+      <c r="C2071">
+        <v>-0.148009764362762</v>
+      </c>
+      <c r="D2071">
+        <v>0.2307977457509475</v>
+      </c>
+    </row>
+    <row r="2072" spans="1:4">
+      <c r="A2072" s="2">
+        <v>43292</v>
+      </c>
+      <c r="B2072">
+        <v>73.40376442015786</v>
+      </c>
+      <c r="C2072">
+        <v>-0.1649101676070268</v>
+      </c>
+      <c r="D2072">
+        <v>0.1521609824862877</v>
+      </c>
+    </row>
+    <row r="2073" spans="1:4">
+      <c r="A2073" s="2">
+        <v>43293</v>
+      </c>
+      <c r="B2073">
+        <v>73.34122647237402</v>
+      </c>
+      <c r="C2073">
+        <v>-0.1414122431711222</v>
+      </c>
+      <c r="D2073">
+        <v>0.2543702232394341</v>
+      </c>
+    </row>
+    <row r="2074" spans="1:4">
+      <c r="A2074" s="2">
+        <v>43294</v>
+      </c>
+      <c r="B2074">
+        <v>73.50394656952034</v>
+      </c>
+      <c r="C2074">
+        <v>-0.1358209820906045</v>
+      </c>
+      <c r="D2074">
+        <v>0.2557483943717026</v>
+      </c>
+    </row>
+    <row r="2075" spans="1:4">
+      <c r="A2075" s="2">
+        <v>43297</v>
+      </c>
+      <c r="B2075">
+        <v>74.02185792349727</v>
+      </c>
+      <c r="C2075">
+        <v>-0.134304810763157</v>
+      </c>
+      <c r="D2075">
+        <v>0.2581070735841832</v>
+      </c>
+    </row>
+    <row r="2076" spans="1:4">
+      <c r="A2076" s="2">
+        <v>43298</v>
+      </c>
+      <c r="B2076">
+        <v>74.1381299332119</v>
+      </c>
+      <c r="C2076">
+        <v>-0.1297673070188971</v>
+      </c>
+      <c r="D2076">
+        <v>0.2762965006094991</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/881001.WI.xlsx
+++ b/website/everyday-update/data/881001.WI.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2076"/>
+  <dimension ref="A1:D2141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -29435,6 +29435,916 @@
         <v>0.2762965006094991</v>
       </c>
     </row>
+    <row r="2077" spans="1:4">
+      <c r="A2077" s="2">
+        <v>43299</v>
+      </c>
+      <c r="B2077">
+        <v>74.17061323618701</v>
+      </c>
+      <c r="C2077">
+        <v>-0.1308115759066082</v>
+      </c>
+      <c r="D2077">
+        <v>0.2433707049488048</v>
+      </c>
+    </row>
+    <row r="2078" spans="1:4">
+      <c r="A2078" s="2">
+        <v>43300</v>
+      </c>
+      <c r="B2078">
+        <v>74.37553126897389</v>
+      </c>
+      <c r="C2078">
+        <v>-0.1381130620404237</v>
+      </c>
+      <c r="D2078">
+        <v>0.2019259083819139</v>
+      </c>
+    </row>
+    <row r="2079" spans="1:4">
+      <c r="A2079" s="2">
+        <v>43301</v>
+      </c>
+      <c r="B2079">
+        <v>74.49301760777171</v>
+      </c>
+      <c r="C2079">
+        <v>-0.1256370957984001</v>
+      </c>
+      <c r="D2079">
+        <v>0.2601766603215593</v>
+      </c>
+    </row>
+    <row r="2080" spans="1:4">
+      <c r="A2080" s="2">
+        <v>43304</v>
+      </c>
+      <c r="B2080">
+        <v>74.47814207650273</v>
+      </c>
+      <c r="C2080">
+        <v>-0.1158855909303384</v>
+      </c>
+      <c r="D2080">
+        <v>0.3001283513349336</v>
+      </c>
+    </row>
+    <row r="2081" spans="1:4">
+      <c r="A2081" s="2">
+        <v>43305</v>
+      </c>
+      <c r="B2081">
+        <v>74.28202792956891</v>
+      </c>
+      <c r="C2081">
+        <v>-0.09802572609743196</v>
+      </c>
+      <c r="D2081">
+        <v>0.3663733671820388</v>
+      </c>
+    </row>
+    <row r="2082" spans="1:4">
+      <c r="A2082" s="2">
+        <v>43306</v>
+      </c>
+      <c r="B2082">
+        <v>74.13721918639952</v>
+      </c>
+      <c r="C2082">
+        <v>-0.09317375835180811</v>
+      </c>
+      <c r="D2082">
+        <v>0.3677568925301736</v>
+      </c>
+    </row>
+    <row r="2083" spans="1:4">
+      <c r="A2083" s="2">
+        <v>43307</v>
+      </c>
+      <c r="B2083">
+        <v>73.90285367334548</v>
+      </c>
+      <c r="C2083">
+        <v>-0.09065096370269912</v>
+      </c>
+      <c r="D2083">
+        <v>0.3505008994897252</v>
+      </c>
+    </row>
+    <row r="2084" spans="1:4">
+      <c r="A2084" s="2">
+        <v>43308</v>
+      </c>
+      <c r="B2084">
+        <v>73.91074681238615</v>
+      </c>
+      <c r="C2084">
+        <v>-0.09372162598873296</v>
+      </c>
+      <c r="D2084">
+        <v>0.3174881135512337</v>
+      </c>
+    </row>
+    <row r="2085" spans="1:4">
+      <c r="A2085" s="2">
+        <v>43311</v>
+      </c>
+      <c r="B2085">
+        <v>73.83090467516698</v>
+      </c>
+      <c r="C2085">
+        <v>-0.104696172946413</v>
+      </c>
+      <c r="D2085">
+        <v>0.2569226299138385</v>
+      </c>
+    </row>
+    <row r="2086" spans="1:4">
+      <c r="A2086" s="2">
+        <v>43312</v>
+      </c>
+      <c r="B2086">
+        <v>74.01426836672738</v>
+      </c>
+      <c r="C2086">
+        <v>-0.1015046389012415</v>
+      </c>
+      <c r="D2086">
+        <v>0.2710765643865914</v>
+      </c>
+    </row>
+    <row r="2087" spans="1:4">
+      <c r="A2087" s="2">
+        <v>43313</v>
+      </c>
+      <c r="B2087">
+        <v>74.05798421372192</v>
+      </c>
+      <c r="C2087">
+        <v>-0.1131487521496393</v>
+      </c>
+      <c r="D2087">
+        <v>0.2076588238641686</v>
+      </c>
+    </row>
+    <row r="2088" spans="1:4">
+      <c r="A2088" s="2">
+        <v>43314</v>
+      </c>
+      <c r="B2088">
+        <v>73.87826350941106</v>
+      </c>
+      <c r="C2088">
+        <v>-0.1324976258034616</v>
+      </c>
+      <c r="D2088">
+        <v>0.15453970789426</v>
+      </c>
+    </row>
+    <row r="2089" spans="1:4">
+      <c r="A2089" s="2">
+        <v>43315</v>
+      </c>
+      <c r="B2089">
+        <v>74.07741347905282</v>
+      </c>
+      <c r="C2089">
+        <v>-0.1397907408217747</v>
+      </c>
+      <c r="D2089">
+        <v>0.1293775301219389</v>
+      </c>
+    </row>
+    <row r="2090" spans="1:4">
+      <c r="A2090" s="2">
+        <v>43318</v>
+      </c>
+      <c r="B2090">
+        <v>74.22282938676382</v>
+      </c>
+      <c r="C2090">
+        <v>-0.1534649374367826</v>
+      </c>
+      <c r="D2090">
+        <v>0.1031804968043508</v>
+      </c>
+    </row>
+    <row r="2091" spans="1:4">
+      <c r="A2091" s="2">
+        <v>43319</v>
+      </c>
+      <c r="B2091">
+        <v>74.27990285367335</v>
+      </c>
+      <c r="C2091">
+        <v>-0.1289489693555956</v>
+      </c>
+      <c r="D2091">
+        <v>0.1912828534061582</v>
+      </c>
+    </row>
+    <row r="2092" spans="1:4">
+      <c r="A2092" s="2">
+        <v>43320</v>
+      </c>
+      <c r="B2092">
+        <v>74.31390406800243</v>
+      </c>
+      <c r="C2092">
+        <v>-0.1384721660145019</v>
+      </c>
+      <c r="D2092">
+        <v>0.1515067743218677</v>
+      </c>
+    </row>
+    <row r="2093" spans="1:4">
+      <c r="A2093" s="2">
+        <v>43321</v>
+      </c>
+      <c r="B2093">
+        <v>74.27808136004857</v>
+      </c>
+      <c r="C2093">
+        <v>-0.1173714102733122</v>
+      </c>
+      <c r="D2093">
+        <v>0.2370980902038575</v>
+      </c>
+    </row>
+    <row r="2094" spans="1:4">
+      <c r="A2094" s="2">
+        <v>43322</v>
+      </c>
+      <c r="B2094">
+        <v>74.49028536733455</v>
+      </c>
+      <c r="C2094">
+        <v>-0.1103691826233501</v>
+      </c>
+      <c r="D2094">
+        <v>0.2568207228942467</v>
+      </c>
+    </row>
+    <row r="2095" spans="1:4">
+      <c r="A2095" s="2">
+        <v>43325</v>
+      </c>
+      <c r="B2095">
+        <v>74.59107468123861</v>
+      </c>
+      <c r="C2095">
+        <v>-0.1058180172407355</v>
+      </c>
+      <c r="D2095">
+        <v>0.2735074653456044</v>
+      </c>
+    </row>
+    <row r="2096" spans="1:4">
+      <c r="A2096" s="2">
+        <v>43326</v>
+      </c>
+      <c r="B2096">
+        <v>74.88433515482696</v>
+      </c>
+      <c r="C2096">
+        <v>-0.1045880546949532</v>
+      </c>
+      <c r="D2096">
+        <v>0.2702997399703636</v>
+      </c>
+    </row>
+    <row r="2097" spans="1:4">
+      <c r="A2097" s="2">
+        <v>43327</v>
+      </c>
+      <c r="B2097">
+        <v>75.11991499696418</v>
+      </c>
+      <c r="C2097">
+        <v>-0.1189395976090072</v>
+      </c>
+      <c r="D2097">
+        <v>0.1835864564076501</v>
+      </c>
+    </row>
+    <row r="2098" spans="1:4">
+      <c r="A2098" s="2">
+        <v>43328</v>
+      </c>
+      <c r="B2098">
+        <v>75.31147540983606</v>
+      </c>
+      <c r="C2098">
+        <v>-0.1255591953424884</v>
+      </c>
+      <c r="D2098">
+        <v>0.1558566181449956</v>
+      </c>
+    </row>
+    <row r="2099" spans="1:4">
+      <c r="A2099" s="2">
+        <v>43329</v>
+      </c>
+      <c r="B2099">
+        <v>75.54159077109897</v>
+      </c>
+      <c r="C2099">
+        <v>-0.1384481574556527</v>
+      </c>
+      <c r="D2099">
+        <v>0.1130525571729885</v>
+      </c>
+    </row>
+    <row r="2100" spans="1:4">
+      <c r="A2100" s="2">
+        <v>43332</v>
+      </c>
+      <c r="B2100">
+        <v>75.81511839708561</v>
+      </c>
+      <c r="C2100">
+        <v>-0.1314950302790601</v>
+      </c>
+      <c r="D2100">
+        <v>0.1547675900279747</v>
+      </c>
+    </row>
+    <row r="2101" spans="1:4">
+      <c r="A2101" s="2">
+        <v>43333</v>
+      </c>
+      <c r="B2101">
+        <v>76.03491196114147</v>
+      </c>
+      <c r="C2101">
+        <v>-0.120008821216323</v>
+      </c>
+      <c r="D2101">
+        <v>0.1985400173939871</v>
+      </c>
+    </row>
+    <row r="2102" spans="1:4">
+      <c r="A2102" s="2">
+        <v>43334</v>
+      </c>
+      <c r="B2102">
+        <v>76.40983606557377</v>
+      </c>
+      <c r="C2102">
+        <v>-0.1278015226484841</v>
+      </c>
+      <c r="D2102">
+        <v>0.1540413507155651</v>
+      </c>
+    </row>
+    <row r="2103" spans="1:4">
+      <c r="A2103" s="2">
+        <v>43335</v>
+      </c>
+      <c r="B2103">
+        <v>76.73254401942927</v>
+      </c>
+      <c r="C2103">
+        <v>-0.1210714960809238</v>
+      </c>
+      <c r="D2103">
+        <v>0.1866486102955625</v>
+      </c>
+    </row>
+    <row r="2104" spans="1:4">
+      <c r="A2104" s="2">
+        <v>43336</v>
+      </c>
+      <c r="B2104">
+        <v>77.08014571948998</v>
+      </c>
+      <c r="C2104">
+        <v>-0.1215907835501055</v>
+      </c>
+      <c r="D2104">
+        <v>0.1725057194958989</v>
+      </c>
+    </row>
+    <row r="2105" spans="1:4">
+      <c r="A2105" s="2">
+        <v>43339</v>
+      </c>
+      <c r="B2105">
+        <v>77.2701882210079</v>
+      </c>
+      <c r="C2105">
+        <v>-0.1023634941173099</v>
+      </c>
+      <c r="D2105">
+        <v>0.2747632392092214</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:4">
+      <c r="A2106" s="2">
+        <v>43340</v>
+      </c>
+      <c r="B2106">
+        <v>77.50516089860352</v>
+      </c>
+      <c r="C2106">
+        <v>-0.09933290585542986</v>
+      </c>
+      <c r="D2106">
+        <v>0.2810370741693107</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:4">
+      <c r="A2107" s="2">
+        <v>43341</v>
+      </c>
+      <c r="B2107">
+        <v>77.81238615664846</v>
+      </c>
+      <c r="C2107">
+        <v>-0.1019305182847061</v>
+      </c>
+      <c r="D2107">
+        <v>0.2552095561602347</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:4">
+      <c r="A2108" s="2">
+        <v>43342</v>
+      </c>
+      <c r="B2108">
+        <v>78.07619914996964</v>
+      </c>
+      <c r="C2108">
+        <v>-0.1140704515340881</v>
+      </c>
+      <c r="D2108">
+        <v>0.1793797918197809</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:4">
+      <c r="A2109" s="2">
+        <v>43343</v>
+      </c>
+      <c r="B2109">
+        <v>78.37067395264117</v>
+      </c>
+      <c r="C2109">
+        <v>-0.1212347651320845</v>
+      </c>
+      <c r="D2109">
+        <v>0.1531143831338443</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:4">
+      <c r="A2110" s="2">
+        <v>43346</v>
+      </c>
+      <c r="B2110">
+        <v>78.70491803278688</v>
+      </c>
+      <c r="C2110">
+        <v>-0.119607413292895</v>
+      </c>
+      <c r="D2110">
+        <v>0.176868304367823</v>
+      </c>
+    </row>
+    <row r="2111" spans="1:4">
+      <c r="A2111" s="2">
+        <v>43347</v>
+      </c>
+      <c r="B2111">
+        <v>78.85883424408014</v>
+      </c>
+      <c r="C2111">
+        <v>-0.1070006310949604</v>
+      </c>
+      <c r="D2111">
+        <v>0.2335756023259718</v>
+      </c>
+    </row>
+    <row r="2112" spans="1:4">
+      <c r="A2112" s="2">
+        <v>43348</v>
+      </c>
+      <c r="B2112">
+        <v>79.10048573163327</v>
+      </c>
+      <c r="C2112">
+        <v>-0.1166364042903495</v>
+      </c>
+      <c r="D2112">
+        <v>0.1720842673639084</v>
+      </c>
+    </row>
+    <row r="2113" spans="1:4">
+      <c r="A2113" s="2">
+        <v>43349</v>
+      </c>
+      <c r="B2113">
+        <v>79.40437158469945</v>
+      </c>
+      <c r="C2113">
+        <v>-0.1183244985865329</v>
+      </c>
+      <c r="D2113">
+        <v>0.1695383150761409</v>
+      </c>
+    </row>
+    <row r="2114" spans="1:4">
+      <c r="A2114" s="2">
+        <v>43350</v>
+      </c>
+      <c r="B2114">
+        <v>79.57437765634486</v>
+      </c>
+      <c r="C2114">
+        <v>-0.1143150476365251</v>
+      </c>
+      <c r="D2114">
+        <v>0.1823921132121841</v>
+      </c>
+    </row>
+    <row r="2115" spans="1:4">
+      <c r="A2115" s="2">
+        <v>43353</v>
+      </c>
+      <c r="B2115">
+        <v>79.89799635701274</v>
+      </c>
+      <c r="C2115">
+        <v>-0.1290141324597311</v>
+      </c>
+      <c r="D2115">
+        <v>0.1307957925643439</v>
+      </c>
+    </row>
+    <row r="2116" spans="1:4">
+      <c r="A2116" s="2">
+        <v>43354</v>
+      </c>
+      <c r="B2116">
+        <v>80.47085610200364</v>
+      </c>
+      <c r="C2116">
+        <v>-0.1268483583386979</v>
+      </c>
+      <c r="D2116">
+        <v>0.1424812032171262</v>
+      </c>
+    </row>
+    <row r="2117" spans="1:4">
+      <c r="A2117" s="2">
+        <v>43355</v>
+      </c>
+      <c r="B2117">
+        <v>80.85822707953855</v>
+      </c>
+      <c r="C2117">
+        <v>-0.1239995818311863</v>
+      </c>
+      <c r="D2117">
+        <v>0.1506054058280968</v>
+      </c>
+    </row>
+    <row r="2118" spans="1:4">
+      <c r="A2118" s="2">
+        <v>43356</v>
+      </c>
+      <c r="B2118">
+        <v>81.105343047966</v>
+      </c>
+      <c r="C2118">
+        <v>-0.1146071452099905</v>
+      </c>
+      <c r="D2118">
+        <v>0.1984649626419387</v>
+      </c>
+    </row>
+    <row r="2119" spans="1:4">
+      <c r="A2119" s="2">
+        <v>43357</v>
+      </c>
+      <c r="B2119">
+        <v>81.26502732240438</v>
+      </c>
+      <c r="C2119">
+        <v>-0.1208390979423231</v>
+      </c>
+      <c r="D2119">
+        <v>0.1544908816713656</v>
+      </c>
+    </row>
+    <row r="2120" spans="1:4">
+      <c r="A2120" s="2">
+        <v>43360</v>
+      </c>
+      <c r="B2120">
+        <v>81.57741347905282</v>
+      </c>
+      <c r="C2120">
+        <v>-0.132606529962391</v>
+      </c>
+      <c r="D2120">
+        <v>0.1262465056147599</v>
+      </c>
+    </row>
+    <row r="2121" spans="1:4">
+      <c r="A2121" s="2">
+        <v>43361</v>
+      </c>
+      <c r="B2121">
+        <v>81.80388585306618</v>
+      </c>
+      <c r="C2121">
+        <v>-0.1156445200002016</v>
+      </c>
+      <c r="D2121">
+        <v>0.1985617052953084</v>
+      </c>
+    </row>
+    <row r="2122" spans="1:4">
+      <c r="A2122" s="2">
+        <v>43362</v>
+      </c>
+      <c r="B2122">
+        <v>81.87006678809958</v>
+      </c>
+      <c r="C2122">
+        <v>-0.1038494273682179</v>
+      </c>
+      <c r="D2122">
+        <v>0.246574813776776</v>
+      </c>
+    </row>
+    <row r="2123" spans="1:4">
+      <c r="A2123" s="2">
+        <v>43363</v>
+      </c>
+      <c r="B2123">
+        <v>82.07437765634486</v>
+      </c>
+      <c r="C2123">
+        <v>-0.1035105029574313</v>
+      </c>
+      <c r="D2123">
+        <v>0.2339934452401155</v>
+      </c>
+    </row>
+    <row r="2124" spans="1:4">
+      <c r="A2124" s="2">
+        <v>43364</v>
+      </c>
+      <c r="B2124">
+        <v>82.14905889496053</v>
+      </c>
+      <c r="C2124">
+        <v>-0.09065051960938859</v>
+      </c>
+      <c r="D2124">
+        <v>0.297525105778726</v>
+      </c>
+    </row>
+    <row r="2125" spans="1:4">
+      <c r="A2125" s="2">
+        <v>43368</v>
+      </c>
+      <c r="B2125">
+        <v>82.30722525804494</v>
+      </c>
+      <c r="C2125">
+        <v>-0.09270867558255057</v>
+      </c>
+      <c r="D2125">
+        <v>0.2766180593051764</v>
+      </c>
+    </row>
+    <row r="2126" spans="1:4">
+      <c r="A2126" s="2">
+        <v>43369</v>
+      </c>
+      <c r="B2126">
+        <v>82.46448087431693</v>
+      </c>
+      <c r="C2126">
+        <v>-0.08758204836212592</v>
+      </c>
+      <c r="D2126">
+        <v>0.2925352256181085</v>
+      </c>
+    </row>
+    <row r="2127" spans="1:4">
+      <c r="A2127" s="2">
+        <v>43370</v>
+      </c>
+      <c r="B2127">
+        <v>82.46903460837888</v>
+      </c>
+      <c r="C2127">
+        <v>-0.1007992478234112</v>
+      </c>
+      <c r="D2127">
+        <v>0.2068298243538639</v>
+      </c>
+    </row>
+    <row r="2128" spans="1:4">
+      <c r="A2128" s="2">
+        <v>43371</v>
+      </c>
+      <c r="B2128">
+        <v>82.710686095932</v>
+      </c>
+      <c r="C2128">
+        <v>-0.09124747468050927</v>
+      </c>
+      <c r="D2128">
+        <v>0.2554419281592958</v>
+      </c>
+    </row>
+    <row r="2129" spans="1:4">
+      <c r="A2129" s="2">
+        <v>43381</v>
+      </c>
+      <c r="B2129">
+        <v>83.18123861566484</v>
+      </c>
+      <c r="C2129">
+        <v>-0.1079946297790304</v>
+      </c>
+      <c r="D2129">
+        <v>0.1815178457777361</v>
+      </c>
+    </row>
+    <row r="2130" spans="1:4">
+      <c r="A2130" s="2">
+        <v>43382</v>
+      </c>
+      <c r="B2130">
+        <v>83.47237401335762</v>
+      </c>
+      <c r="C2130">
+        <v>-0.1159427444589065</v>
+      </c>
+      <c r="D2130">
+        <v>0.15807257922409</v>
+      </c>
+    </row>
+    <row r="2131" spans="1:4">
+      <c r="A2131" s="2">
+        <v>43383</v>
+      </c>
+      <c r="B2131">
+        <v>83.7956891317547</v>
+      </c>
+      <c r="C2131">
+        <v>-0.112265879416832</v>
+      </c>
+      <c r="D2131">
+        <v>0.1751823547917242</v>
+      </c>
+    </row>
+    <row r="2132" spans="1:4">
+      <c r="A2132" s="2">
+        <v>43384</v>
+      </c>
+      <c r="B2132">
+        <v>83.49089253187614</v>
+      </c>
+      <c r="C2132">
+        <v>-0.1736733664737608</v>
+      </c>
+      <c r="D2132">
+        <v>0.06580443681294575</v>
+      </c>
+    </row>
+    <row r="2133" spans="1:4">
+      <c r="A2133" s="2">
+        <v>43385</v>
+      </c>
+      <c r="B2133">
+        <v>83.42380085003036</v>
+      </c>
+      <c r="C2133">
+        <v>-0.1769390900850928</v>
+      </c>
+      <c r="D2133">
+        <v>0.09826175702392188</v>
+      </c>
+    </row>
+    <row r="2134" spans="1:4">
+      <c r="A2134" s="2">
+        <v>43388</v>
+      </c>
+      <c r="B2134">
+        <v>83.58469945355191</v>
+      </c>
+      <c r="C2134">
+        <v>-0.1850673564728384</v>
+      </c>
+      <c r="D2134">
+        <v>0.07914964902099561</v>
+      </c>
+    </row>
+    <row r="2135" spans="1:4">
+      <c r="A2135" s="2">
+        <v>43389</v>
+      </c>
+      <c r="B2135">
+        <v>83.7043108682453</v>
+      </c>
+      <c r="C2135">
+        <v>-0.197841802152757</v>
+      </c>
+      <c r="D2135">
+        <v>0.06389327083711498</v>
+      </c>
+    </row>
+    <row r="2136" spans="1:4">
+      <c r="A2136" s="2">
+        <v>43390</v>
+      </c>
+      <c r="B2136">
+        <v>83.65361262902246</v>
+      </c>
+      <c r="C2136">
+        <v>-0.1875816885235715</v>
+      </c>
+      <c r="D2136">
+        <v>0.09055458818357102</v>
+      </c>
+    </row>
+    <row r="2137" spans="1:4">
+      <c r="A2137" s="2">
+        <v>43391</v>
+      </c>
+      <c r="B2137">
+        <v>83.7956891317547</v>
+      </c>
+      <c r="C2137">
+        <v>-0.2095240172170491</v>
+      </c>
+      <c r="D2137">
+        <v>0.04939253041623633</v>
+      </c>
+    </row>
+    <row r="2138" spans="1:4">
+      <c r="A2138" s="2">
+        <v>43392</v>
+      </c>
+      <c r="B2138">
+        <v>83.87613843351548</v>
+      </c>
+      <c r="C2138">
+        <v>-0.1894136118175337</v>
+      </c>
+      <c r="D2138">
+        <v>0.1063824152303802</v>
+      </c>
+    </row>
+    <row r="2139" spans="1:4">
+      <c r="A2139" s="2">
+        <v>43395</v>
+      </c>
+      <c r="B2139">
+        <v>83.47874924104433</v>
+      </c>
+      <c r="C2139">
+        <v>-0.1452405004802705</v>
+      </c>
+      <c r="D2139">
+        <v>0.2041716630199132</v>
+      </c>
+    </row>
+    <row r="2140" spans="1:4">
+      <c r="A2140" s="2">
+        <v>43396</v>
+      </c>
+      <c r="B2140">
+        <v>83.34517304189436</v>
+      </c>
+      <c r="C2140">
+        <v>-0.1519764555068659</v>
+      </c>
+      <c r="D2140">
+        <v>0.1706412423899469</v>
+      </c>
+    </row>
+    <row r="2141" spans="1:4">
+      <c r="A2141" s="2">
+        <v>43397</v>
+      </c>
+      <c r="B2141">
+        <v>83.36369156041287</v>
+      </c>
+      <c r="C2141">
+        <v>-0.1473923376350281</v>
+      </c>
+      <c r="D2141">
+        <v>0.1783780168492196</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/website/everyday-update/data/881001.WI.xlsx
+++ b/website/everyday-update/data/881001.WI.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2194"/>
+  <dimension ref="A1:D2204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31081,10 +31081,150 @@
         <v>69.79876335019674</v>
       </c>
       <c r="C2194">
-        <v>-0.03637427915207685</v>
+        <v>-0.03637427915207687</v>
       </c>
       <c r="D2194">
         <v>0.3655895461712852</v>
+      </c>
+    </row>
+    <row r="2195" spans="1:4">
+      <c r="A2195" s="2">
+        <v>43475</v>
+      </c>
+      <c r="B2195">
+        <v>69.72512647554807</v>
+      </c>
+      <c r="C2195">
+        <v>-0.03768825922730495</v>
+      </c>
+      <c r="D2195">
+        <v>0.3554732313654677</v>
+      </c>
+    </row>
+    <row r="2196" spans="1:4">
+      <c r="A2196" s="2">
+        <v>43476</v>
+      </c>
+      <c r="B2196">
+        <v>69.65795390668914</v>
+      </c>
+      <c r="C2196">
+        <v>-0.02931184826119479</v>
+      </c>
+      <c r="D2196">
+        <v>0.4186972786222055</v>
+      </c>
+    </row>
+    <row r="2197" spans="1:4">
+      <c r="A2197" s="2">
+        <v>43479</v>
+      </c>
+      <c r="B2197">
+        <v>69.67032040472175</v>
+      </c>
+      <c r="C2197">
+        <v>-0.03483548714749976</v>
+      </c>
+      <c r="D2197">
+        <v>0.3672476215841827</v>
+      </c>
+    </row>
+    <row r="2198" spans="1:4">
+      <c r="A2198" s="2">
+        <v>43480</v>
+      </c>
+      <c r="B2198">
+        <v>69.62984822934233</v>
+      </c>
+      <c r="C2198">
+        <v>-0.02371629863440409</v>
+      </c>
+      <c r="D2198">
+        <v>0.4507750987600228</v>
+      </c>
+    </row>
+    <row r="2199" spans="1:4">
+      <c r="A2199" s="2">
+        <v>43481</v>
+      </c>
+      <c r="B2199">
+        <v>69.60370994940978</v>
+      </c>
+      <c r="C2199">
+        <v>-0.02566669738046906</v>
+      </c>
+      <c r="D2199">
+        <v>0.419132847258485</v>
+      </c>
+    </row>
+    <row r="2200" spans="1:4">
+      <c r="A2200" s="2">
+        <v>43482</v>
+      </c>
+      <c r="B2200">
+        <v>69.58825182686903</v>
+      </c>
+      <c r="C2200">
+        <v>-0.03499353490768425</v>
+      </c>
+      <c r="D2200">
+        <v>0.34377861113301</v>
+      </c>
+    </row>
+    <row r="2201" spans="1:4">
+      <c r="A2201" s="2">
+        <v>43483</v>
+      </c>
+      <c r="B2201">
+        <v>69.57419898819562</v>
+      </c>
+      <c r="C2201">
+        <v>-0.02896264697892258</v>
+      </c>
+      <c r="D2201">
+        <v>0.3878277749496007</v>
+      </c>
+    </row>
+    <row r="2202" spans="1:4">
+      <c r="A2202" s="2">
+        <v>43486</v>
+      </c>
+      <c r="B2202">
+        <v>69.56829679595278</v>
+      </c>
+      <c r="C2202">
+        <v>-0.02298661287481552</v>
+      </c>
+      <c r="D2202">
+        <v>0.4247585533554709</v>
+      </c>
+    </row>
+    <row r="2203" spans="1:4">
+      <c r="A2203" s="2">
+        <v>43487</v>
+      </c>
+      <c r="B2203">
+        <v>69.65205171444632</v>
+      </c>
+      <c r="C2203">
+        <v>-0.03196718293664718</v>
+      </c>
+      <c r="D2203">
+        <v>0.3575961305532446</v>
+      </c>
+    </row>
+    <row r="2204" spans="1:4">
+      <c r="A2204" s="2">
+        <v>43488</v>
+      </c>
+      <c r="B2204">
+        <v>69.80382237211917</v>
+      </c>
+      <c r="C2204">
+        <v>-0.02979631455150304</v>
+      </c>
+      <c r="D2204">
+        <v>0.3784511256474977</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/881001.WI.xlsx
+++ b/website/everyday-update/data/881001.WI.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2204"/>
+  <dimension ref="A1:D2230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31221,10 +31221,374 @@
         <v>69.80382237211917</v>
       </c>
       <c r="C2204">
-        <v>-0.02979631455150304</v>
+        <v>-0.02979631455150305</v>
       </c>
       <c r="D2204">
         <v>0.3784511256474977</v>
+      </c>
+    </row>
+    <row r="2205" spans="1:4">
+      <c r="A2205" s="2">
+        <v>43489</v>
+      </c>
+      <c r="B2205">
+        <v>69.80269814502529</v>
+      </c>
+      <c r="C2205">
+        <v>-0.02544814722595808</v>
+      </c>
+      <c r="D2205">
+        <v>0.4065922600848644</v>
+      </c>
+    </row>
+    <row r="2206" spans="1:4">
+      <c r="A2206" s="2">
+        <v>43490</v>
+      </c>
+      <c r="B2206">
+        <v>69.76981450252951</v>
+      </c>
+      <c r="C2206">
+        <v>-0.03312928480547603</v>
+      </c>
+      <c r="D2206">
+        <v>0.3433891407179956</v>
+      </c>
+    </row>
+    <row r="2207" spans="1:4">
+      <c r="A2207" s="2">
+        <v>43493</v>
+      </c>
+      <c r="B2207">
+        <v>69.72681281618887</v>
+      </c>
+      <c r="C2207">
+        <v>-0.04042306638358894</v>
+      </c>
+      <c r="D2207">
+        <v>0.3071735268931483</v>
+      </c>
+    </row>
+    <row r="2208" spans="1:4">
+      <c r="A2208" s="2">
+        <v>43494</v>
+      </c>
+      <c r="B2208">
+        <v>69.65514333895447</v>
+      </c>
+      <c r="C2208">
+        <v>-0.05834995104638436</v>
+      </c>
+      <c r="D2208">
+        <v>0.2467124678331296</v>
+      </c>
+    </row>
+    <row r="2209" spans="1:4">
+      <c r="A2209" s="2">
+        <v>43495</v>
+      </c>
+      <c r="B2209">
+        <v>69.81899943788645</v>
+      </c>
+      <c r="C2209">
+        <v>-0.07132820455820948</v>
+      </c>
+      <c r="D2209">
+        <v>0.2014437660266049</v>
+      </c>
+    </row>
+    <row r="2210" spans="1:4">
+      <c r="A2210" s="2">
+        <v>43496</v>
+      </c>
+      <c r="B2210">
+        <v>69.77684092186621</v>
+      </c>
+      <c r="C2210">
+        <v>-0.0860496173997756</v>
+      </c>
+      <c r="D2210">
+        <v>0.1823370522396489</v>
+      </c>
+    </row>
+    <row r="2211" spans="1:4">
+      <c r="A2211" s="2">
+        <v>43497</v>
+      </c>
+      <c r="B2211">
+        <v>69.93957279370433</v>
+      </c>
+      <c r="C2211">
+        <v>-0.05948776638398275</v>
+      </c>
+      <c r="D2211">
+        <v>0.29054832918795</v>
+      </c>
+    </row>
+    <row r="2212" spans="1:4">
+      <c r="A2212" s="2">
+        <v>43507</v>
+      </c>
+      <c r="B2212">
+        <v>69.96121416526138</v>
+      </c>
+      <c r="C2212">
+        <v>-0.03307281775885102</v>
+      </c>
+      <c r="D2212">
+        <v>0.4036821188236198</v>
+      </c>
+    </row>
+    <row r="2213" spans="1:4">
+      <c r="A2213" s="2">
+        <v>43508</v>
+      </c>
+      <c r="B2213">
+        <v>69.79258010118043</v>
+      </c>
+      <c r="C2213">
+        <v>-0.01842245135558011</v>
+      </c>
+      <c r="D2213">
+        <v>0.4672742846218573</v>
+      </c>
+    </row>
+    <row r="2214" spans="1:4">
+      <c r="A2214" s="2">
+        <v>43509</v>
+      </c>
+      <c r="B2214">
+        <v>69.35188308038224</v>
+      </c>
+      <c r="C2214">
+        <v>-0.0006231650567612938</v>
+      </c>
+      <c r="D2214">
+        <v>0.5620083578834904</v>
+      </c>
+    </row>
+    <row r="2215" spans="1:4">
+      <c r="A2215" s="2">
+        <v>43510</v>
+      </c>
+      <c r="B2215">
+        <v>69.00337268128162</v>
+      </c>
+      <c r="C2215">
+        <v>0.004135725420655038</v>
+      </c>
+      <c r="D2215">
+        <v>0.5719222737286852</v>
+      </c>
+    </row>
+    <row r="2216" spans="1:4">
+      <c r="A2216" s="2">
+        <v>43511</v>
+      </c>
+      <c r="B2216">
+        <v>68.68915120854413</v>
+      </c>
+      <c r="C2216">
+        <v>0.002258207834524491</v>
+      </c>
+      <c r="D2216">
+        <v>0.5482092026626123</v>
+      </c>
+    </row>
+    <row r="2217" spans="1:4">
+      <c r="A2217" s="2">
+        <v>43514</v>
+      </c>
+      <c r="B2217">
+        <v>67.89629005059022</v>
+      </c>
+      <c r="C2217">
+        <v>0.03439162391033265</v>
+      </c>
+      <c r="D2217">
+        <v>0.7332912242604783</v>
+      </c>
+    </row>
+    <row r="2218" spans="1:4">
+      <c r="A2218" s="2">
+        <v>43515</v>
+      </c>
+      <c r="B2218">
+        <v>66.93423271500843</v>
+      </c>
+      <c r="C2218">
+        <v>0.03564692399544503</v>
+      </c>
+      <c r="D2218">
+        <v>0.719740273443839</v>
+      </c>
+    </row>
+    <row r="2219" spans="1:4">
+      <c r="A2219" s="2">
+        <v>43516</v>
+      </c>
+      <c r="B2219">
+        <v>66.33305227655987</v>
+      </c>
+      <c r="C2219">
+        <v>0.0357896355898016</v>
+      </c>
+      <c r="D2219">
+        <v>0.7191706751633188</v>
+      </c>
+    </row>
+    <row r="2220" spans="1:4">
+      <c r="A2220" s="2">
+        <v>43517</v>
+      </c>
+      <c r="B2220">
+        <v>65.37774030354132</v>
+      </c>
+      <c r="C2220">
+        <v>0.02924822607409881</v>
+      </c>
+      <c r="D2220">
+        <v>0.656573590978261</v>
+      </c>
+    </row>
+    <row r="2221" spans="1:4">
+      <c r="A2221" s="2">
+        <v>43518</v>
+      </c>
+      <c r="B2221">
+        <v>64.54131534569983</v>
+      </c>
+      <c r="C2221">
+        <v>0.04806608606753465</v>
+      </c>
+      <c r="D2221">
+        <v>0.7819486779645678</v>
+      </c>
+    </row>
+    <row r="2222" spans="1:4">
+      <c r="A2222" s="2">
+        <v>43521</v>
+      </c>
+      <c r="B2222">
+        <v>62.36790331646993</v>
+      </c>
+      <c r="C2222">
+        <v>0.09228697177399399</v>
+      </c>
+      <c r="D2222">
+        <v>0.9133355098405149</v>
+      </c>
+    </row>
+    <row r="2223" spans="1:4">
+      <c r="A2223" s="2">
+        <v>43522</v>
+      </c>
+      <c r="B2223">
+        <v>60.13771781899944</v>
+      </c>
+      <c r="C2223">
+        <v>0.08012915632866799</v>
+      </c>
+      <c r="D2223">
+        <v>0.8352518894218689</v>
+      </c>
+    </row>
+    <row r="2224" spans="1:4">
+      <c r="A2224" s="2">
+        <v>43523</v>
+      </c>
+      <c r="B2224">
+        <v>58.66469926925239</v>
+      </c>
+      <c r="C2224">
+        <v>0.07020716659845133</v>
+      </c>
+      <c r="D2224">
+        <v>0.7927571781891083</v>
+      </c>
+    </row>
+    <row r="2225" spans="1:4">
+      <c r="A2225" s="2">
+        <v>43524</v>
+      </c>
+      <c r="B2225">
+        <v>57.71866216975829</v>
+      </c>
+      <c r="C2225">
+        <v>0.06886929332222086</v>
+      </c>
+      <c r="D2225">
+        <v>0.8022118959048368</v>
+      </c>
+    </row>
+    <row r="2226" spans="1:4">
+      <c r="A2226" s="2">
+        <v>43525</v>
+      </c>
+      <c r="B2226">
+        <v>56.93395165823496</v>
+      </c>
+      <c r="C2226">
+        <v>0.0706090295169482</v>
+      </c>
+      <c r="D2226">
+        <v>0.8143928304924959</v>
+      </c>
+    </row>
+    <row r="2227" spans="1:4">
+      <c r="A2227" s="2">
+        <v>43528</v>
+      </c>
+      <c r="B2227">
+        <v>55.08150646430579</v>
+      </c>
+      <c r="C2227">
+        <v>0.0804668340626019</v>
+      </c>
+      <c r="D2227">
+        <v>0.8461351416327577</v>
+      </c>
+    </row>
+    <row r="2228" spans="1:4">
+      <c r="A2228" s="2">
+        <v>43529</v>
+      </c>
+      <c r="B2228">
+        <v>53.68858909499719</v>
+      </c>
+      <c r="C2228">
+        <v>0.09971023787810408</v>
+      </c>
+      <c r="D2228">
+        <v>0.9361476156929489</v>
+      </c>
+    </row>
+    <row r="2229" spans="1:4">
+      <c r="A2229" s="2">
+        <v>43530</v>
+      </c>
+      <c r="B2229">
+        <v>51.73777403035413</v>
+      </c>
+      <c r="C2229">
+        <v>0.1107188174715472</v>
+      </c>
+      <c r="D2229">
+        <v>0.9545179336221338</v>
+      </c>
+    </row>
+    <row r="2230" spans="1:4">
+      <c r="A2230" s="2">
+        <v>43531</v>
+      </c>
+      <c r="B2230">
+        <v>49.72962338392355</v>
+      </c>
+      <c r="C2230">
+        <v>0.1145397903267383</v>
+      </c>
+      <c r="D2230">
+        <v>0.9322127949976455</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/881001.WI.xlsx
+++ b/website/everyday-update/data/881001.WI.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2287"/>
+  <dimension ref="A1:D2295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32383,10 +32383,122 @@
         <v>38.94484679665738</v>
       </c>
       <c r="C2287">
-        <v>-0.08873998860514833</v>
+        <v>-0.08873998860514835</v>
       </c>
       <c r="D2287">
         <v>0.2453454764949646</v>
+      </c>
+    </row>
+    <row r="2288" spans="1:4">
+      <c r="A2288" s="2">
+        <v>43619</v>
+      </c>
+      <c r="B2288">
+        <v>39.25069637883009</v>
+      </c>
+      <c r="C2288">
+        <v>-0.1003296239461405</v>
+      </c>
+      <c r="D2288">
+        <v>0.195873096086156</v>
+      </c>
+    </row>
+    <row r="2289" spans="1:4">
+      <c r="A2289" s="2">
+        <v>43620</v>
+      </c>
+      <c r="B2289">
+        <v>39.66685236768802</v>
+      </c>
+      <c r="C2289">
+        <v>-0.1123716833438414</v>
+      </c>
+      <c r="D2289">
+        <v>0.1479376046315487</v>
+      </c>
+    </row>
+    <row r="2290" spans="1:4">
+      <c r="A2290" s="2">
+        <v>43621</v>
+      </c>
+      <c r="B2290">
+        <v>40.1025069637883</v>
+      </c>
+      <c r="C2290">
+        <v>-0.1096024393076782</v>
+      </c>
+      <c r="D2290">
+        <v>0.165874733225293</v>
+      </c>
+    </row>
+    <row r="2291" spans="1:4">
+      <c r="A2291" s="2">
+        <v>43622</v>
+      </c>
+      <c r="B2291">
+        <v>40.51949860724234</v>
+      </c>
+      <c r="C2291">
+        <v>-0.1296757236266859</v>
+      </c>
+      <c r="D2291">
+        <v>0.1044011776563595</v>
+      </c>
+    </row>
+    <row r="2292" spans="1:4">
+      <c r="A2292" s="2">
+        <v>43626</v>
+      </c>
+      <c r="B2292">
+        <v>41.01281337047354</v>
+      </c>
+      <c r="C2292">
+        <v>-0.1182224913759807</v>
+      </c>
+      <c r="D2292">
+        <v>0.1577791396138925</v>
+      </c>
+    </row>
+    <row r="2293" spans="1:4">
+      <c r="A2293" s="2">
+        <v>43627</v>
+      </c>
+      <c r="B2293">
+        <v>41.26155988857938</v>
+      </c>
+      <c r="C2293">
+        <v>-0.08439549526149763</v>
+      </c>
+      <c r="D2293">
+        <v>0.3068381649609612</v>
+      </c>
+    </row>
+    <row r="2294" spans="1:4">
+      <c r="A2294" s="2">
+        <v>43628</v>
+      </c>
+      <c r="B2294">
+        <v>41.56128133704735</v>
+      </c>
+      <c r="C2294">
+        <v>-0.08670064125937507</v>
+      </c>
+      <c r="D2294">
+        <v>0.2767198399079786</v>
+      </c>
+    </row>
+    <row r="2295" spans="1:4">
+      <c r="A2295" s="2">
+        <v>43629</v>
+      </c>
+      <c r="B2295">
+        <v>41.92339832869081</v>
+      </c>
+      <c r="C2295">
+        <v>-0.07968088715911927</v>
+      </c>
+      <c r="D2295">
+        <v>0.3103322550265736</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/881001.WI.xlsx
+++ b/website/everyday-update/data/881001.WI.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2372"/>
+  <dimension ref="A1:D2385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32999,7 +32999,7 @@
         <v>52.51544137742552</v>
       </c>
       <c r="C2331">
-        <v>-0.07205818922671219</v>
+        <v>-0.07205818922671221</v>
       </c>
       <c r="D2331">
         <v>0.2179554272541485</v>
@@ -33055,7 +33055,7 @@
         <v>53.65420305676856</v>
       </c>
       <c r="C2335">
-        <v>-0.09914704279795435</v>
+        <v>-0.09914704279795436</v>
       </c>
       <c r="D2335">
         <v>0.1573942814083391</v>
@@ -33181,7 +33181,7 @@
         <v>55.77369281045752</v>
       </c>
       <c r="C2344">
-        <v>-0.04763495953366512</v>
+        <v>-0.04763495953366511</v>
       </c>
       <c r="D2344">
         <v>0.3646686298870369</v>
@@ -33335,7 +33335,7 @@
         <v>55.44628773456622</v>
       </c>
       <c r="C2355">
-        <v>-0.006072018076368628</v>
+        <v>-0.006072018076368626</v>
       </c>
       <c r="D2355">
         <v>0.5490395211364461</v>
@@ -33349,7 +33349,7 @@
         <v>55.30396954866775</v>
       </c>
       <c r="C2356">
-        <v>-0.003673028138011961</v>
+        <v>-0.00367302813801196</v>
       </c>
       <c r="D2356">
         <v>0.5582882710532756</v>
@@ -33377,7 +33377,7 @@
         <v>54.66603260869565</v>
       </c>
       <c r="C2358">
-        <v>0.01417721218298265</v>
+        <v>0.01417721218298264</v>
       </c>
       <c r="D2358">
         <v>0.6532859749866895</v>
@@ -33391,7 +33391,7 @@
         <v>54.46603260869565</v>
       </c>
       <c r="C2359">
-        <v>0.005853436928509931</v>
+        <v>0.005853436928509929</v>
       </c>
       <c r="D2359">
         <v>0.5844695231845808</v>
@@ -33489,7 +33489,7 @@
         <v>54.1875</v>
       </c>
       <c r="C2366">
-        <v>-0.0124955411293066</v>
+        <v>-0.01249554112930661</v>
       </c>
       <c r="D2366">
         <v>0.4469274078381046</v>
@@ -33503,7 +33503,7 @@
         <v>54.15403422982885</v>
       </c>
       <c r="C2367">
-        <v>-0.01144458404946052</v>
+        <v>-0.01144458404946051</v>
       </c>
       <c r="D2367">
         <v>0.447840026758597</v>
@@ -33517,7 +33517,7 @@
         <v>54.11491442542787</v>
       </c>
       <c r="C2368">
-        <v>-0.03024172901628971</v>
+        <v>-0.03024172901628972</v>
       </c>
       <c r="D2368">
         <v>0.3286878584373188</v>
@@ -33531,7 +33531,7 @@
         <v>53.84705243140451</v>
       </c>
       <c r="C2369">
-        <v>-0.05626691180333109</v>
+        <v>-0.05626691180333111</v>
       </c>
       <c r="D2369">
         <v>0.2205044691507738</v>
@@ -33545,7 +33545,7 @@
         <v>54.0317848410758</v>
       </c>
       <c r="C2370">
-        <v>-0.04750007612444791</v>
+        <v>-0.04750007612444792</v>
       </c>
       <c r="D2370">
         <v>0.2645908217335145</v>
@@ -33573,10 +33573,192 @@
         <v>54.60890820206409</v>
       </c>
       <c r="C2372">
-        <v>-0.05555559193364446</v>
+        <v>-0.05555559193364449</v>
       </c>
       <c r="D2372">
         <v>0.2306054408867622</v>
+      </c>
+    </row>
+    <row r="2373" spans="1:4">
+      <c r="A2373" s="2">
+        <v>43747</v>
+      </c>
+      <c r="B2373">
+        <v>54.89818083084442</v>
+      </c>
+      <c r="C2373">
+        <v>-0.04602654398685373</v>
+      </c>
+      <c r="D2373">
+        <v>0.2875762210826076</v>
+      </c>
+    </row>
+    <row r="2374" spans="1:4">
+      <c r="A2374" s="2">
+        <v>43748</v>
+      </c>
+      <c r="B2374">
+        <v>55.10371979364648</v>
+      </c>
+      <c r="C2374">
+        <v>-0.03369686716585664</v>
+      </c>
+      <c r="D2374">
+        <v>0.359113495249087</v>
+      </c>
+    </row>
+    <row r="2375" spans="1:4">
+      <c r="A2375" s="2">
+        <v>43749</v>
+      </c>
+      <c r="B2375">
+        <v>55.23947868585392</v>
+      </c>
+      <c r="C2375">
+        <v>-0.03180452688308526</v>
+      </c>
+      <c r="D2375">
+        <v>0.3584370178584226</v>
+      </c>
+    </row>
+    <row r="2376" spans="1:4">
+      <c r="A2376" s="2">
+        <v>43752</v>
+      </c>
+      <c r="B2376">
+        <v>55.22373065435786</v>
+      </c>
+      <c r="C2376">
+        <v>-0.01752003705195375</v>
+      </c>
+      <c r="D2376">
+        <v>0.4513101504575961</v>
+      </c>
+    </row>
+    <row r="2377" spans="1:4">
+      <c r="A2377" s="2">
+        <v>43753</v>
+      </c>
+      <c r="B2377">
+        <v>55.27721965788759</v>
+      </c>
+      <c r="C2377">
+        <v>-0.02797235336988316</v>
+      </c>
+      <c r="D2377">
+        <v>0.374594086028256</v>
+      </c>
+    </row>
+    <row r="2378" spans="1:4">
+      <c r="A2378" s="2">
+        <v>43754</v>
+      </c>
+      <c r="B2378">
+        <v>55.40890578332881</v>
+      </c>
+      <c r="C2378">
+        <v>-0.03401373783172172</v>
+      </c>
+      <c r="D2378">
+        <v>0.3325775988725843</v>
+      </c>
+    </row>
+    <row r="2379" spans="1:4">
+      <c r="A2379" s="2">
+        <v>43755</v>
+      </c>
+      <c r="B2379">
+        <v>55.66223187618789</v>
+      </c>
+      <c r="C2379">
+        <v>-0.03579445079010098</v>
+      </c>
+      <c r="D2379">
+        <v>0.3241739655015433</v>
+      </c>
+    </row>
+    <row r="2380" spans="1:4">
+      <c r="A2380" s="2">
+        <v>43756</v>
+      </c>
+      <c r="B2380">
+        <v>55.77816997013304</v>
+      </c>
+      <c r="C2380">
+        <v>-0.04672664255520456</v>
+      </c>
+      <c r="D2380">
+        <v>0.2606112435543891</v>
+      </c>
+    </row>
+    <row r="2381" spans="1:4">
+      <c r="A2381" s="2">
+        <v>43759</v>
+      </c>
+      <c r="B2381">
+        <v>55.99538419766495</v>
+      </c>
+      <c r="C2381">
+        <v>-0.04978114565185273</v>
+      </c>
+      <c r="D2381">
+        <v>0.2610009024696537</v>
+      </c>
+    </row>
+    <row r="2382" spans="1:4">
+      <c r="A2382" s="2">
+        <v>43760</v>
+      </c>
+      <c r="B2382">
+        <v>56.24327993483573</v>
+      </c>
+      <c r="C2382">
+        <v>-0.03898782114181403</v>
+      </c>
+      <c r="D2382">
+        <v>0.3266688486174726</v>
+      </c>
+    </row>
+    <row r="2383" spans="1:4">
+      <c r="A2383" s="2">
+        <v>43761</v>
+      </c>
+      <c r="B2383">
+        <v>56.47244094488189</v>
+      </c>
+      <c r="C2383">
+        <v>-0.04368702670651124</v>
+      </c>
+      <c r="D2383">
+        <v>0.2865457110921389</v>
+      </c>
+    </row>
+    <row r="2384" spans="1:4">
+      <c r="A2384" s="2">
+        <v>43762</v>
+      </c>
+      <c r="B2384">
+        <v>56.70133043714363</v>
+      </c>
+      <c r="C2384">
+        <v>-0.04391082432651598</v>
+      </c>
+      <c r="D2384">
+        <v>0.290075250074719</v>
+      </c>
+    </row>
+    <row r="2385" spans="1:4">
+      <c r="A2385" s="2">
+        <v>43763</v>
+      </c>
+      <c r="B2385">
+        <v>56.90415422210155</v>
+      </c>
+      <c r="C2385">
+        <v>-0.0379437558917485</v>
+      </c>
+      <c r="D2385">
+        <v>0.332341214488222</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/881001.WI.xlsx
+++ b/website/everyday-update/data/881001.WI.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2385"/>
+  <dimension ref="A1:D2395"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33699,7 +33699,7 @@
         <v>55.99538419766495</v>
       </c>
       <c r="C2381">
-        <v>-0.04978114565185273</v>
+        <v>-0.04978114565185276</v>
       </c>
       <c r="D2381">
         <v>0.2610009024696537</v>
@@ -33713,7 +33713,7 @@
         <v>56.24327993483573</v>
       </c>
       <c r="C2382">
-        <v>-0.03898782114181403</v>
+        <v>-0.03898782114181404</v>
       </c>
       <c r="D2382">
         <v>0.3266688486174726</v>
@@ -33727,7 +33727,7 @@
         <v>56.47244094488189</v>
       </c>
       <c r="C2383">
-        <v>-0.04368702670651124</v>
+        <v>-0.04368702670651126</v>
       </c>
       <c r="D2383">
         <v>0.2865457110921389</v>
@@ -33741,7 +33741,7 @@
         <v>56.70133043714363</v>
       </c>
       <c r="C2384">
-        <v>-0.04391082432651598</v>
+        <v>-0.04391082432651602</v>
       </c>
       <c r="D2384">
         <v>0.290075250074719</v>
@@ -33755,10 +33755,150 @@
         <v>56.90415422210155</v>
       </c>
       <c r="C2385">
-        <v>-0.0379437558917485</v>
+        <v>-0.03794375589174845</v>
       </c>
       <c r="D2385">
         <v>0.332341214488222</v>
+      </c>
+    </row>
+    <row r="2386" spans="1:4">
+      <c r="A2386" s="2">
+        <v>43766</v>
+      </c>
+      <c r="B2386">
+        <v>56.86804235677437</v>
+      </c>
+      <c r="C2386">
+        <v>-0.02122514697622217</v>
+      </c>
+      <c r="D2386">
+        <v>0.443820742480385</v>
+      </c>
+    </row>
+    <row r="2387" spans="1:4">
+      <c r="A2387" s="2">
+        <v>43767</v>
+      </c>
+      <c r="B2387">
+        <v>56.82758620689656</v>
+      </c>
+      <c r="C2387">
+        <v>-0.03550929901317985</v>
+      </c>
+      <c r="D2387">
+        <v>0.3211072886198146</v>
+      </c>
+    </row>
+    <row r="2388" spans="1:4">
+      <c r="A2388" s="2">
+        <v>43768</v>
+      </c>
+      <c r="B2388">
+        <v>56.90958457778984</v>
+      </c>
+      <c r="C2388">
+        <v>-0.04750538071873967</v>
+      </c>
+      <c r="D2388">
+        <v>0.2655297301082257</v>
+      </c>
+    </row>
+    <row r="2389" spans="1:4">
+      <c r="A2389" s="2">
+        <v>43769</v>
+      </c>
+      <c r="B2389">
+        <v>57.0456149877817</v>
+      </c>
+      <c r="C2389">
+        <v>-0.05782777911963088</v>
+      </c>
+      <c r="D2389">
+        <v>0.2224120371059333</v>
+      </c>
+    </row>
+    <row r="2390" spans="1:4">
+      <c r="A2390" s="2">
+        <v>43770</v>
+      </c>
+      <c r="B2390">
+        <v>57.25929948411621</v>
+      </c>
+      <c r="C2390">
+        <v>-0.04807154635346898</v>
+      </c>
+      <c r="D2390">
+        <v>0.2848584441297048</v>
+      </c>
+    </row>
+    <row r="2391" spans="1:4">
+      <c r="A2391" s="2">
+        <v>43773</v>
+      </c>
+      <c r="B2391">
+        <v>57.42573988596253</v>
+      </c>
+      <c r="C2391">
+        <v>-0.04480543849930871</v>
+      </c>
+      <c r="D2391">
+        <v>0.2961321837288997</v>
+      </c>
+    </row>
+    <row r="2392" spans="1:4">
+      <c r="A2392" s="2">
+        <v>43774</v>
+      </c>
+      <c r="B2392">
+        <v>57.60168341026337</v>
+      </c>
+      <c r="C2392">
+        <v>-0.04311342356577198</v>
+      </c>
+      <c r="D2392">
+        <v>0.3108725237103321</v>
+      </c>
+    </row>
+    <row r="2393" spans="1:4">
+      <c r="A2393" s="2">
+        <v>43775</v>
+      </c>
+      <c r="B2393">
+        <v>57.77681238121097</v>
+      </c>
+      <c r="C2393">
+        <v>-0.05051806430868785</v>
+      </c>
+      <c r="D2393">
+        <v>0.2626632384815805</v>
+      </c>
+    </row>
+    <row r="2394" spans="1:4">
+      <c r="A2394" s="2">
+        <v>43776</v>
+      </c>
+      <c r="B2394">
+        <v>58.02090686939994</v>
+      </c>
+      <c r="C2394">
+        <v>-0.04404676886593149</v>
+      </c>
+      <c r="D2394">
+        <v>0.3045419261841814</v>
+      </c>
+    </row>
+    <row r="2395" spans="1:4">
+      <c r="A2395" s="2">
+        <v>43777</v>
+      </c>
+      <c r="B2395">
+        <v>58.20581048058648</v>
+      </c>
+      <c r="C2395">
+        <v>-0.04577584882601046</v>
+      </c>
+      <c r="D2395">
+        <v>0.2809684246192725</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/881001.WI.xlsx
+++ b/website/everyday-update/data/881001.WI.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2395"/>
+  <dimension ref="A1:D2400"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33901,6 +33901,76 @@
         <v>0.2809684246192725</v>
       </c>
     </row>
+    <row r="2396" spans="1:4">
+      <c r="A2396" s="2">
+        <v>43780</v>
+      </c>
+      <c r="B2396">
+        <v>54.5016501650165</v>
+      </c>
+      <c r="C2396">
+        <v>-0.0684066536025969</v>
+      </c>
+      <c r="D2396">
+        <v>0.1911738210735866</v>
+      </c>
+    </row>
+    <row r="2397" spans="1:4">
+      <c r="A2397" s="2">
+        <v>43781</v>
+      </c>
+      <c r="B2397">
+        <v>54.78217821782178</v>
+      </c>
+      <c r="C2397">
+        <v>-0.06372308713365059</v>
+      </c>
+      <c r="D2397">
+        <v>0.2224890497761667</v>
+      </c>
+    </row>
+    <row r="2398" spans="1:4">
+      <c r="A2398" s="2">
+        <v>43782</v>
+      </c>
+      <c r="B2398">
+        <v>55.14466446644664</v>
+      </c>
+      <c r="C2398">
+        <v>-0.06756069998663461</v>
+      </c>
+      <c r="D2398">
+        <v>0.2104254975891371</v>
+      </c>
+    </row>
+    <row r="2399" spans="1:4">
+      <c r="A2399" s="2">
+        <v>43783</v>
+      </c>
+      <c r="B2399">
+        <v>55.44004400440044</v>
+      </c>
+      <c r="C2399">
+        <v>-0.06118598668311557</v>
+      </c>
+      <c r="D2399">
+        <v>0.2402853874193111</v>
+      </c>
+    </row>
+    <row r="2400" spans="1:4">
+      <c r="A2400" s="2">
+        <v>43784</v>
+      </c>
+      <c r="B2400">
+        <v>55.69086908690869</v>
+      </c>
+      <c r="C2400">
+        <v>-0.07278552466850087</v>
+      </c>
+      <c r="D2400">
+        <v>0.186489780419897</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/website/everyday-update/data/881001.WI.xlsx
+++ b/website/everyday-update/data/881001.WI.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2400"/>
+  <dimension ref="A1:D2410"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33839,7 +33839,7 @@
         <v>57.42573988596253</v>
       </c>
       <c r="C2391">
-        <v>-0.04480543849930871</v>
+        <v>-0.04480543849930872</v>
       </c>
       <c r="D2391">
         <v>0.2961321837288997</v>
@@ -33895,7 +33895,7 @@
         <v>58.20581048058648</v>
       </c>
       <c r="C2395">
-        <v>-0.04577584882601046</v>
+        <v>-0.04577584882601048</v>
       </c>
       <c r="D2395">
         <v>0.2809684246192725</v>
@@ -33906,13 +33906,13 @@
         <v>43780</v>
       </c>
       <c r="B2396">
-        <v>54.5016501650165</v>
+        <v>58.36139017105621</v>
       </c>
       <c r="C2396">
-        <v>-0.0684066536025969</v>
+        <v>-0.06854703626429963</v>
       </c>
       <c r="D2396">
-        <v>0.1911738210735866</v>
+        <v>0.1903548104091833</v>
       </c>
     </row>
     <row r="2397" spans="1:4">
@@ -33920,13 +33920,13 @@
         <v>43781</v>
       </c>
       <c r="B2397">
-        <v>54.78217821782178</v>
+        <v>58.65137116481129</v>
       </c>
       <c r="C2397">
-        <v>-0.06372308713365059</v>
+        <v>-0.06442845872977603</v>
       </c>
       <c r="D2397">
-        <v>0.2224890497761667</v>
+        <v>0.2209684511024508</v>
       </c>
     </row>
     <row r="2398" spans="1:4">
@@ -33934,13 +33934,13 @@
         <v>43782</v>
       </c>
       <c r="B2398">
-        <v>55.14466446644664</v>
+        <v>59.00380124898181</v>
       </c>
       <c r="C2398">
-        <v>-0.06756069998663461</v>
+        <v>-0.06731689428495795</v>
       </c>
       <c r="D2398">
-        <v>0.2104254975891371</v>
+        <v>0.2130278834325051</v>
       </c>
     </row>
     <row r="2399" spans="1:4">
@@ -33948,13 +33948,13 @@
         <v>43783</v>
       </c>
       <c r="B2399">
-        <v>55.44004400440044</v>
+        <v>59.31170241650828</v>
       </c>
       <c r="C2399">
-        <v>-0.06118598668311557</v>
+        <v>-0.06127491294842066</v>
       </c>
       <c r="D2399">
-        <v>0.2402853874193111</v>
+        <v>0.2434723738806005</v>
       </c>
     </row>
     <row r="2400" spans="1:4">
@@ -33962,13 +33962,153 @@
         <v>43784</v>
       </c>
       <c r="B2400">
-        <v>55.69086908690869</v>
+        <v>59.5674721694271</v>
       </c>
       <c r="C2400">
-        <v>-0.07278552466850087</v>
+        <v>-0.07230994550261466</v>
       </c>
       <c r="D2400">
-        <v>0.186489780419897</v>
+        <v>0.1900908733710353</v>
+      </c>
+    </row>
+    <row r="2401" spans="1:4">
+      <c r="A2401" s="2">
+        <v>43787</v>
+      </c>
+      <c r="B2401">
+        <v>59.886777083899</v>
+      </c>
+      <c r="C2401">
+        <v>-0.06502033646248886</v>
+      </c>
+      <c r="D2401">
+        <v>0.2320159897145541</v>
+      </c>
+    </row>
+    <row r="2402" spans="1:4">
+      <c r="A2402" s="2">
+        <v>43788</v>
+      </c>
+      <c r="B2402">
+        <v>60.12001086071137</v>
+      </c>
+      <c r="C2402">
+        <v>-0.04850660873227527</v>
+      </c>
+      <c r="D2402">
+        <v>0.3174496072243845</v>
+      </c>
+    </row>
+    <row r="2403" spans="1:4">
+      <c r="A2403" s="2">
+        <v>43789</v>
+      </c>
+      <c r="B2403">
+        <v>60.35541677979908</v>
+      </c>
+      <c r="C2403">
+        <v>-0.05401921160069074</v>
+      </c>
+      <c r="D2403">
+        <v>0.2664373752069701</v>
+      </c>
+    </row>
+    <row r="2404" spans="1:4">
+      <c r="A2404" s="2">
+        <v>43790</v>
+      </c>
+      <c r="B2404">
+        <v>60.67716535433071</v>
+      </c>
+      <c r="C2404">
+        <v>-0.05402617017046085</v>
+      </c>
+      <c r="D2404">
+        <v>0.2680515808453219</v>
+      </c>
+    </row>
+    <row r="2405" spans="1:4">
+      <c r="A2405" s="2">
+        <v>43791</v>
+      </c>
+      <c r="B2405">
+        <v>60.81971219114852</v>
+      </c>
+      <c r="C2405">
+        <v>-0.06107412840923383</v>
+      </c>
+      <c r="D2405">
+        <v>0.219550421949965</v>
+      </c>
+    </row>
+    <row r="2406" spans="1:4">
+      <c r="A2406" s="2">
+        <v>43794</v>
+      </c>
+      <c r="B2406">
+        <v>60.99402660874287</v>
+      </c>
+      <c r="C2406">
+        <v>-0.06263621439125848</v>
+      </c>
+      <c r="D2406">
+        <v>0.2191589361402776</v>
+      </c>
+    </row>
+    <row r="2407" spans="1:4">
+      <c r="A2407" s="2">
+        <v>43795</v>
+      </c>
+      <c r="B2407">
+        <v>61.23676350800977</v>
+      </c>
+      <c r="C2407">
+        <v>-0.06296976912307171</v>
+      </c>
+      <c r="D2407">
+        <v>0.2194473967774729</v>
+      </c>
+    </row>
+    <row r="2408" spans="1:4">
+      <c r="A2408" s="2">
+        <v>43796</v>
+      </c>
+      <c r="B2408">
+        <v>61.52348628835189</v>
+      </c>
+      <c r="C2408">
+        <v>-0.06335393883852906</v>
+      </c>
+      <c r="D2408">
+        <v>0.2187014278414182</v>
+      </c>
+    </row>
+    <row r="2409" spans="1:4">
+      <c r="A2409" s="2">
+        <v>43797</v>
+      </c>
+      <c r="B2409">
+        <v>61.86424110779256</v>
+      </c>
+      <c r="C2409">
+        <v>-0.06517597975062797</v>
+      </c>
+      <c r="D2409">
+        <v>0.209129576066801</v>
+      </c>
+    </row>
+    <row r="2410" spans="1:4">
+      <c r="A2410" s="2">
+        <v>43798</v>
+      </c>
+      <c r="B2410">
+        <v>62.21477056747217</v>
+      </c>
+      <c r="C2410">
+        <v>-0.06315502198648738</v>
+      </c>
+      <c r="D2410">
+        <v>0.2221497202767515</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/881001.WI.xlsx
+++ b/website/everyday-update/data/881001.WI.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2410"/>
+  <dimension ref="A1:D2483"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -34049,7 +34049,7 @@
         <v>60.99402660874287</v>
       </c>
       <c r="C2406">
-        <v>-0.06263621439125848</v>
+        <v>-0.06263621439125849</v>
       </c>
       <c r="D2406">
         <v>0.2191589361402776</v>
@@ -34091,7 +34091,7 @@
         <v>61.86424110779256</v>
       </c>
       <c r="C2409">
-        <v>-0.06517597975062797</v>
+        <v>-0.065175979750628</v>
       </c>
       <c r="D2409">
         <v>0.209129576066801</v>
@@ -34105,10 +34105,1032 @@
         <v>62.21477056747217</v>
       </c>
       <c r="C2410">
-        <v>-0.06315502198648738</v>
+        <v>-0.06315502198648737</v>
       </c>
       <c r="D2410">
         <v>0.2221497202767515</v>
+      </c>
+    </row>
+    <row r="2411" spans="1:4">
+      <c r="A2411" s="2">
+        <v>43801</v>
+      </c>
+      <c r="B2411">
+        <v>62.54900896008689</v>
+      </c>
+      <c r="C2411">
+        <v>-0.06108397312240652</v>
+      </c>
+      <c r="D2411">
+        <v>0.2329986440259061</v>
+      </c>
+    </row>
+    <row r="2412" spans="1:4">
+      <c r="A2412" s="2">
+        <v>43802</v>
+      </c>
+      <c r="B2412">
+        <v>62.8484930762965</v>
+      </c>
+      <c r="C2412">
+        <v>-0.05406342331774577</v>
+      </c>
+      <c r="D2412">
+        <v>0.2740642071611993</v>
+      </c>
+    </row>
+    <row r="2413" spans="1:4">
+      <c r="A2413" s="2">
+        <v>43803</v>
+      </c>
+      <c r="B2413">
+        <v>63.14064621232691</v>
+      </c>
+      <c r="C2413">
+        <v>-0.05195767960357126</v>
+      </c>
+      <c r="D2413">
+        <v>0.2805681715189313</v>
+      </c>
+    </row>
+    <row r="2414" spans="1:4">
+      <c r="A2414" s="2">
+        <v>43804</v>
+      </c>
+      <c r="B2414">
+        <v>63.33912571273419</v>
+      </c>
+      <c r="C2414">
+        <v>-0.04226840265673569</v>
+      </c>
+      <c r="D2414">
+        <v>0.3397855085453657</v>
+      </c>
+    </row>
+    <row r="2415" spans="1:4">
+      <c r="A2415" s="2">
+        <v>43805</v>
+      </c>
+      <c r="B2415">
+        <v>63.55796904697257</v>
+      </c>
+      <c r="C2415">
+        <v>-0.03573996030190124</v>
+      </c>
+      <c r="D2415">
+        <v>0.3741007416821593</v>
+      </c>
+    </row>
+    <row r="2416" spans="1:4">
+      <c r="A2416" s="2">
+        <v>43808</v>
+      </c>
+      <c r="B2416">
+        <v>63.68368178115666</v>
+      </c>
+      <c r="C2416">
+        <v>-0.03264553987643656</v>
+      </c>
+      <c r="D2416">
+        <v>0.3853673646936543</v>
+      </c>
+    </row>
+    <row r="2417" spans="1:4">
+      <c r="A2417" s="2">
+        <v>43809</v>
+      </c>
+      <c r="B2417">
+        <v>63.82459951126799</v>
+      </c>
+      <c r="C2417">
+        <v>-0.02809294862906979</v>
+      </c>
+      <c r="D2417">
+        <v>0.4140081641031311</v>
+      </c>
+    </row>
+    <row r="2418" spans="1:4">
+      <c r="A2418" s="2">
+        <v>43810</v>
+      </c>
+      <c r="B2418">
+        <v>63.95519956557155</v>
+      </c>
+      <c r="C2418">
+        <v>-0.03086564363447794</v>
+      </c>
+      <c r="D2418">
+        <v>0.3811841756228627</v>
+      </c>
+    </row>
+    <row r="2419" spans="1:4">
+      <c r="A2419" s="2">
+        <v>43811</v>
+      </c>
+      <c r="B2419">
+        <v>64.08960086885691</v>
+      </c>
+      <c r="C2419">
+        <v>-0.03318845778785785</v>
+      </c>
+      <c r="D2419">
+        <v>0.358450416843092</v>
+      </c>
+    </row>
+    <row r="2420" spans="1:4">
+      <c r="A2420" s="2">
+        <v>43812</v>
+      </c>
+      <c r="B2420">
+        <v>64.07195221286995</v>
+      </c>
+      <c r="C2420">
+        <v>-0.02260679172182075</v>
+      </c>
+      <c r="D2420">
+        <v>0.4427552539774803</v>
+      </c>
+    </row>
+    <row r="2421" spans="1:4">
+      <c r="A2421" s="2">
+        <v>43815</v>
+      </c>
+      <c r="B2421">
+        <v>63.93266358946511</v>
+      </c>
+      <c r="C2421">
+        <v>-0.007222211656401499</v>
+      </c>
+      <c r="D2421">
+        <v>0.54236359413039</v>
+      </c>
+    </row>
+    <row r="2422" spans="1:4">
+      <c r="A2422" s="2">
+        <v>43816</v>
+      </c>
+      <c r="B2422">
+        <v>63.54439315775183</v>
+      </c>
+      <c r="C2422">
+        <v>0.003983533201310103</v>
+      </c>
+      <c r="D2422">
+        <v>0.6003588150821949</v>
+      </c>
+    </row>
+    <row r="2423" spans="1:4">
+      <c r="A2423" s="2">
+        <v>43817</v>
+      </c>
+      <c r="B2423">
+        <v>63.25848493076297</v>
+      </c>
+      <c r="C2423">
+        <v>0.00465681279654399</v>
+      </c>
+      <c r="D2423">
+        <v>0.5834317377025843</v>
+      </c>
+    </row>
+    <row r="2424" spans="1:4">
+      <c r="A2424" s="2">
+        <v>43818</v>
+      </c>
+      <c r="B2424">
+        <v>63.08145533532446</v>
+      </c>
+      <c r="C2424">
+        <v>0.009519317017687946</v>
+      </c>
+      <c r="D2424">
+        <v>0.614860667934406</v>
+      </c>
+    </row>
+    <row r="2425" spans="1:4">
+      <c r="A2425" s="2">
+        <v>43819</v>
+      </c>
+      <c r="B2425">
+        <v>62.87754547922889</v>
+      </c>
+      <c r="C2425">
+        <v>-0.0007773429122921516</v>
+      </c>
+      <c r="D2425">
+        <v>0.5214539186955534</v>
+      </c>
+    </row>
+    <row r="2426" spans="1:4">
+      <c r="A2426" s="2">
+        <v>43822</v>
+      </c>
+      <c r="B2426">
+        <v>62.71110507738257</v>
+      </c>
+      <c r="C2426">
+        <v>-0.0220116895943326</v>
+      </c>
+      <c r="D2426">
+        <v>0.3742803938479469</v>
+      </c>
+    </row>
+    <row r="2427" spans="1:4">
+      <c r="A2427" s="2">
+        <v>43823</v>
+      </c>
+      <c r="B2427">
+        <v>62.7371707846864</v>
+      </c>
+      <c r="C2427">
+        <v>-0.006627236075196154</v>
+      </c>
+      <c r="D2427">
+        <v>0.4878084770325943</v>
+      </c>
+    </row>
+    <row r="2428" spans="1:4">
+      <c r="A2428" s="2">
+        <v>43824</v>
+      </c>
+      <c r="B2428">
+        <v>62.70757534618517</v>
+      </c>
+      <c r="C2428">
+        <v>-0.004958652777873786</v>
+      </c>
+      <c r="D2428">
+        <v>0.4954755973994554</v>
+      </c>
+    </row>
+    <row r="2429" spans="1:4">
+      <c r="A2429" s="2">
+        <v>43825</v>
+      </c>
+      <c r="B2429">
+        <v>62.65028509367364</v>
+      </c>
+      <c r="C2429">
+        <v>0.002320765688782623</v>
+      </c>
+      <c r="D2429">
+        <v>0.5496236040717146</v>
+      </c>
+    </row>
+    <row r="2430" spans="1:4">
+      <c r="A2430" s="2">
+        <v>43826</v>
+      </c>
+      <c r="B2430">
+        <v>62.34808579961987</v>
+      </c>
+      <c r="C2430">
+        <v>-0.005200332471701392</v>
+      </c>
+      <c r="D2430">
+        <v>0.4704468182917835</v>
+      </c>
+    </row>
+    <row r="2431" spans="1:4">
+      <c r="A2431" s="2">
+        <v>43829</v>
+      </c>
+      <c r="B2431">
+        <v>62.11756720065164</v>
+      </c>
+      <c r="C2431">
+        <v>-0.00133076939786146</v>
+      </c>
+      <c r="D2431">
+        <v>0.5169687702214759</v>
+      </c>
+    </row>
+    <row r="2432" spans="1:4">
+      <c r="A2432" s="2">
+        <v>43830</v>
+      </c>
+      <c r="B2432">
+        <v>61.96497420581048</v>
+      </c>
+      <c r="C2432">
+        <v>0.002967493289906917</v>
+      </c>
+      <c r="D2432">
+        <v>0.5466599689317919</v>
+      </c>
+    </row>
+    <row r="2433" spans="1:4">
+      <c r="A2433" s="2">
+        <v>43832</v>
+      </c>
+      <c r="B2433">
+        <v>61.43958729296769</v>
+      </c>
+      <c r="C2433">
+        <v>0.01936321742840824</v>
+      </c>
+      <c r="D2433">
+        <v>0.6667954646242816</v>
+      </c>
+    </row>
+    <row r="2434" spans="1:4">
+      <c r="A2434" s="2">
+        <v>43833</v>
+      </c>
+      <c r="B2434">
+        <v>60.9799076839533</v>
+      </c>
+      <c r="C2434">
+        <v>0.02238789578701399</v>
+      </c>
+      <c r="D2434">
+        <v>0.671368212605241</v>
+      </c>
+    </row>
+    <row r="2435" spans="1:4">
+      <c r="A2435" s="2">
+        <v>43836</v>
+      </c>
+      <c r="B2435">
+        <v>60.22210154765137</v>
+      </c>
+      <c r="C2435">
+        <v>0.02684895961122745</v>
+      </c>
+      <c r="D2435">
+        <v>0.6871956780934821</v>
+      </c>
+    </row>
+    <row r="2436" spans="1:4">
+      <c r="A2436" s="2">
+        <v>43837</v>
+      </c>
+      <c r="B2436">
+        <v>59.67852294325278</v>
+      </c>
+      <c r="C2436">
+        <v>0.03700271893262833</v>
+      </c>
+      <c r="D2436">
+        <v>0.7570659046215923</v>
+      </c>
+    </row>
+    <row r="2437" spans="1:4">
+      <c r="A2437" s="2">
+        <v>43838</v>
+      </c>
+      <c r="B2437">
+        <v>58.98398045071952</v>
+      </c>
+      <c r="C2437">
+        <v>0.0196407149329701</v>
+      </c>
+      <c r="D2437">
+        <v>0.59528770514815</v>
+      </c>
+    </row>
+    <row r="2438" spans="1:4">
+      <c r="A2438" s="2">
+        <v>43839</v>
+      </c>
+      <c r="B2438">
+        <v>58.49714906326364</v>
+      </c>
+      <c r="C2438">
+        <v>0.03147556389297216</v>
+      </c>
+      <c r="D2438">
+        <v>0.7093628192262211</v>
+      </c>
+    </row>
+    <row r="2439" spans="1:4">
+      <c r="A2439" s="2">
+        <v>43840</v>
+      </c>
+      <c r="B2439">
+        <v>58.16589736627749</v>
+      </c>
+      <c r="C2439">
+        <v>0.02575030889487899</v>
+      </c>
+      <c r="D2439">
+        <v>0.6601662413349083</v>
+      </c>
+    </row>
+    <row r="2440" spans="1:4">
+      <c r="A2440" s="2">
+        <v>43843</v>
+      </c>
+      <c r="B2440">
+        <v>57.87971762150421</v>
+      </c>
+      <c r="C2440">
+        <v>0.0328632180938026</v>
+      </c>
+      <c r="D2440">
+        <v>0.7187639720153504</v>
+      </c>
+    </row>
+    <row r="2441" spans="1:4">
+      <c r="A2441" s="2">
+        <v>43844</v>
+      </c>
+      <c r="B2441">
+        <v>57.46375237578062</v>
+      </c>
+      <c r="C2441">
+        <v>0.0294506826094319</v>
+      </c>
+      <c r="D2441">
+        <v>0.6780520936341496</v>
+      </c>
+    </row>
+    <row r="2442" spans="1:4">
+      <c r="A2442" s="2">
+        <v>43845</v>
+      </c>
+      <c r="B2442">
+        <v>57.2335052945968</v>
+      </c>
+      <c r="C2442">
+        <v>0.02213871772490208</v>
+      </c>
+      <c r="D2442">
+        <v>0.6186600172476711</v>
+      </c>
+    </row>
+    <row r="2443" spans="1:4">
+      <c r="A2443" s="2">
+        <v>43846</v>
+      </c>
+      <c r="B2443">
+        <v>57.07602497963617</v>
+      </c>
+      <c r="C2443">
+        <v>0.01558758011518029</v>
+      </c>
+      <c r="D2443">
+        <v>0.5626492570950642</v>
+      </c>
+    </row>
+    <row r="2444" spans="1:4">
+      <c r="A2444" s="2">
+        <v>43847</v>
+      </c>
+      <c r="B2444">
+        <v>56.95601411892479</v>
+      </c>
+      <c r="C2444">
+        <v>0.01010188570982437</v>
+      </c>
+      <c r="D2444">
+        <v>0.5190685900853292</v>
+      </c>
+    </row>
+    <row r="2445" spans="1:4">
+      <c r="A2445" s="2">
+        <v>43850</v>
+      </c>
+      <c r="B2445">
+        <v>56.733641053489</v>
+      </c>
+      <c r="C2445">
+        <v>0.01676260440228558</v>
+      </c>
+      <c r="D2445">
+        <v>0.5833598820845579</v>
+      </c>
+    </row>
+    <row r="2446" spans="1:4">
+      <c r="A2446" s="2">
+        <v>43851</v>
+      </c>
+      <c r="B2446">
+        <v>56.42736899266902</v>
+      </c>
+      <c r="C2446">
+        <v>0.003152602741372772</v>
+      </c>
+      <c r="D2446">
+        <v>0.4687800863315674</v>
+      </c>
+    </row>
+    <row r="2447" spans="1:4">
+      <c r="A2447" s="2">
+        <v>43852</v>
+      </c>
+      <c r="B2447">
+        <v>56.18218843334238</v>
+      </c>
+      <c r="C2447">
+        <v>0.001485829437045179</v>
+      </c>
+      <c r="D2447">
+        <v>0.4780744452679882</v>
+      </c>
+    </row>
+    <row r="2448" spans="1:4">
+      <c r="A2448" s="2">
+        <v>43853</v>
+      </c>
+      <c r="B2448">
+        <v>55.69237035025794</v>
+      </c>
+      <c r="C2448">
+        <v>-0.03366605098824815</v>
+      </c>
+      <c r="D2448">
+        <v>0.2838146762849113</v>
+      </c>
+    </row>
+    <row r="2449" spans="1:4">
+      <c r="A2449" s="2">
+        <v>43864</v>
+      </c>
+      <c r="B2449">
+        <v>55.70567472169427</v>
+      </c>
+      <c r="C2449">
+        <v>-0.1179798943978302</v>
+      </c>
+      <c r="D2449">
+        <v>0.1056825445800072</v>
+      </c>
+    </row>
+    <row r="2450" spans="1:4">
+      <c r="A2450" s="2">
+        <v>43865</v>
+      </c>
+      <c r="B2450">
+        <v>54.72033668205268</v>
+      </c>
+      <c r="C2450">
+        <v>-0.119701638581545</v>
+      </c>
+      <c r="D2450">
+        <v>0.1768246527802612</v>
+      </c>
+    </row>
+    <row r="2451" spans="1:4">
+      <c r="A2451" s="2">
+        <v>43866</v>
+      </c>
+      <c r="B2451">
+        <v>54.01547651371165</v>
+      </c>
+      <c r="C2451">
+        <v>-0.09505654139198577</v>
+      </c>
+      <c r="D2451">
+        <v>0.2281223698703296</v>
+      </c>
+    </row>
+    <row r="2452" spans="1:4">
+      <c r="A2452" s="2">
+        <v>43867</v>
+      </c>
+      <c r="B2452">
+        <v>53.21449904968775</v>
+      </c>
+      <c r="C2452">
+        <v>-0.07110043783824811</v>
+      </c>
+      <c r="D2452">
+        <v>0.3056833815471222</v>
+      </c>
+    </row>
+    <row r="2453" spans="1:4">
+      <c r="A2453" s="2">
+        <v>43868</v>
+      </c>
+      <c r="B2453">
+        <v>52.43388541949498</v>
+      </c>
+      <c r="C2453">
+        <v>-0.06175504283944869</v>
+      </c>
+      <c r="D2453">
+        <v>0.3267444280148014</v>
+      </c>
+    </row>
+    <row r="2454" spans="1:4">
+      <c r="A2454" s="2">
+        <v>43871</v>
+      </c>
+      <c r="B2454">
+        <v>51.79934835731741</v>
+      </c>
+      <c r="C2454">
+        <v>-0.04881776290246923</v>
+      </c>
+      <c r="D2454">
+        <v>0.3596720395477696</v>
+      </c>
+    </row>
+    <row r="2455" spans="1:4">
+      <c r="A2455" s="2">
+        <v>43872</v>
+      </c>
+      <c r="B2455">
+        <v>51.38392614716264</v>
+      </c>
+      <c r="C2455">
+        <v>-0.05442738287620885</v>
+      </c>
+      <c r="D2455">
+        <v>0.3238135906767896</v>
+      </c>
+    </row>
+    <row r="2456" spans="1:4">
+      <c r="A2456" s="2">
+        <v>43873</v>
+      </c>
+      <c r="B2456">
+        <v>51.0730382840076</v>
+      </c>
+      <c r="C2456">
+        <v>-0.03900530899739169</v>
+      </c>
+      <c r="D2456">
+        <v>0.4016218430439587</v>
+      </c>
+    </row>
+    <row r="2457" spans="1:4">
+      <c r="A2457" s="2">
+        <v>43874</v>
+      </c>
+      <c r="B2457">
+        <v>50.66114580505023</v>
+      </c>
+      <c r="C2457">
+        <v>-0.04859574784719836</v>
+      </c>
+      <c r="D2457">
+        <v>0.3324288498402019</v>
+      </c>
+    </row>
+    <row r="2458" spans="1:4">
+      <c r="A2458" s="2">
+        <v>43875</v>
+      </c>
+      <c r="B2458">
+        <v>50.48384469182731</v>
+      </c>
+      <c r="C2458">
+        <v>-0.04720355341157347</v>
+      </c>
+      <c r="D2458">
+        <v>0.3371094020338007</v>
+      </c>
+    </row>
+    <row r="2459" spans="1:4">
+      <c r="A2459" s="2">
+        <v>43878</v>
+      </c>
+      <c r="B2459">
+        <v>49.99891392886234</v>
+      </c>
+      <c r="C2459">
+        <v>-0.0152691501101362</v>
+      </c>
+      <c r="D2459">
+        <v>0.4965163253397865</v>
+      </c>
+    </row>
+    <row r="2460" spans="1:4">
+      <c r="A2460" s="2">
+        <v>43879</v>
+      </c>
+      <c r="B2460">
+        <v>49.4270974748846</v>
+      </c>
+      <c r="C2460">
+        <v>-0.0003553777580049349</v>
+      </c>
+      <c r="D2460">
+        <v>0.5454973696004598</v>
+      </c>
+    </row>
+    <row r="2461" spans="1:4">
+      <c r="A2461" s="2">
+        <v>43880</v>
+      </c>
+      <c r="B2461">
+        <v>48.85935378767309</v>
+      </c>
+      <c r="C2461">
+        <v>-0.008371129029632841</v>
+      </c>
+      <c r="D2461">
+        <v>0.4689569243993524</v>
+      </c>
+    </row>
+    <row r="2462" spans="1:4">
+      <c r="A2462" s="2">
+        <v>43881</v>
+      </c>
+      <c r="B2462">
+        <v>48.26744501764865</v>
+      </c>
+      <c r="C2462">
+        <v>0.007364459955049533</v>
+      </c>
+      <c r="D2462">
+        <v>0.5607814544990219</v>
+      </c>
+    </row>
+    <row r="2463" spans="1:4">
+      <c r="A2463" s="2">
+        <v>43882</v>
+      </c>
+      <c r="B2463">
+        <v>47.56149877816997</v>
+      </c>
+      <c r="C2463">
+        <v>0.01384829917630405</v>
+      </c>
+      <c r="D2463">
+        <v>0.579117523608774</v>
+      </c>
+    </row>
+    <row r="2464" spans="1:4">
+      <c r="A2464" s="2">
+        <v>43885</v>
+      </c>
+      <c r="B2464">
+        <v>46.84795004072767</v>
+      </c>
+      <c r="C2464">
+        <v>0.02202601591197647</v>
+      </c>
+      <c r="D2464">
+        <v>0.6163210700832632</v>
+      </c>
+    </row>
+    <row r="2465" spans="1:4">
+      <c r="A2465" s="2">
+        <v>43886</v>
+      </c>
+      <c r="B2465">
+        <v>45.88704860168341</v>
+      </c>
+      <c r="C2465">
+        <v>0.01474799053280573</v>
+      </c>
+      <c r="D2465">
+        <v>0.5727143081724764</v>
+      </c>
+    </row>
+    <row r="2466" spans="1:4">
+      <c r="A2466" s="2">
+        <v>43887</v>
+      </c>
+      <c r="B2466">
+        <v>44.96307358131958</v>
+      </c>
+      <c r="C2466">
+        <v>-0.005490351176068797</v>
+      </c>
+      <c r="D2466">
+        <v>0.4498110881546307</v>
+      </c>
+    </row>
+    <row r="2467" spans="1:4">
+      <c r="A2467" s="2">
+        <v>43888</v>
+      </c>
+      <c r="B2467">
+        <v>44.39451534075482</v>
+      </c>
+      <c r="C2467">
+        <v>-0.005592528074973103</v>
+      </c>
+      <c r="D2467">
+        <v>0.4578347806874306</v>
+      </c>
+    </row>
+    <row r="2468" spans="1:4">
+      <c r="A2468" s="2">
+        <v>43889</v>
+      </c>
+      <c r="B2468">
+        <v>43.64729839804507</v>
+      </c>
+      <c r="C2468">
+        <v>-0.05815491532657831</v>
+      </c>
+      <c r="D2468">
+        <v>0.2282664643609951</v>
+      </c>
+    </row>
+    <row r="2469" spans="1:4">
+      <c r="A2469" s="2">
+        <v>43892</v>
+      </c>
+      <c r="B2469">
+        <v>43.19142003801249</v>
+      </c>
+      <c r="C2469">
+        <v>-0.02016195151313254</v>
+      </c>
+      <c r="D2469">
+        <v>0.4243714256238069</v>
+      </c>
+    </row>
+    <row r="2470" spans="1:4">
+      <c r="A2470" s="2">
+        <v>43893</v>
+      </c>
+      <c r="B2470">
+        <v>42.50448004344285</v>
+      </c>
+      <c r="C2470">
+        <v>-0.01043357434515043</v>
+      </c>
+      <c r="D2470">
+        <v>0.4518017966431111</v>
+      </c>
+    </row>
+    <row r="2471" spans="1:4">
+      <c r="A2471" s="2">
+        <v>43894</v>
+      </c>
+      <c r="B2471">
+        <v>41.99212598425197</v>
+      </c>
+      <c r="C2471">
+        <v>-0.001989273394820067</v>
+      </c>
+      <c r="D2471">
+        <v>0.5109448404645264</v>
+      </c>
+    </row>
+    <row r="2472" spans="1:4">
+      <c r="A2472" s="2">
+        <v>43895</v>
+      </c>
+      <c r="B2472">
+        <v>41.2098832473527</v>
+      </c>
+      <c r="C2472">
+        <v>0.01395049819926137</v>
+      </c>
+      <c r="D2472">
+        <v>0.5980530765714995</v>
+      </c>
+    </row>
+    <row r="2473" spans="1:4">
+      <c r="A2473" s="2">
+        <v>43896</v>
+      </c>
+      <c r="B2473">
+        <v>40.62313331523215</v>
+      </c>
+      <c r="C2473">
+        <v>0.009737573229227577</v>
+      </c>
+      <c r="D2473">
+        <v>0.5564315629871407</v>
+      </c>
+    </row>
+    <row r="2474" spans="1:4">
+      <c r="A2474" s="2">
+        <v>43899</v>
+      </c>
+      <c r="B2474">
+        <v>39.97963616616888</v>
+      </c>
+      <c r="C2474">
+        <v>-0.02414325359494941</v>
+      </c>
+      <c r="D2474">
+        <v>0.3607411060207814</v>
+      </c>
+    </row>
+    <row r="2475" spans="1:4">
+      <c r="A2475" s="2">
+        <v>43900</v>
+      </c>
+      <c r="B2475">
+        <v>39.44664675536248</v>
+      </c>
+      <c r="C2475">
+        <v>-0.00529914409292277</v>
+      </c>
+      <c r="D2475">
+        <v>0.4895805860188414</v>
+      </c>
+    </row>
+    <row r="2476" spans="1:4">
+      <c r="A2476" s="2">
+        <v>43901</v>
+      </c>
+      <c r="B2476">
+        <v>39.00407276676622</v>
+      </c>
+      <c r="C2476">
+        <v>-0.01543817267820809</v>
+      </c>
+      <c r="D2476">
+        <v>0.4083406593118554</v>
+      </c>
+    </row>
+    <row r="2477" spans="1:4">
+      <c r="A2477" s="2">
+        <v>43902</v>
+      </c>
+      <c r="B2477">
+        <v>38.79527559055118</v>
+      </c>
+      <c r="C2477">
+        <v>-0.03453463455159263</v>
+      </c>
+      <c r="D2477">
+        <v>0.3064484259706628</v>
+      </c>
+    </row>
+    <row r="2478" spans="1:4">
+      <c r="A2478" s="2">
+        <v>43903</v>
+      </c>
+      <c r="B2478">
+        <v>38.4762421938637</v>
+      </c>
+      <c r="C2478">
+        <v>-0.04481116175381943</v>
+      </c>
+      <c r="D2478">
+        <v>0.2935413619849895</v>
+      </c>
+    </row>
+    <row r="2479" spans="1:4">
+      <c r="A2479" s="2">
+        <v>43906</v>
+      </c>
+      <c r="B2479">
+        <v>38.14227531903339</v>
+      </c>
+      <c r="C2479">
+        <v>-0.08008840347837665</v>
+      </c>
+      <c r="D2479">
+        <v>0.1525091858174391</v>
+      </c>
+    </row>
+    <row r="2480" spans="1:4">
+      <c r="A2480" s="2">
+        <v>43907</v>
+      </c>
+      <c r="B2480">
+        <v>38.05566114580505</v>
+      </c>
+      <c r="C2480">
+        <v>-0.08047494097932881</v>
+      </c>
+      <c r="D2480">
+        <v>0.1781117689301657</v>
+      </c>
+    </row>
+    <row r="2481" spans="1:4">
+      <c r="A2481" s="2">
+        <v>43908</v>
+      </c>
+      <c r="B2481">
+        <v>37.97366277491176</v>
+      </c>
+      <c r="C2481">
+        <v>-0.09319903024000262</v>
+      </c>
+      <c r="D2481">
+        <v>0.1299827553800765</v>
+      </c>
+    </row>
+    <row r="2482" spans="1:4">
+      <c r="A2482" s="2">
+        <v>43909</v>
+      </c>
+      <c r="B2482">
+        <v>37.93945153407548</v>
+      </c>
+      <c r="C2482">
+        <v>-0.08404757589228173</v>
+      </c>
+      <c r="D2482">
+        <v>0.1899375296535229</v>
+      </c>
+    </row>
+    <row r="2483" spans="1:4">
+      <c r="A2483" s="2">
+        <v>43910</v>
+      </c>
+      <c r="B2483">
+        <v>38.04507195221287</v>
+      </c>
+      <c r="C2483">
+        <v>-0.06930675382876224</v>
+      </c>
+      <c r="D2483">
+        <v>0.2421682583895614</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/881001.WI.xlsx
+++ b/website/everyday-update/data/881001.WI.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2483"/>
+  <dimension ref="A1:D2514"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -35071,7 +35071,7 @@
         <v>38.14227531903339</v>
       </c>
       <c r="C2479">
-        <v>-0.08008840347837665</v>
+        <v>-0.08008840347837663</v>
       </c>
       <c r="D2479">
         <v>0.1525091858174391</v>
@@ -35085,7 +35085,7 @@
         <v>38.05566114580505</v>
       </c>
       <c r="C2480">
-        <v>-0.08047494097932881</v>
+        <v>-0.08047494097932882</v>
       </c>
       <c r="D2480">
         <v>0.1781117689301657</v>
@@ -35099,7 +35099,7 @@
         <v>37.97366277491176</v>
       </c>
       <c r="C2481">
-        <v>-0.09319903024000262</v>
+        <v>-0.09319903024000264</v>
       </c>
       <c r="D2481">
         <v>0.1299827553800765</v>
@@ -35127,10 +35127,444 @@
         <v>38.04507195221287</v>
       </c>
       <c r="C2483">
-        <v>-0.06930675382876224</v>
+        <v>-0.06930675382876222</v>
       </c>
       <c r="D2483">
         <v>0.2421682583895614</v>
+      </c>
+    </row>
+    <row r="2484" spans="1:4">
+      <c r="A2484" s="2">
+        <v>43913</v>
+      </c>
+      <c r="B2484">
+        <v>38.13820255226717</v>
+      </c>
+      <c r="C2484">
+        <v>-0.1014772779116637</v>
+      </c>
+      <c r="D2484">
+        <v>0.1280228338447653</v>
+      </c>
+    </row>
+    <row r="2485" spans="1:4">
+      <c r="A2485" s="2">
+        <v>43914</v>
+      </c>
+      <c r="B2485">
+        <v>38.27124626663046</v>
+      </c>
+      <c r="C2485">
+        <v>-0.08185979332519705</v>
+      </c>
+      <c r="D2485">
+        <v>0.2148873241225375</v>
+      </c>
+    </row>
+    <row r="2486" spans="1:4">
+      <c r="A2486" s="2">
+        <v>43915</v>
+      </c>
+      <c r="B2486">
+        <v>38.31441759435243</v>
+      </c>
+      <c r="C2486">
+        <v>-0.05853839968432735</v>
+      </c>
+      <c r="D2486">
+        <v>0.3026822437680751</v>
+      </c>
+    </row>
+    <row r="2487" spans="1:4">
+      <c r="A2487" s="2">
+        <v>43916</v>
+      </c>
+      <c r="B2487">
+        <v>38.46565300027152</v>
+      </c>
+      <c r="C2487">
+        <v>-0.06568201429114727</v>
+      </c>
+      <c r="D2487">
+        <v>0.2450224201614276</v>
+      </c>
+    </row>
+    <row r="2488" spans="1:4">
+      <c r="A2488" s="2">
+        <v>43917</v>
+      </c>
+      <c r="B2488">
+        <v>38.61743144175944</v>
+      </c>
+      <c r="C2488">
+        <v>-0.06734583080952709</v>
+      </c>
+      <c r="D2488">
+        <v>0.2270420366847029</v>
+      </c>
+    </row>
+    <row r="2489" spans="1:4">
+      <c r="A2489" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B2489">
+        <v>38.77328265001358</v>
+      </c>
+      <c r="C2489">
+        <v>-0.08431212120679615</v>
+      </c>
+      <c r="D2489">
+        <v>0.1887623844351399</v>
+      </c>
+    </row>
+    <row r="2490" spans="1:4">
+      <c r="A2490" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B2490">
+        <v>39.00488732011947</v>
+      </c>
+      <c r="C2490">
+        <v>-0.08198537892200011</v>
+      </c>
+      <c r="D2490">
+        <v>0.2016408209576031</v>
+      </c>
+    </row>
+    <row r="2491" spans="1:4">
+      <c r="A2491" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B2491">
+        <v>39.24192234591366</v>
+      </c>
+      <c r="C2491">
+        <v>-0.08582437931193039</v>
+      </c>
+      <c r="D2491">
+        <v>0.1723685531378664</v>
+      </c>
+    </row>
+    <row r="2492" spans="1:4">
+      <c r="A2492" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B2492">
+        <v>39.53244637523758</v>
+      </c>
+      <c r="C2492">
+        <v>-0.06497101624330126</v>
+      </c>
+      <c r="D2492">
+        <v>0.2757259843287121</v>
+      </c>
+    </row>
+    <row r="2493" spans="1:4">
+      <c r="A2493" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B2493">
+        <v>39.84795004072767</v>
+      </c>
+      <c r="C2493">
+        <v>-0.06779930075857324</v>
+      </c>
+      <c r="D2493">
+        <v>0.2435495075889876</v>
+      </c>
+    </row>
+    <row r="2494" spans="1:4">
+      <c r="A2494" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B2494">
+        <v>39.95004072766766</v>
+      </c>
+      <c r="C2494">
+        <v>-0.03792618267422078</v>
+      </c>
+      <c r="D2494">
+        <v>0.4078190176893063</v>
+      </c>
+    </row>
+    <row r="2495" spans="1:4">
+      <c r="A2495" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B2495">
+        <v>40.087700244366</v>
+      </c>
+      <c r="C2495">
+        <v>-0.0331988956480803</v>
+      </c>
+      <c r="D2495">
+        <v>0.4142338290287969</v>
+      </c>
+    </row>
+    <row r="2496" spans="1:4">
+      <c r="A2496" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B2496">
+        <v>40.2226445832202</v>
+      </c>
+      <c r="C2496">
+        <v>-0.02461443900259506</v>
+      </c>
+      <c r="D2496">
+        <v>0.4492277817646862</v>
+      </c>
+    </row>
+    <row r="2497" spans="1:4">
+      <c r="A2497" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B2497">
+        <v>40.34727124626663</v>
+      </c>
+      <c r="C2497">
+        <v>-0.04603228431135678</v>
+      </c>
+      <c r="D2497">
+        <v>0.3011889718941902</v>
+      </c>
+    </row>
+    <row r="2498" spans="1:4">
+      <c r="A2498" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B2498">
+        <v>40.64431170241651</v>
+      </c>
+      <c r="C2498">
+        <v>-0.05294825670023312</v>
+      </c>
+      <c r="D2498">
+        <v>0.2820132151517282</v>
+      </c>
+    </row>
+    <row r="2499" spans="1:4">
+      <c r="A2499" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B2499">
+        <v>40.91338582677165</v>
+      </c>
+      <c r="C2499">
+        <v>-0.03549756764029936</v>
+      </c>
+      <c r="D2499">
+        <v>0.3865055085012135</v>
+      </c>
+    </row>
+    <row r="2500" spans="1:4">
+      <c r="A2500" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B2500">
+        <v>41.11050773825686</v>
+      </c>
+      <c r="C2500">
+        <v>-0.04083510778258387</v>
+      </c>
+      <c r="D2500">
+        <v>0.3291543835138526</v>
+      </c>
+    </row>
+    <row r="2501" spans="1:4">
+      <c r="A2501" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B2501">
+        <v>41.354059190877</v>
+      </c>
+      <c r="C2501">
+        <v>-0.03624335600136563</v>
+      </c>
+      <c r="D2501">
+        <v>0.3607862422955558</v>
+      </c>
+    </row>
+    <row r="2502" spans="1:4">
+      <c r="A2502" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B2502">
+        <v>41.50420852565843</v>
+      </c>
+      <c r="C2502">
+        <v>-0.03658955400034241</v>
+      </c>
+      <c r="D2502">
+        <v>0.342813852230479</v>
+      </c>
+    </row>
+    <row r="2503" spans="1:4">
+      <c r="A2503" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B2503">
+        <v>41.75074667390714</v>
+      </c>
+      <c r="C2503">
+        <v>-0.02604623208830256</v>
+      </c>
+      <c r="D2503">
+        <v>0.4188522410277805</v>
+      </c>
+    </row>
+    <row r="2504" spans="1:4">
+      <c r="A2504" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B2504">
+        <v>41.92506109150149</v>
+      </c>
+      <c r="C2504">
+        <v>-0.03072611693260305</v>
+      </c>
+      <c r="D2504">
+        <v>0.3803470247750129</v>
+      </c>
+    </row>
+    <row r="2505" spans="1:4">
+      <c r="A2505" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B2505">
+        <v>42.14037469454249</v>
+      </c>
+      <c r="C2505">
+        <v>-0.02238512642294753</v>
+      </c>
+      <c r="D2505">
+        <v>0.4367688294622356</v>
+      </c>
+    </row>
+    <row r="2506" spans="1:4">
+      <c r="A2506" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B2506">
+        <v>42.23757806136302</v>
+      </c>
+      <c r="C2506">
+        <v>-0.02703602596552345</v>
+      </c>
+      <c r="D2506">
+        <v>0.3819456564016562</v>
+      </c>
+    </row>
+    <row r="2507" spans="1:4">
+      <c r="A2507" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B2507">
+        <v>42.35080097746403</v>
+      </c>
+      <c r="C2507">
+        <v>-0.04424610055650097</v>
+      </c>
+      <c r="D2507">
+        <v>0.2877260451839992</v>
+      </c>
+    </row>
+    <row r="2508" spans="1:4">
+      <c r="A2508" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B2508">
+        <v>42.53679065978822</v>
+      </c>
+      <c r="C2508">
+        <v>-0.05088938486574789</v>
+      </c>
+      <c r="D2508">
+        <v>0.2698208371037712</v>
+      </c>
+    </row>
+    <row r="2509" spans="1:4">
+      <c r="A2509" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B2509">
+        <v>42.60358403475428</v>
+      </c>
+      <c r="C2509">
+        <v>-0.06790215129339244</v>
+      </c>
+      <c r="D2509">
+        <v>0.226235236495703</v>
+      </c>
+    </row>
+    <row r="2510" spans="1:4">
+      <c r="A2510" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B2510">
+        <v>42.85691012761336</v>
+      </c>
+      <c r="C2510">
+        <v>-0.06855047453680732</v>
+      </c>
+      <c r="D2510">
+        <v>0.2285009060115309</v>
+      </c>
+    </row>
+    <row r="2511" spans="1:4">
+      <c r="A2511" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B2511">
+        <v>43.02172142275319</v>
+      </c>
+      <c r="C2511">
+        <v>-0.04863174992437685</v>
+      </c>
+      <c r="D2511">
+        <v>0.3262982701291748</v>
+      </c>
+    </row>
+    <row r="2512" spans="1:4">
+      <c r="A2512" s="2">
+        <v>43957</v>
+      </c>
+      <c r="B2512">
+        <v>43.18544664675536</v>
+      </c>
+      <c r="C2512">
+        <v>-0.03309365111889578</v>
+      </c>
+      <c r="D2512">
+        <v>0.407903215088767</v>
+      </c>
+    </row>
+    <row r="2513" spans="1:4">
+      <c r="A2513" s="2">
+        <v>43958</v>
+      </c>
+      <c r="B2513">
+        <v>43.3977735541678</v>
+      </c>
+      <c r="C2513">
+        <v>-0.03517191855011913</v>
+      </c>
+      <c r="D2513">
+        <v>0.3810571243544584</v>
+      </c>
+    </row>
+    <row r="2514" spans="1:4">
+      <c r="A2514" s="2">
+        <v>43959</v>
+      </c>
+      <c r="B2514">
+        <v>43.58457778984523</v>
+      </c>
+      <c r="C2514">
+        <v>-0.02472727093242464</v>
+      </c>
+      <c r="D2514">
+        <v>0.441309763106947</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/881001.WI.xlsx
+++ b/website/everyday-update/data/881001.WI.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2514"/>
+  <dimension ref="A1:D2557"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -35561,10 +35561,612 @@
         <v>43.58457778984523</v>
       </c>
       <c r="C2514">
-        <v>-0.02472727093242464</v>
+        <v>-0.02472727093242465</v>
       </c>
       <c r="D2514">
         <v>0.441309763106947</v>
+      </c>
+    </row>
+    <row r="2515" spans="1:4">
+      <c r="A2515" s="2">
+        <v>43962</v>
+      </c>
+      <c r="B2515">
+        <v>43.75563399402661</v>
+      </c>
+      <c r="C2515">
+        <v>-0.02651217604464346</v>
+      </c>
+      <c r="D2515">
+        <v>0.4284115739562959</v>
+      </c>
+    </row>
+    <row r="2516" spans="1:4">
+      <c r="A2516" s="2">
+        <v>43963</v>
+      </c>
+      <c r="B2516">
+        <v>44.02443660059734</v>
+      </c>
+      <c r="C2516">
+        <v>-0.02765256526673135</v>
+      </c>
+      <c r="D2516">
+        <v>0.4218541625951048</v>
+      </c>
+    </row>
+    <row r="2517" spans="1:4">
+      <c r="A2517" s="2">
+        <v>43964</v>
+      </c>
+      <c r="B2517">
+        <v>44.30627206081999</v>
+      </c>
+      <c r="C2517">
+        <v>-0.02307591004930757</v>
+      </c>
+      <c r="D2517">
+        <v>0.4432099053344306</v>
+      </c>
+    </row>
+    <row r="2518" spans="1:4">
+      <c r="A2518" s="2">
+        <v>43965</v>
+      </c>
+      <c r="B2518">
+        <v>44.53489003529731</v>
+      </c>
+      <c r="C2518">
+        <v>-0.03134221678646467</v>
+      </c>
+      <c r="D2518">
+        <v>0.3748774759637706</v>
+      </c>
+    </row>
+    <row r="2519" spans="1:4">
+      <c r="A2519" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B2519">
+        <v>44.75617702959544</v>
+      </c>
+      <c r="C2519">
+        <v>-0.02922410739986293</v>
+      </c>
+      <c r="D2519">
+        <v>0.3846591850234884</v>
+      </c>
+    </row>
+    <row r="2520" spans="1:4">
+      <c r="A2520" s="2">
+        <v>43969</v>
+      </c>
+      <c r="B2520">
+        <v>44.89356502850936</v>
+      </c>
+      <c r="C2520">
+        <v>-0.0370286701512588</v>
+      </c>
+      <c r="D2520">
+        <v>0.3483568939269393</v>
+      </c>
+    </row>
+    <row r="2521" spans="1:4">
+      <c r="A2521" s="2">
+        <v>43970</v>
+      </c>
+      <c r="B2521">
+        <v>45.10507738256856</v>
+      </c>
+      <c r="C2521">
+        <v>-0.02739675142064977</v>
+      </c>
+      <c r="D2521">
+        <v>0.410643359575836</v>
+      </c>
+    </row>
+    <row r="2522" spans="1:4">
+      <c r="A2522" s="2">
+        <v>43971</v>
+      </c>
+      <c r="B2522">
+        <v>45.22318761878903</v>
+      </c>
+      <c r="C2522">
+        <v>-0.03560903361003574</v>
+      </c>
+      <c r="D2522">
+        <v>0.3515530715647965</v>
+      </c>
+    </row>
+    <row r="2523" spans="1:4">
+      <c r="A2523" s="2">
+        <v>43972</v>
+      </c>
+      <c r="B2523">
+        <v>45.38175400488732</v>
+      </c>
+      <c r="C2523">
+        <v>-0.04434242424530382</v>
+      </c>
+      <c r="D2523">
+        <v>0.2994894790987027</v>
+      </c>
+    </row>
+    <row r="2524" spans="1:4">
+      <c r="A2524" s="2">
+        <v>43973</v>
+      </c>
+      <c r="B2524">
+        <v>45.53027423296226</v>
+      </c>
+      <c r="C2524">
+        <v>-0.05869880863523119</v>
+      </c>
+      <c r="D2524">
+        <v>0.2375769129628812</v>
+      </c>
+    </row>
+    <row r="2525" spans="1:4">
+      <c r="A2525" s="2">
+        <v>43976</v>
+      </c>
+      <c r="B2525">
+        <v>45.83600325821341</v>
+      </c>
+      <c r="C2525">
+        <v>-0.06379151523299584</v>
+      </c>
+      <c r="D2525">
+        <v>0.2427668934189547</v>
+      </c>
+    </row>
+    <row r="2526" spans="1:4">
+      <c r="A2526" s="2">
+        <v>43977</v>
+      </c>
+      <c r="B2526">
+        <v>46.08417051316862</v>
+      </c>
+      <c r="C2526">
+        <v>-0.04467680365193299</v>
+      </c>
+      <c r="D2526">
+        <v>0.3425829836840877</v>
+      </c>
+    </row>
+    <row r="2527" spans="1:4">
+      <c r="A2527" s="2">
+        <v>43978</v>
+      </c>
+      <c r="B2527">
+        <v>46.25142546836818</v>
+      </c>
+      <c r="C2527">
+        <v>-0.04639971083082141</v>
+      </c>
+      <c r="D2527">
+        <v>0.3194464160389757</v>
+      </c>
+    </row>
+    <row r="2528" spans="1:4">
+      <c r="A2528" s="2">
+        <v>43979</v>
+      </c>
+      <c r="B2528">
+        <v>46.41379310344828</v>
+      </c>
+      <c r="C2528">
+        <v>-0.04883863966710341</v>
+      </c>
+      <c r="D2528">
+        <v>0.3064367784896749</v>
+      </c>
+    </row>
+    <row r="2529" spans="1:4">
+      <c r="A2529" s="2">
+        <v>43980</v>
+      </c>
+      <c r="B2529">
+        <v>46.56557154493619</v>
+      </c>
+      <c r="C2529">
+        <v>-0.04124176154255959</v>
+      </c>
+      <c r="D2529">
+        <v>0.3440023844831978</v>
+      </c>
+    </row>
+    <row r="2530" spans="1:4">
+      <c r="A2530" s="2">
+        <v>43983</v>
+      </c>
+      <c r="B2530">
+        <v>46.53489003529731</v>
+      </c>
+      <c r="C2530">
+        <v>-0.0209319368018579</v>
+      </c>
+      <c r="D2530">
+        <v>0.4875945230805668</v>
+      </c>
+    </row>
+    <row r="2531" spans="1:4">
+      <c r="A2531" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B2531">
+        <v>46.49769209883247</v>
+      </c>
+      <c r="C2531">
+        <v>-0.01684770267717826</v>
+      </c>
+      <c r="D2531">
+        <v>0.4992554341846187</v>
+      </c>
+    </row>
+    <row r="2532" spans="1:4">
+      <c r="A2532" s="2">
+        <v>43985</v>
+      </c>
+      <c r="B2532">
+        <v>46.4634808579962</v>
+      </c>
+      <c r="C2532">
+        <v>-0.01709386807510831</v>
+      </c>
+      <c r="D2532">
+        <v>0.4764798377491489</v>
+      </c>
+    </row>
+    <row r="2533" spans="1:4">
+      <c r="A2533" s="2">
+        <v>43986</v>
+      </c>
+      <c r="B2533">
+        <v>46.50665218571817</v>
+      </c>
+      <c r="C2533">
+        <v>-0.01445919804855119</v>
+      </c>
+      <c r="D2533">
+        <v>0.484681752618199</v>
+      </c>
+    </row>
+    <row r="2534" spans="1:4">
+      <c r="A2534" s="2">
+        <v>43987</v>
+      </c>
+      <c r="B2534">
+        <v>46.59109421667119</v>
+      </c>
+      <c r="C2534">
+        <v>-0.0156058557180707</v>
+      </c>
+      <c r="D2534">
+        <v>0.4720731570105452</v>
+      </c>
+    </row>
+    <row r="2535" spans="1:4">
+      <c r="A2535" s="2">
+        <v>43990</v>
+      </c>
+      <c r="B2535">
+        <v>46.67635080097747</v>
+      </c>
+      <c r="C2535">
+        <v>-0.0216887981998174</v>
+      </c>
+      <c r="D2535">
+        <v>0.4364575121753221</v>
+      </c>
+    </row>
+    <row r="2536" spans="1:4">
+      <c r="A2536" s="2">
+        <v>43991</v>
+      </c>
+      <c r="B2536">
+        <v>46.83627477599783</v>
+      </c>
+      <c r="C2536">
+        <v>-0.01678042000414497</v>
+      </c>
+      <c r="D2536">
+        <v>0.4709005179147491</v>
+      </c>
+    </row>
+    <row r="2537" spans="1:4">
+      <c r="A2537" s="2">
+        <v>43992</v>
+      </c>
+      <c r="B2537">
+        <v>47.03312516969861</v>
+      </c>
+      <c r="C2537">
+        <v>-0.01913630358627893</v>
+      </c>
+      <c r="D2537">
+        <v>0.4360773716602824</v>
+      </c>
+    </row>
+    <row r="2538" spans="1:4">
+      <c r="A2538" s="2">
+        <v>43993</v>
+      </c>
+      <c r="B2538">
+        <v>47.10073309801792</v>
+      </c>
+      <c r="C2538">
+        <v>-0.02301841499798012</v>
+      </c>
+      <c r="D2538">
+        <v>0.3989065781978662</v>
+      </c>
+    </row>
+    <row r="2539" spans="1:4">
+      <c r="A2539" s="2">
+        <v>43994</v>
+      </c>
+      <c r="B2539">
+        <v>47.20146619603584</v>
+      </c>
+      <c r="C2539">
+        <v>-0.02251233927078311</v>
+      </c>
+      <c r="D2539">
+        <v>0.4047082930119125</v>
+      </c>
+    </row>
+    <row r="2540" spans="1:4">
+      <c r="A2540" s="2">
+        <v>43997</v>
+      </c>
+      <c r="B2540">
+        <v>47.17349986424111</v>
+      </c>
+      <c r="C2540">
+        <v>-0.02843908307884955</v>
+      </c>
+      <c r="D2540">
+        <v>0.3698901136291334</v>
+      </c>
+    </row>
+    <row r="2541" spans="1:4">
+      <c r="A2541" s="2">
+        <v>43998</v>
+      </c>
+      <c r="B2541">
+        <v>47.27233233776813</v>
+      </c>
+      <c r="C2541">
+        <v>-0.01349726279158801</v>
+      </c>
+      <c r="D2541">
+        <v>0.4820587840162593</v>
+      </c>
+    </row>
+    <row r="2542" spans="1:4">
+      <c r="A2542" s="2">
+        <v>43999</v>
+      </c>
+      <c r="B2542">
+        <v>47.27423296225903</v>
+      </c>
+      <c r="C2542">
+        <v>-0.01023294749366382</v>
+      </c>
+      <c r="D2542">
+        <v>0.4928079890922323</v>
+      </c>
+    </row>
+    <row r="2543" spans="1:4">
+      <c r="A2543" s="2">
+        <v>44000</v>
+      </c>
+      <c r="B2543">
+        <v>47.28509367363562</v>
+      </c>
+      <c r="C2543">
+        <v>-0.01233208468683616</v>
+      </c>
+      <c r="D2543">
+        <v>0.478049243317913</v>
+      </c>
+    </row>
+    <row r="2544" spans="1:4">
+      <c r="A2544" s="2">
+        <v>44001</v>
+      </c>
+      <c r="B2544">
+        <v>47.34048330165626</v>
+      </c>
+      <c r="C2544">
+        <v>-0.008810908364587427</v>
+      </c>
+      <c r="D2544">
+        <v>0.4995829818839208</v>
+      </c>
+    </row>
+    <row r="2545" spans="1:4">
+      <c r="A2545" s="2">
+        <v>44004</v>
+      </c>
+      <c r="B2545">
+        <v>47.36329079554711</v>
+      </c>
+      <c r="C2545">
+        <v>-0.01073634637769515</v>
+      </c>
+      <c r="D2545">
+        <v>0.4892866028417966</v>
+      </c>
+    </row>
+    <row r="2546" spans="1:4">
+      <c r="A2546" s="2">
+        <v>44005</v>
+      </c>
+      <c r="B2546">
+        <v>47.44909041542221</v>
+      </c>
+      <c r="C2546">
+        <v>-0.01244536173990246</v>
+      </c>
+      <c r="D2546">
+        <v>0.4541371650840641</v>
+      </c>
+    </row>
+    <row r="2547" spans="1:4">
+      <c r="A2547" s="2">
+        <v>44006</v>
+      </c>
+      <c r="B2547">
+        <v>47.58322020092316</v>
+      </c>
+      <c r="C2547">
+        <v>-0.01571287304983238</v>
+      </c>
+      <c r="D2547">
+        <v>0.4254676431001307</v>
+      </c>
+    </row>
+    <row r="2548" spans="1:4">
+      <c r="A2548" s="2">
+        <v>44011</v>
+      </c>
+      <c r="B2548">
+        <v>47.71870757534619</v>
+      </c>
+      <c r="C2548">
+        <v>-0.02420419247767158</v>
+      </c>
+      <c r="D2548">
+        <v>0.373584891938144</v>
+      </c>
+    </row>
+    <row r="2549" spans="1:4">
+      <c r="A2549" s="2">
+        <v>44012</v>
+      </c>
+      <c r="B2549">
+        <v>47.79799076839533</v>
+      </c>
+      <c r="C2549">
+        <v>-0.01088782754259354</v>
+      </c>
+      <c r="D2549">
+        <v>0.4653152916743367</v>
+      </c>
+    </row>
+    <row r="2550" spans="1:4">
+      <c r="A2550" s="2">
+        <v>44013</v>
+      </c>
+      <c r="B2550">
+        <v>47.72875373336954</v>
+      </c>
+      <c r="C2550">
+        <v>-0.007359124216779341</v>
+      </c>
+      <c r="D2550">
+        <v>0.4874280896350299</v>
+      </c>
+    </row>
+    <row r="2551" spans="1:4">
+      <c r="A2551" s="2">
+        <v>44014</v>
+      </c>
+      <c r="B2551">
+        <v>47.46130871572088</v>
+      </c>
+      <c r="C2551">
+        <v>0.004682534946321486</v>
+      </c>
+      <c r="D2551">
+        <v>0.5820204722687667</v>
+      </c>
+    </row>
+    <row r="2552" spans="1:4">
+      <c r="A2552" s="2">
+        <v>44015</v>
+      </c>
+      <c r="B2552">
+        <v>47.05891935921803</v>
+      </c>
+      <c r="C2552">
+        <v>0.01462678759245435</v>
+      </c>
+      <c r="D2552">
+        <v>0.6433341801584715</v>
+      </c>
+    </row>
+    <row r="2553" spans="1:4">
+      <c r="A2553" s="2">
+        <v>44018</v>
+      </c>
+      <c r="B2553">
+        <v>46.07629649742058</v>
+      </c>
+      <c r="C2553">
+        <v>0.04660458032236625</v>
+      </c>
+      <c r="D2553">
+        <v>0.8049525348883572</v>
+      </c>
+    </row>
+    <row r="2554" spans="1:4">
+      <c r="A2554" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B2554">
+        <v>44.95411349443388</v>
+      </c>
+      <c r="C2554">
+        <v>0.04890071820629642</v>
+      </c>
+      <c r="D2554">
+        <v>0.7865575457760225</v>
+      </c>
+    </row>
+    <row r="2555" spans="1:4">
+      <c r="A2555" s="2">
+        <v>44020</v>
+      </c>
+      <c r="B2555">
+        <v>44.07276676622319</v>
+      </c>
+      <c r="C2555">
+        <v>0.06382297503975327</v>
+      </c>
+      <c r="D2555">
+        <v>0.8519638432674593</v>
+      </c>
+    </row>
+    <row r="2556" spans="1:4">
+      <c r="A2556" s="2">
+        <v>44021</v>
+      </c>
+      <c r="B2556">
+        <v>42.92967689383654</v>
+      </c>
+      <c r="C2556">
+        <v>0.08099029598964833</v>
+      </c>
+      <c r="D2556">
+        <v>0.8946972719398811</v>
+      </c>
+    </row>
+    <row r="2557" spans="1:4">
+      <c r="A2557" s="2">
+        <v>44022</v>
+      </c>
+      <c r="B2557">
+        <v>41.92397502036383</v>
+      </c>
+      <c r="C2557">
+        <v>0.06360619616205485</v>
+      </c>
+      <c r="D2557">
+        <v>0.7832120981710109</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/881001.WI.xlsx
+++ b/website/everyday-update/data/881001.WI.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2557"/>
+  <dimension ref="A1:D2602"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -36107,7 +36107,7 @@
         <v>46.07629649742058</v>
       </c>
       <c r="C2553">
-        <v>0.04660458032236625</v>
+        <v>0.04660458032236626</v>
       </c>
       <c r="D2553">
         <v>0.8049525348883572</v>
@@ -36121,7 +36121,7 @@
         <v>44.95411349443388</v>
       </c>
       <c r="C2554">
-        <v>0.04890071820629642</v>
+        <v>0.04890071820629643</v>
       </c>
       <c r="D2554">
         <v>0.7865575457760225</v>
@@ -36135,7 +36135,7 @@
         <v>44.07276676622319</v>
       </c>
       <c r="C2555">
-        <v>0.06382297503975327</v>
+        <v>0.06382297503975329</v>
       </c>
       <c r="D2555">
         <v>0.8519638432674593</v>
@@ -36149,7 +36149,7 @@
         <v>42.92967689383654</v>
       </c>
       <c r="C2556">
-        <v>0.08099029598964833</v>
+        <v>0.08099029598964834</v>
       </c>
       <c r="D2556">
         <v>0.8946972719398811</v>
@@ -36163,10 +36163,640 @@
         <v>41.92397502036383</v>
       </c>
       <c r="C2557">
-        <v>0.06360619616205485</v>
+        <v>0.06360619616205483</v>
       </c>
       <c r="D2557">
         <v>0.7832120981710109</v>
+      </c>
+    </row>
+    <row r="2558" spans="1:4">
+      <c r="A2558" s="2">
+        <v>44025</v>
+      </c>
+      <c r="B2558">
+        <v>40.9142003801249</v>
+      </c>
+      <c r="C2558">
+        <v>0.08561541427933239</v>
+      </c>
+      <c r="D2558">
+        <v>0.8975277317796596</v>
+      </c>
+    </row>
+    <row r="2559" spans="1:4">
+      <c r="A2559" s="2">
+        <v>44026</v>
+      </c>
+      <c r="B2559">
+        <v>39.82758620689656</v>
+      </c>
+      <c r="C2559">
+        <v>0.06960999876826073</v>
+      </c>
+      <c r="D2559">
+        <v>0.803321547208699</v>
+      </c>
+    </row>
+    <row r="2560" spans="1:4">
+      <c r="A2560" s="2">
+        <v>44027</v>
+      </c>
+      <c r="B2560">
+        <v>38.95411349443388</v>
+      </c>
+      <c r="C2560">
+        <v>0.03549971629973922</v>
+      </c>
+      <c r="D2560">
+        <v>0.6261358073614478</v>
+      </c>
+    </row>
+    <row r="2561" spans="1:4">
+      <c r="A2561" s="2">
+        <v>44028</v>
+      </c>
+      <c r="B2561">
+        <v>38.19902253597611</v>
+      </c>
+      <c r="C2561">
+        <v>-0.01478392422187146</v>
+      </c>
+      <c r="D2561">
+        <v>0.4141185562958185</v>
+      </c>
+    </row>
+    <row r="2562" spans="1:4">
+      <c r="A2562" s="2">
+        <v>44029</v>
+      </c>
+      <c r="B2562">
+        <v>37.95710019006245</v>
+      </c>
+      <c r="C2562">
+        <v>-0.01517733823505485</v>
+      </c>
+      <c r="D2562">
+        <v>0.4185488345839663</v>
+      </c>
+    </row>
+    <row r="2563" spans="1:4">
+      <c r="A2563" s="2">
+        <v>44032</v>
+      </c>
+      <c r="B2563">
+        <v>37.55308172685311</v>
+      </c>
+      <c r="C2563">
+        <v>0.01522704074129861</v>
+      </c>
+      <c r="D2563">
+        <v>0.594002850558884</v>
+      </c>
+    </row>
+    <row r="2564" spans="1:4">
+      <c r="A2564" s="2">
+        <v>44033</v>
+      </c>
+      <c r="B2564">
+        <v>37.26391528645127</v>
+      </c>
+      <c r="C2564">
+        <v>0.01646481609396092</v>
+      </c>
+      <c r="D2564">
+        <v>0.5859973147117183</v>
+      </c>
+    </row>
+    <row r="2565" spans="1:4">
+      <c r="A2565" s="2">
+        <v>44034</v>
+      </c>
+      <c r="B2565">
+        <v>36.81781156665762</v>
+      </c>
+      <c r="C2565">
+        <v>0.01801903504728086</v>
+      </c>
+      <c r="D2565">
+        <v>0.5816057238843739</v>
+      </c>
+    </row>
+    <row r="2566" spans="1:4">
+      <c r="A2566" s="2">
+        <v>44035</v>
+      </c>
+      <c r="B2566">
+        <v>36.4452891664404</v>
+      </c>
+      <c r="C2566">
+        <v>0.01255423979078689</v>
+      </c>
+      <c r="D2566">
+        <v>0.5559228504604923</v>
+      </c>
+    </row>
+    <row r="2567" spans="1:4">
+      <c r="A2567" s="2">
+        <v>44036</v>
+      </c>
+      <c r="B2567">
+        <v>35.95519956557155</v>
+      </c>
+      <c r="C2567">
+        <v>-0.02987563582733916</v>
+      </c>
+      <c r="D2567">
+        <v>0.3293393781360596</v>
+      </c>
+    </row>
+    <row r="2568" spans="1:4">
+      <c r="A2568" s="2">
+        <v>44039</v>
+      </c>
+      <c r="B2568">
+        <v>35.96062992125984</v>
+      </c>
+      <c r="C2568">
+        <v>-0.03038971867570073</v>
+      </c>
+      <c r="D2568">
+        <v>0.3462624771436723</v>
+      </c>
+    </row>
+    <row r="2569" spans="1:4">
+      <c r="A2569" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B2569">
+        <v>35.99864241107792</v>
+      </c>
+      <c r="C2569">
+        <v>-0.02094460612805715</v>
+      </c>
+      <c r="D2569">
+        <v>0.3954158145139625</v>
+      </c>
+    </row>
+    <row r="2570" spans="1:4">
+      <c r="A2570" s="2">
+        <v>44041</v>
+      </c>
+      <c r="B2570">
+        <v>35.97339125712734</v>
+      </c>
+      <c r="C2570">
+        <v>0.0002940370897014374</v>
+      </c>
+      <c r="D2570">
+        <v>0.5259585652403482</v>
+      </c>
+    </row>
+    <row r="2571" spans="1:4">
+      <c r="A2571" s="2">
+        <v>44042</v>
+      </c>
+      <c r="B2571">
+        <v>35.85419494976921</v>
+      </c>
+      <c r="C2571">
+        <v>-0.00216996374825983</v>
+      </c>
+      <c r="D2571">
+        <v>0.4841306434147172</v>
+      </c>
+    </row>
+    <row r="2572" spans="1:4">
+      <c r="A2572" s="2">
+        <v>44043</v>
+      </c>
+      <c r="B2572">
+        <v>35.71300570187347</v>
+      </c>
+      <c r="C2572">
+        <v>0.007246425347837464</v>
+      </c>
+      <c r="D2572">
+        <v>0.5490812916367822</v>
+      </c>
+    </row>
+    <row r="2573" spans="1:4">
+      <c r="A2573" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B2573">
+        <v>35.38636980722237</v>
+      </c>
+      <c r="C2573">
+        <v>0.03158856397759665</v>
+      </c>
+      <c r="D2573">
+        <v>0.6957814059171801</v>
+      </c>
+    </row>
+    <row r="2574" spans="1:4">
+      <c r="A2574" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B2574">
+        <v>35.06489275047515</v>
+      </c>
+      <c r="C2574">
+        <v>0.02202117909672121</v>
+      </c>
+      <c r="D2574">
+        <v>0.6063862904344669</v>
+      </c>
+    </row>
+    <row r="2575" spans="1:4">
+      <c r="A2575" s="2">
+        <v>44048</v>
+      </c>
+      <c r="B2575">
+        <v>34.92288894922618</v>
+      </c>
+      <c r="C2575">
+        <v>0.02858364621768902</v>
+      </c>
+      <c r="D2575">
+        <v>0.6545491143531568</v>
+      </c>
+    </row>
+    <row r="2576" spans="1:4">
+      <c r="A2576" s="2">
+        <v>44049</v>
+      </c>
+      <c r="B2576">
+        <v>34.76215042085256</v>
+      </c>
+      <c r="C2576">
+        <v>0.02360203092179228</v>
+      </c>
+      <c r="D2576">
+        <v>0.6088522902678681</v>
+      </c>
+    </row>
+    <row r="2577" spans="1:4">
+      <c r="A2577" s="2">
+        <v>44050</v>
+      </c>
+      <c r="B2577">
+        <v>34.63752375780614</v>
+      </c>
+      <c r="C2577">
+        <v>0.008312176200015788</v>
+      </c>
+      <c r="D2577">
+        <v>0.4969137242909833</v>
+      </c>
+    </row>
+    <row r="2578" spans="1:4">
+      <c r="A2578" s="2">
+        <v>44053</v>
+      </c>
+      <c r="B2578">
+        <v>34.56991582948683</v>
+      </c>
+      <c r="C2578">
+        <v>0.0125182149070098</v>
+      </c>
+      <c r="D2578">
+        <v>0.5506146997445922</v>
+      </c>
+    </row>
+    <row r="2579" spans="1:4">
+      <c r="A2579" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B2579">
+        <v>34.40048873201194</v>
+      </c>
+      <c r="C2579">
+        <v>-0.009118536198504388</v>
+      </c>
+      <c r="D2579">
+        <v>0.4003339782408307</v>
+      </c>
+    </row>
+    <row r="2580" spans="1:4">
+      <c r="A2580" s="2">
+        <v>44055</v>
+      </c>
+      <c r="B2580">
+        <v>34.34564213956014</v>
+      </c>
+      <c r="C2580">
+        <v>-0.01664077293508725</v>
+      </c>
+      <c r="D2580">
+        <v>0.3967884385881997</v>
+      </c>
+    </row>
+    <row r="2581" spans="1:4">
+      <c r="A2581" s="2">
+        <v>44056</v>
+      </c>
+      <c r="B2581">
+        <v>34.42954113494434</v>
+      </c>
+      <c r="C2581">
+        <v>-0.0119970551892662</v>
+      </c>
+      <c r="D2581">
+        <v>0.4271317629006578</v>
+      </c>
+    </row>
+    <row r="2582" spans="1:4">
+      <c r="A2582" s="2">
+        <v>44057</v>
+      </c>
+      <c r="B2582">
+        <v>34.56557154493619</v>
+      </c>
+      <c r="C2582">
+        <v>-0.006016478548496238</v>
+      </c>
+      <c r="D2582">
+        <v>0.4793034626713377</v>
+      </c>
+    </row>
+    <row r="2583" spans="1:4">
+      <c r="A2583" s="2">
+        <v>44060</v>
+      </c>
+      <c r="B2583">
+        <v>34.52077111050774</v>
+      </c>
+      <c r="C2583">
+        <v>0.01068772277423253</v>
+      </c>
+      <c r="D2583">
+        <v>0.5952330540776063</v>
+      </c>
+    </row>
+    <row r="2584" spans="1:4">
+      <c r="A2584" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B2584">
+        <v>34.52402932392071</v>
+      </c>
+      <c r="C2584">
+        <v>0.01636555071391256</v>
+      </c>
+      <c r="D2584">
+        <v>0.6136958940217333</v>
+      </c>
+    </row>
+    <row r="2585" spans="1:4">
+      <c r="A2585" s="2">
+        <v>44062</v>
+      </c>
+      <c r="B2585">
+        <v>34.467282106978</v>
+      </c>
+      <c r="C2585">
+        <v>0.0003293220696537233</v>
+      </c>
+      <c r="D2585">
+        <v>0.4817493706227571</v>
+      </c>
+    </row>
+    <row r="2586" spans="1:4">
+      <c r="A2586" s="2">
+        <v>44063</v>
+      </c>
+      <c r="B2586">
+        <v>34.59000814553353</v>
+      </c>
+      <c r="C2586">
+        <v>-0.01187368978771305</v>
+      </c>
+      <c r="D2586">
+        <v>0.4108663029334958</v>
+      </c>
+    </row>
+    <row r="2587" spans="1:4">
+      <c r="A2587" s="2">
+        <v>44064</v>
+      </c>
+      <c r="B2587">
+        <v>34.78685853923432</v>
+      </c>
+      <c r="C2587">
+        <v>-0.006551945469748058</v>
+      </c>
+      <c r="D2587">
+        <v>0.4488683304369237</v>
+      </c>
+    </row>
+    <row r="2588" spans="1:4">
+      <c r="A2588" s="2">
+        <v>44067</v>
+      </c>
+      <c r="B2588">
+        <v>34.96877545479229</v>
+      </c>
+      <c r="C2588">
+        <v>-0.001341791411205592</v>
+      </c>
+      <c r="D2588">
+        <v>0.4935219972867083</v>
+      </c>
+    </row>
+    <row r="2589" spans="1:4">
+      <c r="A2589" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B2589">
+        <v>35.05701873472712</v>
+      </c>
+      <c r="C2589">
+        <v>-0.003888746822056797</v>
+      </c>
+      <c r="D2589">
+        <v>0.4663273470953874</v>
+      </c>
+    </row>
+    <row r="2590" spans="1:4">
+      <c r="A2590" s="2">
+        <v>44069</v>
+      </c>
+      <c r="B2590">
+        <v>35.10453434699973</v>
+      </c>
+      <c r="C2590">
+        <v>-0.02450292294468038</v>
+      </c>
+      <c r="D2590">
+        <v>0.3433992921076172</v>
+      </c>
+    </row>
+    <row r="2591" spans="1:4">
+      <c r="A2591" s="2">
+        <v>44070</v>
+      </c>
+      <c r="B2591">
+        <v>35.24056475699158</v>
+      </c>
+      <c r="C2591">
+        <v>-0.01359908304319064</v>
+      </c>
+      <c r="D2591">
+        <v>0.4224222834944226</v>
+      </c>
+    </row>
+    <row r="2592" spans="1:4">
+      <c r="A2592" s="2">
+        <v>44071</v>
+      </c>
+      <c r="B2592">
+        <v>35.34564213956014</v>
+      </c>
+      <c r="C2592">
+        <v>-0.005945844345114064</v>
+      </c>
+      <c r="D2592">
+        <v>0.4771878545199624</v>
+      </c>
+    </row>
+    <row r="2593" spans="1:4">
+      <c r="A2593" s="2">
+        <v>44074</v>
+      </c>
+      <c r="B2593">
+        <v>35.39750203638339</v>
+      </c>
+      <c r="C2593">
+        <v>-0.006728657654224032</v>
+      </c>
+      <c r="D2593">
+        <v>0.45059951856717</v>
+      </c>
+    </row>
+    <row r="2594" spans="1:4">
+      <c r="A2594" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B2594">
+        <v>35.60114037469454</v>
+      </c>
+      <c r="C2594">
+        <v>-0.002135661386715657</v>
+      </c>
+      <c r="D2594">
+        <v>0.489321242728458</v>
+      </c>
+    </row>
+    <row r="2595" spans="1:4">
+      <c r="A2595" s="2">
+        <v>44076</v>
+      </c>
+      <c r="B2595">
+        <v>35.63589465109965</v>
+      </c>
+      <c r="C2595">
+        <v>0.001591596938486258</v>
+      </c>
+      <c r="D2595">
+        <v>0.5056317690984597</v>
+      </c>
+    </row>
+    <row r="2596" spans="1:4">
+      <c r="A2596" s="2">
+        <v>44077</v>
+      </c>
+      <c r="B2596">
+        <v>35.70594623947868</v>
+      </c>
+      <c r="C2596">
+        <v>-0.009565928043458823</v>
+      </c>
+      <c r="D2596">
+        <v>0.4218600497483791</v>
+      </c>
+    </row>
+    <row r="2597" spans="1:4">
+      <c r="A2597" s="2">
+        <v>44078</v>
+      </c>
+      <c r="B2597">
+        <v>35.55579690469726</v>
+      </c>
+      <c r="C2597">
+        <v>-0.009663334594780722</v>
+      </c>
+      <c r="D2597">
+        <v>0.4423471788131836</v>
+      </c>
+    </row>
+    <row r="2598" spans="1:4">
+      <c r="A2598" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B2598">
+        <v>35.53244637523758</v>
+      </c>
+      <c r="C2598">
+        <v>-0.02205747230035106</v>
+      </c>
+      <c r="D2598">
+        <v>0.3687503054829177</v>
+      </c>
+    </row>
+    <row r="2599" spans="1:4">
+      <c r="A2599" s="2">
+        <v>44082</v>
+      </c>
+      <c r="B2599">
+        <v>35.62693456421395</v>
+      </c>
+      <c r="C2599">
+        <v>-0.01376039125378114</v>
+      </c>
+      <c r="D2599">
+        <v>0.4361396823065322</v>
+      </c>
+    </row>
+    <row r="2600" spans="1:4">
+      <c r="A2600" s="2">
+        <v>44083</v>
+      </c>
+      <c r="B2600">
+        <v>35.52402932392071</v>
+      </c>
+      <c r="C2600">
+        <v>-0.04141438661203801</v>
+      </c>
+      <c r="D2600">
+        <v>0.3079402642678828</v>
+      </c>
+    </row>
+    <row r="2601" spans="1:4">
+      <c r="A2601" s="2">
+        <v>44084</v>
+      </c>
+      <c r="B2601">
+        <v>35.5036654900896</v>
+      </c>
+      <c r="C2601">
+        <v>-0.07656419531793102</v>
+      </c>
+      <c r="D2601">
+        <v>0.1602365102715461</v>
+      </c>
+    </row>
+    <row r="2602" spans="1:4">
+      <c r="A2602" s="2">
+        <v>44085</v>
+      </c>
+      <c r="B2602">
+        <v>35.83817540048873</v>
+      </c>
+      <c r="C2602">
+        <v>-0.06255967066339159</v>
+      </c>
+      <c r="D2602">
+        <v>0.2204783559994475</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/881001.WI.xlsx
+++ b/website/everyday-update/data/881001.WI.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2602"/>
+  <dimension ref="A1:D2612"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -36737,7 +36737,7 @@
         <v>35.53244637523758</v>
       </c>
       <c r="C2598">
-        <v>-0.02205747230035106</v>
+        <v>-0.02205747230035105</v>
       </c>
       <c r="D2598">
         <v>0.3687503054829177</v>
@@ -36751,7 +36751,7 @@
         <v>35.62693456421395</v>
       </c>
       <c r="C2599">
-        <v>-0.01376039125378114</v>
+        <v>-0.01376039125378115</v>
       </c>
       <c r="D2599">
         <v>0.4361396823065322</v>
@@ -36779,7 +36779,7 @@
         <v>35.5036654900896</v>
       </c>
       <c r="C2601">
-        <v>-0.07656419531793102</v>
+        <v>-0.076564195317931</v>
       </c>
       <c r="D2601">
         <v>0.1602365102715461</v>
@@ -36797,6 +36797,146 @@
       </c>
       <c r="D2602">
         <v>0.2204783559994475</v>
+      </c>
+    </row>
+    <row r="2603" spans="1:4">
+      <c r="A2603" s="2">
+        <v>44088</v>
+      </c>
+      <c r="B2603">
+        <v>36.14091773011132</v>
+      </c>
+      <c r="C2603">
+        <v>-0.04740469233561163</v>
+      </c>
+      <c r="D2603">
+        <v>0.2858896604511238</v>
+      </c>
+    </row>
+    <row r="2604" spans="1:4">
+      <c r="A2604" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B2604">
+        <v>36.50855281020907</v>
+      </c>
+      <c r="C2604">
+        <v>-0.04447421110687421</v>
+      </c>
+      <c r="D2604">
+        <v>0.2912532943073383</v>
+      </c>
+    </row>
+    <row r="2605" spans="1:4">
+      <c r="A2605" s="2">
+        <v>44090</v>
+      </c>
+      <c r="B2605">
+        <v>36.90768395329894</v>
+      </c>
+      <c r="C2605">
+        <v>-0.05017884857383135</v>
+      </c>
+      <c r="D2605">
+        <v>0.2596737012129859</v>
+      </c>
+    </row>
+    <row r="2606" spans="1:4">
+      <c r="A2606" s="2">
+        <v>44091</v>
+      </c>
+      <c r="B2606">
+        <v>37.30735813195764</v>
+      </c>
+      <c r="C2606">
+        <v>-0.04764353091407728</v>
+      </c>
+      <c r="D2606">
+        <v>0.2756698696893726</v>
+      </c>
+    </row>
+    <row r="2607" spans="1:4">
+      <c r="A2607" s="2">
+        <v>44092</v>
+      </c>
+      <c r="B2607">
+        <v>37.6440401846321</v>
+      </c>
+      <c r="C2607">
+        <v>-0.03421073006560255</v>
+      </c>
+      <c r="D2607">
+        <v>0.3543692376298818</v>
+      </c>
+    </row>
+    <row r="2608" spans="1:4">
+      <c r="A2608" s="2">
+        <v>44095</v>
+      </c>
+      <c r="B2608">
+        <v>38.02280749389085</v>
+      </c>
+      <c r="C2608">
+        <v>-0.03589138144394118</v>
+      </c>
+      <c r="D2608">
+        <v>0.3299912977419343</v>
+      </c>
+    </row>
+    <row r="2609" spans="1:4">
+      <c r="A2609" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B2609">
+        <v>38.41976649470541</v>
+      </c>
+      <c r="C2609">
+        <v>-0.0496208739404048</v>
+      </c>
+      <c r="D2609">
+        <v>0.2452280058515113</v>
+      </c>
+    </row>
+    <row r="2610" spans="1:4">
+      <c r="A2610" s="2">
+        <v>44097</v>
+      </c>
+      <c r="B2610">
+        <v>38.86777083898995</v>
+      </c>
+      <c r="C2610">
+        <v>-0.0440575949366768</v>
+      </c>
+      <c r="D2610">
+        <v>0.280860151839454</v>
+      </c>
+    </row>
+    <row r="2611" spans="1:4">
+      <c r="A2611" s="2">
+        <v>44098</v>
+      </c>
+      <c r="B2611">
+        <v>39.27206081998371</v>
+      </c>
+      <c r="C2611">
+        <v>-0.06836505363260786</v>
+      </c>
+      <c r="D2611">
+        <v>0.1697137952380276</v>
+      </c>
+    </row>
+    <row r="2612" spans="1:4">
+      <c r="A2612" s="2">
+        <v>44099</v>
+      </c>
+      <c r="B2612">
+        <v>39.76812381210969</v>
+      </c>
+      <c r="C2612">
+        <v>-0.0715320756215972</v>
+      </c>
+      <c r="D2612">
+        <v>0.1669162531875961</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/881001.WI.xlsx
+++ b/website/everyday-update/data/881001.WI.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2612"/>
+  <dimension ref="A1:D2616"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -36877,7 +36877,7 @@
         <v>38.02280749389085</v>
       </c>
       <c r="C2608">
-        <v>-0.03589138144394118</v>
+        <v>-0.03589138144394115</v>
       </c>
       <c r="D2608">
         <v>0.3299912977419343</v>
@@ -36891,7 +36891,7 @@
         <v>38.41976649470541</v>
       </c>
       <c r="C2609">
-        <v>-0.0496208739404048</v>
+        <v>-0.04962087394040478</v>
       </c>
       <c r="D2609">
         <v>0.2452280058515113</v>
@@ -36905,7 +36905,7 @@
         <v>38.86777083898995</v>
       </c>
       <c r="C2610">
-        <v>-0.0440575949366768</v>
+        <v>-0.04405759493667681</v>
       </c>
       <c r="D2610">
         <v>0.280860151839454</v>
@@ -36919,7 +36919,7 @@
         <v>39.27206081998371</v>
       </c>
       <c r="C2611">
-        <v>-0.06836505363260786</v>
+        <v>-0.06836505363260788</v>
       </c>
       <c r="D2611">
         <v>0.1697137952380276</v>
@@ -36937,6 +36937,62 @@
       </c>
       <c r="D2612">
         <v>0.1669162531875961</v>
+      </c>
+    </row>
+    <row r="2613" spans="1:4">
+      <c r="A2613" s="2">
+        <v>44102</v>
+      </c>
+      <c r="B2613">
+        <v>40.27993483573174</v>
+      </c>
+      <c r="C2613">
+        <v>-0.08251639452754954</v>
+      </c>
+      <c r="D2613">
+        <v>0.1384549839609531</v>
+      </c>
+    </row>
+    <row r="2614" spans="1:4">
+      <c r="A2614" s="2">
+        <v>44103</v>
+      </c>
+      <c r="B2614">
+        <v>40.80070594623948</v>
+      </c>
+      <c r="C2614">
+        <v>-0.07442224962321307</v>
+      </c>
+      <c r="D2614">
+        <v>0.1719740143819731</v>
+      </c>
+    </row>
+    <row r="2615" spans="1:4">
+      <c r="A2615" s="2">
+        <v>44104</v>
+      </c>
+      <c r="B2615">
+        <v>41.35161553081727</v>
+      </c>
+      <c r="C2615">
+        <v>-0.07516639933189678</v>
+      </c>
+      <c r="D2615">
+        <v>0.1728384245924123</v>
+      </c>
+    </row>
+    <row r="2616" spans="1:4">
+      <c r="A2616" s="2">
+        <v>44113</v>
+      </c>
+      <c r="B2616">
+        <v>41.77056747216943</v>
+      </c>
+      <c r="C2616">
+        <v>-0.0476389999573612</v>
+      </c>
+      <c r="D2616">
+        <v>0.3020527337575578</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/881001.WI.xlsx
+++ b/website/everyday-update/data/881001.WI.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2616"/>
+  <dimension ref="A1:D2641"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -36989,10 +36989,360 @@
         <v>41.77056747216943</v>
       </c>
       <c r="C2616">
-        <v>-0.0476389999573612</v>
+        <v>-0.04763899995736117</v>
       </c>
       <c r="D2616">
         <v>0.3020527337575578</v>
+      </c>
+    </row>
+    <row r="2617" spans="1:4">
+      <c r="A2617" s="2">
+        <v>44116</v>
+      </c>
+      <c r="B2617">
+        <v>41.98859625305457</v>
+      </c>
+      <c r="C2617">
+        <v>-0.02010822247533272</v>
+      </c>
+      <c r="D2617">
+        <v>0.4389491087237403</v>
+      </c>
+    </row>
+    <row r="2618" spans="1:4">
+      <c r="A2618" s="2">
+        <v>44117</v>
+      </c>
+      <c r="B2618">
+        <v>42.32039098560956</v>
+      </c>
+      <c r="C2618">
+        <v>-0.01775022302919434</v>
+      </c>
+      <c r="D2618">
+        <v>0.4421920175247081</v>
+      </c>
+    </row>
+    <row r="2619" spans="1:4">
+      <c r="A2619" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B2619">
+        <v>42.62910670648927</v>
+      </c>
+      <c r="C2619">
+        <v>-0.02513129772931183</v>
+      </c>
+      <c r="D2619">
+        <v>0.3869764883293424</v>
+      </c>
+    </row>
+    <row r="2620" spans="1:4">
+      <c r="A2620" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B2620">
+        <v>42.94814010317675</v>
+      </c>
+      <c r="C2620">
+        <v>-0.03245478824212915</v>
+      </c>
+      <c r="D2620">
+        <v>0.347045519876885</v>
+      </c>
+    </row>
+    <row r="2621" spans="1:4">
+      <c r="A2621" s="2">
+        <v>44120</v>
+      </c>
+      <c r="B2621">
+        <v>43.29025251153951</v>
+      </c>
+      <c r="C2621">
+        <v>-0.0320339615099288</v>
+      </c>
+      <c r="D2621">
+        <v>0.3583642918851596</v>
+      </c>
+    </row>
+    <row r="2622" spans="1:4">
+      <c r="A2622" s="2">
+        <v>44123</v>
+      </c>
+      <c r="B2622">
+        <v>43.61743144175944</v>
+      </c>
+      <c r="C2622">
+        <v>-0.03731283702904049</v>
+      </c>
+      <c r="D2622">
+        <v>0.3226958402401765</v>
+      </c>
+    </row>
+    <row r="2623" spans="1:4">
+      <c r="A2623" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B2623">
+        <v>44.01792017377138</v>
+      </c>
+      <c r="C2623">
+        <v>-0.0283370600586502</v>
+      </c>
+      <c r="D2623">
+        <v>0.3886843274204438</v>
+      </c>
+    </row>
+    <row r="2624" spans="1:4">
+      <c r="A2624" s="2">
+        <v>44125</v>
+      </c>
+      <c r="B2624">
+        <v>44.38636980722237</v>
+      </c>
+      <c r="C2624">
+        <v>-0.04003800161389678</v>
+      </c>
+      <c r="D2624">
+        <v>0.3043688255479505</v>
+      </c>
+    </row>
+    <row r="2625" spans="1:4">
+      <c r="A2625" s="2">
+        <v>44126</v>
+      </c>
+      <c r="B2625">
+        <v>44.79799076839533</v>
+      </c>
+      <c r="C2625">
+        <v>-0.04311548593134282</v>
+      </c>
+      <c r="D2625">
+        <v>0.2989118949780434</v>
+      </c>
+    </row>
+    <row r="2626" spans="1:4">
+      <c r="A2626" s="2">
+        <v>44127</v>
+      </c>
+      <c r="B2626">
+        <v>45.10073309801792</v>
+      </c>
+      <c r="C2626">
+        <v>-0.05491099502548746</v>
+      </c>
+      <c r="D2626">
+        <v>0.2333457571234508</v>
+      </c>
+    </row>
+    <row r="2627" spans="1:4">
+      <c r="A2627" s="2">
+        <v>44130</v>
+      </c>
+      <c r="B2627">
+        <v>45.51316861254412</v>
+      </c>
+      <c r="C2627">
+        <v>-0.05298240736774138</v>
+      </c>
+      <c r="D2627">
+        <v>0.2605623011212736</v>
+      </c>
+    </row>
+    <row r="2628" spans="1:4">
+      <c r="A2628" s="2">
+        <v>44131</v>
+      </c>
+      <c r="B2628">
+        <v>45.92506109150149</v>
+      </c>
+      <c r="C2628">
+        <v>-0.05269380999912841</v>
+      </c>
+      <c r="D2628">
+        <v>0.2603908413688723</v>
+      </c>
+    </row>
+    <row r="2629" spans="1:4">
+      <c r="A2629" s="2">
+        <v>44132</v>
+      </c>
+      <c r="B2629">
+        <v>46.26255769752919</v>
+      </c>
+      <c r="C2629">
+        <v>-0.05039751147540178</v>
+      </c>
+      <c r="D2629">
+        <v>0.2840345337997383</v>
+      </c>
+    </row>
+    <row r="2630" spans="1:4">
+      <c r="A2630" s="2">
+        <v>44133</v>
+      </c>
+      <c r="B2630">
+        <v>46.5639424382297</v>
+      </c>
+      <c r="C2630">
+        <v>-0.05180820332179728</v>
+      </c>
+      <c r="D2630">
+        <v>0.2755697848556469</v>
+      </c>
+    </row>
+    <row r="2631" spans="1:4">
+      <c r="A2631" s="2">
+        <v>44134</v>
+      </c>
+      <c r="B2631">
+        <v>46.72278034211241</v>
+      </c>
+      <c r="C2631">
+        <v>-0.07476195085179911</v>
+      </c>
+      <c r="D2631">
+        <v>0.1805542315615556</v>
+      </c>
+    </row>
+    <row r="2632" spans="1:4">
+      <c r="A2632" s="2">
+        <v>44137</v>
+      </c>
+      <c r="B2632">
+        <v>46.95139831658974</v>
+      </c>
+      <c r="C2632">
+        <v>-0.07218006678326</v>
+      </c>
+      <c r="D2632">
+        <v>0.2260827715405551</v>
+      </c>
+    </row>
+    <row r="2633" spans="1:4">
+      <c r="A2633" s="2">
+        <v>44138</v>
+      </c>
+      <c r="B2633">
+        <v>47.20961172956829</v>
+      </c>
+      <c r="C2633">
+        <v>-0.05440080275461695</v>
+      </c>
+      <c r="D2633">
+        <v>0.2958735514597238</v>
+      </c>
+    </row>
+    <row r="2634" spans="1:4">
+      <c r="A2634" s="2">
+        <v>44139</v>
+      </c>
+      <c r="B2634">
+        <v>47.54547922888949</v>
+      </c>
+      <c r="C2634">
+        <v>-0.05591973425916032</v>
+      </c>
+      <c r="D2634">
+        <v>0.2825959888296152</v>
+      </c>
+    </row>
+    <row r="2635" spans="1:4">
+      <c r="A2635" s="2">
+        <v>44140</v>
+      </c>
+      <c r="B2635">
+        <v>47.74721694270975</v>
+      </c>
+      <c r="C2635">
+        <v>-0.03942859296548931</v>
+      </c>
+      <c r="D2635">
+        <v>0.3727344173491846</v>
+      </c>
+    </row>
+    <row r="2636" spans="1:4">
+      <c r="A2636" s="2">
+        <v>44141</v>
+      </c>
+      <c r="B2636">
+        <v>47.95357045886506</v>
+      </c>
+      <c r="C2636">
+        <v>-0.04741888867747147</v>
+      </c>
+      <c r="D2636">
+        <v>0.3081916207930634</v>
+      </c>
+    </row>
+    <row r="2637" spans="1:4">
+      <c r="A2637" s="2">
+        <v>44144</v>
+      </c>
+      <c r="B2637">
+        <v>47.9380939451534</v>
+      </c>
+      <c r="C2637">
+        <v>-0.02813869913455821</v>
+      </c>
+      <c r="D2637">
+        <v>0.4146472455285177</v>
+      </c>
+    </row>
+    <row r="2638" spans="1:4">
+      <c r="A2638" s="2">
+        <v>44145</v>
+      </c>
+      <c r="B2638">
+        <v>48.03991311430899</v>
+      </c>
+      <c r="C2638">
+        <v>-0.03647561775698843</v>
+      </c>
+      <c r="D2638">
+        <v>0.3463190638818306</v>
+      </c>
+    </row>
+    <row r="2639" spans="1:4">
+      <c r="A2639" s="2">
+        <v>44146</v>
+      </c>
+      <c r="B2639">
+        <v>48.19006244909041</v>
+      </c>
+      <c r="C2639">
+        <v>-0.04640661575116495</v>
+      </c>
+      <c r="D2639">
+        <v>0.294699534288413</v>
+      </c>
+    </row>
+    <row r="2640" spans="1:4">
+      <c r="A2640" s="2">
+        <v>44147</v>
+      </c>
+      <c r="B2640">
+        <v>48.15938093945154</v>
+      </c>
+      <c r="C2640">
+        <v>-0.04360415879427988</v>
+      </c>
+      <c r="D2640">
+        <v>0.310252104929464</v>
+      </c>
+    </row>
+    <row r="2641" spans="1:4">
+      <c r="A2641" s="2">
+        <v>44148</v>
+      </c>
+      <c r="B2641">
+        <v>48.39913114308987</v>
+      </c>
+      <c r="C2641">
+        <v>-0.04355695803780352</v>
+      </c>
+      <c r="D2641">
+        <v>0.3132627171945745</v>
       </c>
     </row>
   </sheetData>

--- a/website/everyday-update/data/881001.WI.xlsx
+++ b/website/everyday-update/data/881001.WI.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2641"/>
+  <dimension ref="A1:D2656"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -37283,7 +37283,7 @@
         <v>47.9380939451534</v>
       </c>
       <c r="C2637">
-        <v>-0.02813869913455821</v>
+        <v>-0.02813869913455818</v>
       </c>
       <c r="D2637">
         <v>0.4146472455285177</v>
@@ -37297,7 +37297,7 @@
         <v>48.03991311430899</v>
       </c>
       <c r="C2638">
-        <v>-0.03647561775698843</v>
+        <v>-0.03647561775698839</v>
       </c>
       <c r="D2638">
         <v>0.3463190638818306</v>
@@ -37311,7 +37311,7 @@
         <v>48.19006244909041</v>
       </c>
       <c r="C2639">
-        <v>-0.04640661575116495</v>
+        <v>-0.04640661575116497</v>
       </c>
       <c r="D2639">
         <v>0.294699534288413</v>
@@ -37325,7 +37325,7 @@
         <v>48.15938093945154</v>
       </c>
       <c r="C2640">
-        <v>-0.04360415879427988</v>
+        <v>-0.0436041587942799</v>
       </c>
       <c r="D2640">
         <v>0.310252104929464</v>
@@ -37339,10 +37339,220 @@
         <v>48.39913114308987</v>
       </c>
       <c r="C2641">
-        <v>-0.04355695803780352</v>
+        <v>-0.04355695803780353</v>
       </c>
       <c r="D2641">
         <v>0.3132627171945745</v>
+      </c>
+    </row>
+    <row r="2642" spans="1:4">
+      <c r="A2642" s="2">
+        <v>44151</v>
+      </c>
+      <c r="B2642">
+        <v>48.50828129242466</v>
+      </c>
+      <c r="C2642">
+        <v>-0.0337319131914743</v>
+      </c>
+      <c r="D2642">
+        <v>0.3742188368418706</v>
+      </c>
+    </row>
+    <row r="2643" spans="1:4">
+      <c r="A2643" s="2">
+        <v>44152</v>
+      </c>
+      <c r="B2643">
+        <v>48.56339940266088</v>
+      </c>
+      <c r="C2643">
+        <v>-0.03939070583013825</v>
+      </c>
+      <c r="D2643">
+        <v>0.3464562195315107</v>
+      </c>
+    </row>
+    <row r="2644" spans="1:4">
+      <c r="A2644" s="2">
+        <v>44153</v>
+      </c>
+      <c r="B2644">
+        <v>48.68748303013847</v>
+      </c>
+      <c r="C2644">
+        <v>-0.03580417687170558</v>
+      </c>
+      <c r="D2644">
+        <v>0.3667295020135247</v>
+      </c>
+    </row>
+    <row r="2645" spans="1:4">
+      <c r="A2645" s="2">
+        <v>44154</v>
+      </c>
+      <c r="B2645">
+        <v>48.82134129785501</v>
+      </c>
+      <c r="C2645">
+        <v>-0.03288158346123801</v>
+      </c>
+      <c r="D2645">
+        <v>0.3801770474734139</v>
+      </c>
+    </row>
+    <row r="2646" spans="1:4">
+      <c r="A2646" s="2">
+        <v>44155</v>
+      </c>
+      <c r="B2646">
+        <v>48.94298126527288</v>
+      </c>
+      <c r="C2646">
+        <v>-0.02712927154145562</v>
+      </c>
+      <c r="D2646">
+        <v>0.4151169430294647</v>
+      </c>
+    </row>
+    <row r="2647" spans="1:4">
+      <c r="A2647" s="2">
+        <v>44158</v>
+      </c>
+      <c r="B2647">
+        <v>48.88026065707304</v>
+      </c>
+      <c r="C2647">
+        <v>-0.02323842637307254</v>
+      </c>
+      <c r="D2647">
+        <v>0.4293501701169916</v>
+      </c>
+    </row>
+    <row r="2648" spans="1:4">
+      <c r="A2648" s="2">
+        <v>44159</v>
+      </c>
+      <c r="B2648">
+        <v>48.95004072766766</v>
+      </c>
+      <c r="C2648">
+        <v>-0.02374574802171084</v>
+      </c>
+      <c r="D2648">
+        <v>0.4146803655024973</v>
+      </c>
+    </row>
+    <row r="2649" spans="1:4">
+      <c r="A2649" s="2">
+        <v>44160</v>
+      </c>
+      <c r="B2649">
+        <v>48.93945153407548</v>
+      </c>
+      <c r="C2649">
+        <v>-0.03628584756376701</v>
+      </c>
+      <c r="D2649">
+        <v>0.3334003837577412</v>
+      </c>
+    </row>
+    <row r="2650" spans="1:4">
+      <c r="A2650" s="2">
+        <v>44161</v>
+      </c>
+      <c r="B2650">
+        <v>49.09693184903611</v>
+      </c>
+      <c r="C2650">
+        <v>-0.04001862998965432</v>
+      </c>
+      <c r="D2650">
+        <v>0.3235625125738529</v>
+      </c>
+    </row>
+    <row r="2651" spans="1:4">
+      <c r="A2651" s="2">
+        <v>44162</v>
+      </c>
+      <c r="B2651">
+        <v>49.25386912842792</v>
+      </c>
+      <c r="C2651">
+        <v>-0.03920053967963116</v>
+      </c>
+      <c r="D2651">
+        <v>0.3357636027835246</v>
+      </c>
+    </row>
+    <row r="2652" spans="1:4">
+      <c r="A2652" s="2">
+        <v>44165</v>
+      </c>
+      <c r="B2652">
+        <v>49.2829215313603</v>
+      </c>
+      <c r="C2652">
+        <v>-0.04162160005552294</v>
+      </c>
+      <c r="D2652">
+        <v>0.3139607664779575</v>
+      </c>
+    </row>
+    <row r="2653" spans="1:4">
+      <c r="A2653" s="2">
+        <v>44166</v>
+      </c>
+      <c r="B2653">
+        <v>49.35351615530817</v>
+      </c>
+      <c r="C2653">
+        <v>-0.02907668746093937</v>
+      </c>
+      <c r="D2653">
+        <v>0.3997675627021557</v>
+      </c>
+    </row>
+    <row r="2654" spans="1:4">
+      <c r="A2654" s="2">
+        <v>44167</v>
+      </c>
+      <c r="B2654">
+        <v>49.4070051588379</v>
+      </c>
+      <c r="C2654">
+        <v>-0.02726853841881216</v>
+      </c>
+      <c r="D2654">
+        <v>0.3999708911504963</v>
+      </c>
+    </row>
+    <row r="2655" spans="1:4">
+      <c r="A2655" s="2">
+        <v>44168</v>
+      </c>
+      <c r="B2655">
+        <v>49.49796361661689</v>
+      </c>
+      <c r="C2655">
+        <v>-0.02871396291889108</v>
+      </c>
+      <c r="D2655">
+        <v>0.3845239118801375</v>
+      </c>
+    </row>
+    <row r="2656" spans="1:4">
+      <c r="A2656" s="2">
+        <v>44169</v>
+      </c>
+      <c r="B2656">
+        <v>49.67064892750475</v>
+      </c>
+      <c r="C2656">
+        <v>-0.02647005938130549</v>
+      </c>
+      <c r="D2656">
+        <v>0.3962261179614698</v>
       </c>
     </row>
   </sheetData>
